--- a/Kabupaten.xlsx
+++ b/Kabupaten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53866A48-7728-4151-BB4F-B3BE387E23B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEDE77-5C70-4BDD-8C29-6F44561EA0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{127D6652-6787-4AD3-A30E-A3B85521FE10}"/>
   </bookViews>
@@ -5502,14 +5502,14 @@
   <dimension ref="A1:F516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E518" sqref="E518"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
@@ -5549,11 +5549,17 @@
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="9">
+        <v>11</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>521</v>
       </c>
       <c r="D3" s="8">
         <v>1101</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>1035</v>
@@ -5563,11 +5569,17 @@
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="9">
+        <v>11</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>522</v>
       </c>
       <c r="D4" s="8">
         <v>1102</v>
+      </c>
+      <c r="E4" s="9">
+        <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>1036</v>
@@ -5577,11 +5589,17 @@
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="9">
+        <v>11</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>523</v>
       </c>
       <c r="D5" s="8">
         <v>1103</v>
+      </c>
+      <c r="E5" s="9">
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>1037</v>
@@ -5591,11 +5609,17 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="9">
+        <v>11</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>524</v>
       </c>
       <c r="D6" s="8">
         <v>1104</v>
+      </c>
+      <c r="E6" s="9">
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>1038</v>
@@ -5605,11 +5629,17 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="9">
+        <v>11</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>525</v>
       </c>
       <c r="D7" s="8">
         <v>1105</v>
+      </c>
+      <c r="E7" s="9">
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>1039</v>
@@ -5619,11 +5649,17 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="9">
+        <v>11</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>526</v>
       </c>
       <c r="D8" s="8">
         <v>1106</v>
+      </c>
+      <c r="E8" s="9">
+        <v>11</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>1040</v>
@@ -5633,11 +5669,17 @@
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="9">
+        <v>11</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>527</v>
       </c>
       <c r="D9" s="8">
         <v>1107</v>
+      </c>
+      <c r="E9" s="9">
+        <v>11</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>1041</v>
@@ -5647,11 +5689,17 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="9">
+        <v>11</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>528</v>
       </c>
       <c r="D10" s="8">
         <v>1108</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>1042</v>
@@ -5661,11 +5709,17 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="9">
+        <v>11</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>529</v>
       </c>
       <c r="D11" s="8">
         <v>1109</v>
+      </c>
+      <c r="E11" s="9">
+        <v>11</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>1043</v>
@@ -5675,11 +5729,17 @@
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>530</v>
       </c>
       <c r="D12" s="8">
         <v>1110</v>
+      </c>
+      <c r="E12" s="9">
+        <v>11</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>1044</v>
@@ -5689,11 +5749,17 @@
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>531</v>
       </c>
       <c r="D13" s="8">
         <v>1111</v>
+      </c>
+      <c r="E13" s="9">
+        <v>11</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>1045</v>
@@ -5703,11 +5769,17 @@
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>532</v>
       </c>
       <c r="D14" s="8">
         <v>1112</v>
+      </c>
+      <c r="E14" s="9">
+        <v>11</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>1046</v>
@@ -5717,11 +5789,17 @@
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>533</v>
       </c>
       <c r="D15" s="8">
         <v>1113</v>
+      </c>
+      <c r="E15" s="9">
+        <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>1047</v>
@@ -5731,11 +5809,17 @@
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B16" s="9">
+        <v>11</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D16" s="8">
         <v>1114</v>
+      </c>
+      <c r="E16" s="9">
+        <v>11</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>1048</v>
@@ -5745,11 +5829,17 @@
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="B17" s="9">
+        <v>11</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>535</v>
       </c>
       <c r="D17" s="8">
         <v>1115</v>
+      </c>
+      <c r="E17" s="9">
+        <v>11</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>1049</v>
@@ -5759,11 +5849,17 @@
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B18" s="9">
+        <v>11</v>
+      </c>
       <c r="C18" s="7" t="s">
         <v>536</v>
       </c>
       <c r="D18" s="8">
         <v>1116</v>
+      </c>
+      <c r="E18" s="9">
+        <v>11</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>1050</v>
@@ -5773,11 +5869,17 @@
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B19" s="9">
+        <v>11</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>537</v>
       </c>
       <c r="D19" s="8">
         <v>1117</v>
+      </c>
+      <c r="E19" s="9">
+        <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>1051</v>
@@ -5787,11 +5889,17 @@
       <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="9">
+        <v>11</v>
+      </c>
       <c r="C20" s="7" t="s">
         <v>538</v>
       </c>
       <c r="D20" s="8">
         <v>1118</v>
+      </c>
+      <c r="E20" s="9">
+        <v>11</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>1052</v>
@@ -5801,11 +5909,17 @@
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="B21" s="9">
+        <v>11</v>
+      </c>
       <c r="C21" s="7" t="s">
         <v>539</v>
       </c>
       <c r="D21" s="8">
         <v>1171</v>
+      </c>
+      <c r="E21" s="9">
+        <v>11</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>1053</v>
@@ -5815,11 +5929,17 @@
       <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B22" s="9">
+        <v>11</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>540</v>
       </c>
       <c r="D22" s="8">
         <v>1172</v>
+      </c>
+      <c r="E22" s="9">
+        <v>11</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>1054</v>
@@ -5829,11 +5949,17 @@
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B23" s="9">
+        <v>11</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>541</v>
       </c>
       <c r="D23" s="8">
         <v>1173</v>
+      </c>
+      <c r="E23" s="9">
+        <v>11</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>1055</v>
@@ -5843,11 +5969,17 @@
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B24" s="9">
+        <v>11</v>
+      </c>
       <c r="C24" s="7" t="s">
         <v>542</v>
       </c>
       <c r="D24" s="8">
         <v>1174</v>
+      </c>
+      <c r="E24" s="9">
+        <v>11</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>1056</v>
@@ -5857,11 +5989,17 @@
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>543</v>
       </c>
       <c r="D25" s="8">
         <v>1175</v>
+      </c>
+      <c r="E25" s="9">
+        <v>11</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>1057</v>
@@ -5871,11 +6009,17 @@
       <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>544</v>
       </c>
       <c r="D26" s="8">
         <v>1201</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>1058</v>
@@ -5885,11 +6029,17 @@
       <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="B27" s="9">
+        <v>12</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>545</v>
       </c>
       <c r="D27" s="8">
         <v>1202</v>
+      </c>
+      <c r="E27" s="9">
+        <v>12</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>1059</v>
@@ -5899,11 +6049,17 @@
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="B28" s="9">
+        <v>12</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>546</v>
       </c>
       <c r="D28" s="8">
         <v>1203</v>
+      </c>
+      <c r="E28" s="9">
+        <v>12</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>1060</v>
@@ -5913,11 +6069,17 @@
       <c r="A29" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="B29" s="9">
+        <v>12</v>
+      </c>
       <c r="C29" s="7" t="s">
         <v>547</v>
       </c>
       <c r="D29" s="8">
         <v>1204</v>
+      </c>
+      <c r="E29" s="9">
+        <v>12</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>1061</v>
@@ -5927,11 +6089,17 @@
       <c r="A30" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B30" s="9">
+        <v>12</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>548</v>
       </c>
       <c r="D30" s="8">
         <v>1205</v>
+      </c>
+      <c r="E30" s="9">
+        <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>1062</v>
@@ -5941,11 +6109,17 @@
       <c r="A31" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="B31" s="9">
+        <v>12</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>549</v>
       </c>
       <c r="D31" s="8">
         <v>1206</v>
+      </c>
+      <c r="E31" s="9">
+        <v>12</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>1063</v>
@@ -5955,11 +6129,17 @@
       <c r="A32" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="B32" s="9">
+        <v>12</v>
+      </c>
       <c r="C32" s="7" t="s">
         <v>550</v>
       </c>
       <c r="D32" s="8">
         <v>1207</v>
+      </c>
+      <c r="E32" s="9">
+        <v>12</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>1064</v>
@@ -5969,11 +6149,17 @@
       <c r="A33" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="B33" s="9">
+        <v>12</v>
+      </c>
       <c r="C33" s="7" t="s">
         <v>551</v>
       </c>
       <c r="D33" s="8">
         <v>1208</v>
+      </c>
+      <c r="E33" s="9">
+        <v>12</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>1065</v>
@@ -5983,11 +6169,17 @@
       <c r="A34" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="B34" s="9">
+        <v>12</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>552</v>
       </c>
       <c r="D34" s="8">
         <v>1209</v>
+      </c>
+      <c r="E34" s="9">
+        <v>12</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>1066</v>
@@ -5997,11 +6189,17 @@
       <c r="A35" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="B35" s="9">
+        <v>12</v>
+      </c>
       <c r="C35" s="7" t="s">
         <v>553</v>
       </c>
       <c r="D35" s="8">
         <v>1210</v>
+      </c>
+      <c r="E35" s="9">
+        <v>12</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>1067</v>
@@ -6011,11 +6209,17 @@
       <c r="A36" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="B36" s="9">
+        <v>12</v>
+      </c>
       <c r="C36" s="7" t="s">
         <v>554</v>
       </c>
       <c r="D36" s="8">
         <v>1211</v>
+      </c>
+      <c r="E36" s="9">
+        <v>12</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>1068</v>
@@ -6025,11 +6229,17 @@
       <c r="A37" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B37" s="9">
+        <v>12</v>
+      </c>
       <c r="C37" s="7" t="s">
         <v>555</v>
       </c>
       <c r="D37" s="8">
         <v>1212</v>
+      </c>
+      <c r="E37" s="9">
+        <v>12</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>1069</v>
@@ -6039,11 +6249,17 @@
       <c r="A38" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B38" s="9">
+        <v>12</v>
+      </c>
       <c r="C38" s="7" t="s">
         <v>556</v>
       </c>
       <c r="D38" s="8">
         <v>1213</v>
+      </c>
+      <c r="E38" s="9">
+        <v>12</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>1070</v>
@@ -6053,11 +6269,17 @@
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="B39" s="9">
+        <v>12</v>
+      </c>
       <c r="C39" s="7" t="s">
         <v>557</v>
       </c>
       <c r="D39" s="8">
         <v>1214</v>
+      </c>
+      <c r="E39" s="9">
+        <v>12</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>1071</v>
@@ -6067,11 +6289,17 @@
       <c r="A40" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="B40" s="9">
+        <v>12</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>558</v>
       </c>
       <c r="D40" s="8">
         <v>1215</v>
+      </c>
+      <c r="E40" s="9">
+        <v>12</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>1072</v>
@@ -6081,11 +6309,17 @@
       <c r="A41" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="B41" s="9">
+        <v>12</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>559</v>
       </c>
       <c r="D41" s="8">
         <v>1216</v>
+      </c>
+      <c r="E41" s="9">
+        <v>12</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>1073</v>
@@ -6095,11 +6329,17 @@
       <c r="A42" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="B42" s="9">
+        <v>12</v>
+      </c>
       <c r="C42" s="7" t="s">
         <v>560</v>
       </c>
       <c r="D42" s="8">
         <v>1217</v>
+      </c>
+      <c r="E42" s="9">
+        <v>12</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>1074</v>
@@ -6109,11 +6349,17 @@
       <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="B43" s="9">
+        <v>12</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>561</v>
       </c>
       <c r="D43" s="8">
         <v>1218</v>
+      </c>
+      <c r="E43" s="9">
+        <v>12</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>1075</v>
@@ -6123,11 +6369,17 @@
       <c r="A44" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="B44" s="9">
+        <v>12</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>562</v>
       </c>
       <c r="D44" s="8">
         <v>1219</v>
+      </c>
+      <c r="E44" s="9">
+        <v>12</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>1076</v>
@@ -6137,11 +6389,17 @@
       <c r="A45" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="B45" s="9">
+        <v>12</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>563</v>
       </c>
       <c r="D45" s="8">
         <v>1220</v>
+      </c>
+      <c r="E45" s="9">
+        <v>12</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>1077</v>
@@ -6151,11 +6409,17 @@
       <c r="A46" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="B46" s="9">
+        <v>12</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>564</v>
       </c>
       <c r="D46" s="8">
         <v>1221</v>
+      </c>
+      <c r="E46" s="9">
+        <v>12</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>1078</v>
@@ -6165,11 +6429,17 @@
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="B47" s="9">
+        <v>12</v>
+      </c>
       <c r="C47" s="7" t="s">
         <v>565</v>
       </c>
       <c r="D47" s="8">
         <v>1222</v>
+      </c>
+      <c r="E47" s="9">
+        <v>12</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>1079</v>
@@ -6179,11 +6449,17 @@
       <c r="A48" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="B48" s="9">
+        <v>12</v>
+      </c>
       <c r="C48" s="7" t="s">
         <v>566</v>
       </c>
       <c r="D48" s="8">
         <v>1223</v>
+      </c>
+      <c r="E48" s="9">
+        <v>12</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>1080</v>
@@ -6193,11 +6469,17 @@
       <c r="A49" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="B49" s="9">
+        <v>12</v>
+      </c>
       <c r="C49" s="7" t="s">
         <v>567</v>
       </c>
       <c r="D49" s="8">
         <v>1224</v>
+      </c>
+      <c r="E49" s="9">
+        <v>12</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>1081</v>
@@ -6207,11 +6489,17 @@
       <c r="A50" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="B50" s="9">
+        <v>12</v>
+      </c>
       <c r="C50" s="7" t="s">
         <v>568</v>
       </c>
       <c r="D50" s="8">
         <v>1225</v>
+      </c>
+      <c r="E50" s="9">
+        <v>12</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>1082</v>
@@ -6221,11 +6509,17 @@
       <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="B51" s="9">
+        <v>12</v>
+      </c>
       <c r="C51" s="7" t="s">
         <v>569</v>
       </c>
       <c r="D51" s="8">
         <v>1271</v>
+      </c>
+      <c r="E51" s="9">
+        <v>12</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>1083</v>
@@ -6235,11 +6529,17 @@
       <c r="A52" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="B52" s="9">
+        <v>12</v>
+      </c>
       <c r="C52" s="7" t="s">
         <v>570</v>
       </c>
       <c r="D52" s="8">
         <v>1272</v>
+      </c>
+      <c r="E52" s="9">
+        <v>12</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>1084</v>
@@ -6249,11 +6549,17 @@
       <c r="A53" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="B53" s="9">
+        <v>12</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>571</v>
       </c>
       <c r="D53" s="8">
         <v>1273</v>
+      </c>
+      <c r="E53" s="9">
+        <v>12</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>1085</v>
@@ -6263,11 +6569,17 @@
       <c r="A54" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="B54" s="9">
+        <v>12</v>
+      </c>
       <c r="C54" s="7" t="s">
         <v>572</v>
       </c>
       <c r="D54" s="8">
         <v>1274</v>
+      </c>
+      <c r="E54" s="9">
+        <v>12</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>1086</v>
@@ -6277,11 +6589,17 @@
       <c r="A55" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="B55" s="9">
+        <v>12</v>
+      </c>
       <c r="C55" s="7" t="s">
         <v>573</v>
       </c>
       <c r="D55" s="8">
         <v>1275</v>
+      </c>
+      <c r="E55" s="9">
+        <v>12</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>1087</v>
@@ -6291,11 +6609,17 @@
       <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="B56" s="9">
+        <v>12</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>574</v>
       </c>
       <c r="D56" s="8">
         <v>1276</v>
+      </c>
+      <c r="E56" s="9">
+        <v>12</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>1088</v>
@@ -6305,11 +6629,17 @@
       <c r="A57" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="B57" s="9">
+        <v>12</v>
+      </c>
       <c r="C57" s="7" t="s">
         <v>575</v>
       </c>
       <c r="D57" s="8">
         <v>1277</v>
+      </c>
+      <c r="E57" s="9">
+        <v>12</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>1089</v>
@@ -6319,11 +6649,17 @@
       <c r="A58" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="B58" s="9">
+        <v>12</v>
+      </c>
       <c r="C58" s="7" t="s">
         <v>576</v>
       </c>
       <c r="D58" s="8">
         <v>1278</v>
+      </c>
+      <c r="E58" s="9">
+        <v>12</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>1090</v>
@@ -6333,11 +6669,17 @@
       <c r="A59" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="B59">
+        <v>13</v>
+      </c>
       <c r="C59" s="7" t="s">
         <v>577</v>
       </c>
       <c r="D59" s="8">
         <v>1301</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>1091</v>
@@ -6347,11 +6689,17 @@
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="B60" s="9">
+        <v>13</v>
+      </c>
       <c r="C60" s="7" t="s">
         <v>578</v>
       </c>
       <c r="D60" s="8">
         <v>1302</v>
+      </c>
+      <c r="E60" s="9">
+        <v>13</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>1092</v>
@@ -6361,11 +6709,17 @@
       <c r="A61" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="B61" s="9">
+        <v>13</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>579</v>
       </c>
       <c r="D61" s="8">
         <v>1303</v>
+      </c>
+      <c r="E61" s="9">
+        <v>13</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>1093</v>
@@ -6375,11 +6729,17 @@
       <c r="A62" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="B62" s="9">
+        <v>13</v>
+      </c>
       <c r="C62" s="7" t="s">
         <v>580</v>
       </c>
       <c r="D62" s="8">
         <v>1304</v>
+      </c>
+      <c r="E62" s="9">
+        <v>13</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>1094</v>
@@ -6389,11 +6749,17 @@
       <c r="A63" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="B63" s="9">
+        <v>13</v>
+      </c>
       <c r="C63" s="7" t="s">
         <v>581</v>
       </c>
       <c r="D63" s="8">
         <v>1305</v>
+      </c>
+      <c r="E63" s="9">
+        <v>13</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>1095</v>
@@ -6403,11 +6769,17 @@
       <c r="A64" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="B64" s="9">
+        <v>13</v>
+      </c>
       <c r="C64" s="7" t="s">
         <v>582</v>
       </c>
       <c r="D64" s="8">
         <v>1306</v>
+      </c>
+      <c r="E64" s="9">
+        <v>13</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>1096</v>
@@ -6417,11 +6789,17 @@
       <c r="A65" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="B65" s="9">
+        <v>13</v>
+      </c>
       <c r="C65" s="7" t="s">
         <v>583</v>
       </c>
       <c r="D65" s="8">
         <v>1307</v>
+      </c>
+      <c r="E65" s="9">
+        <v>13</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>1097</v>
@@ -6431,11 +6809,17 @@
       <c r="A66" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="B66" s="9">
+        <v>13</v>
+      </c>
       <c r="C66" s="7" t="s">
         <v>584</v>
       </c>
       <c r="D66" s="8">
         <v>1308</v>
+      </c>
+      <c r="E66" s="9">
+        <v>13</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>1098</v>
@@ -6445,11 +6829,17 @@
       <c r="A67" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="B67" s="9">
+        <v>13</v>
+      </c>
       <c r="C67" s="7" t="s">
         <v>585</v>
       </c>
       <c r="D67" s="8">
         <v>1309</v>
+      </c>
+      <c r="E67" s="9">
+        <v>13</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>1099</v>
@@ -6459,11 +6849,17 @@
       <c r="A68" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="B68" s="9">
+        <v>13</v>
+      </c>
       <c r="C68" s="7" t="s">
         <v>586</v>
       </c>
       <c r="D68" s="8">
         <v>1310</v>
+      </c>
+      <c r="E68" s="9">
+        <v>13</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>1100</v>
@@ -6473,11 +6869,17 @@
       <c r="A69" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="B69" s="9">
+        <v>13</v>
+      </c>
       <c r="C69" s="7" t="s">
         <v>587</v>
       </c>
       <c r="D69" s="8">
         <v>1311</v>
+      </c>
+      <c r="E69" s="9">
+        <v>13</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>1101</v>
@@ -6487,11 +6889,17 @@
       <c r="A70" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="B70" s="9">
+        <v>13</v>
+      </c>
       <c r="C70" s="7" t="s">
         <v>588</v>
       </c>
       <c r="D70" s="8">
         <v>1312</v>
+      </c>
+      <c r="E70" s="9">
+        <v>13</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>1102</v>
@@ -6501,11 +6909,17 @@
       <c r="A71" s="6" t="s">
         <v>75</v>
       </c>
+      <c r="B71" s="9">
+        <v>13</v>
+      </c>
       <c r="C71" s="7" t="s">
         <v>589</v>
       </c>
       <c r="D71" s="8">
         <v>1371</v>
+      </c>
+      <c r="E71" s="9">
+        <v>13</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>1103</v>
@@ -6515,11 +6929,17 @@
       <c r="A72" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="B72" s="9">
+        <v>13</v>
+      </c>
       <c r="C72" s="7" t="s">
         <v>590</v>
       </c>
       <c r="D72" s="8">
         <v>1372</v>
+      </c>
+      <c r="E72" s="9">
+        <v>13</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>1093</v>
@@ -6529,11 +6949,17 @@
       <c r="A73" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="B73" s="9">
+        <v>13</v>
+      </c>
       <c r="C73" s="7" t="s">
         <v>591</v>
       </c>
       <c r="D73" s="8">
         <v>1373</v>
+      </c>
+      <c r="E73" s="9">
+        <v>13</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>1104</v>
@@ -6543,11 +6969,17 @@
       <c r="A74" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="B74" s="9">
+        <v>13</v>
+      </c>
       <c r="C74" s="7" t="s">
         <v>592</v>
       </c>
       <c r="D74" s="8">
         <v>1374</v>
+      </c>
+      <c r="E74" s="9">
+        <v>13</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>1105</v>
@@ -6557,11 +6989,17 @@
       <c r="A75" s="6" t="s">
         <v>79</v>
       </c>
+      <c r="B75" s="9">
+        <v>13</v>
+      </c>
       <c r="C75" s="7" t="s">
         <v>593</v>
       </c>
       <c r="D75" s="8">
         <v>1375</v>
+      </c>
+      <c r="E75" s="9">
+        <v>13</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>1106</v>
@@ -6571,11 +7009,17 @@
       <c r="A76" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="B76" s="9">
+        <v>13</v>
+      </c>
       <c r="C76" s="7" t="s">
         <v>594</v>
       </c>
       <c r="D76" s="8">
         <v>1376</v>
+      </c>
+      <c r="E76" s="9">
+        <v>13</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>1107</v>
@@ -6585,11 +7029,17 @@
       <c r="A77" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="B77" s="9">
+        <v>13</v>
+      </c>
       <c r="C77" s="7" t="s">
         <v>595</v>
       </c>
       <c r="D77" s="8">
         <v>1377</v>
+      </c>
+      <c r="E77" s="9">
+        <v>13</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>1108</v>
@@ -6599,11 +7049,17 @@
       <c r="A78" s="6" t="s">
         <v>82</v>
       </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
       <c r="C78" s="7" t="s">
         <v>596</v>
       </c>
       <c r="D78" s="8">
         <v>1401</v>
+      </c>
+      <c r="E78">
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>1109</v>
@@ -6613,11 +7069,17 @@
       <c r="A79" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="B79" s="9">
+        <v>14</v>
+      </c>
       <c r="C79" s="7" t="s">
         <v>597</v>
       </c>
       <c r="D79" s="8">
         <v>1402</v>
+      </c>
+      <c r="E79" s="9">
+        <v>14</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>1110</v>
@@ -6627,11 +7089,17 @@
       <c r="A80" s="6" t="s">
         <v>84</v>
       </c>
+      <c r="B80" s="9">
+        <v>14</v>
+      </c>
       <c r="C80" s="7" t="s">
         <v>598</v>
       </c>
       <c r="D80" s="8">
         <v>1403</v>
+      </c>
+      <c r="E80" s="9">
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>1111</v>
@@ -6641,11 +7109,17 @@
       <c r="A81" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="B81" s="9">
+        <v>14</v>
+      </c>
       <c r="C81" s="7" t="s">
         <v>599</v>
       </c>
       <c r="D81" s="8">
         <v>1404</v>
+      </c>
+      <c r="E81" s="9">
+        <v>14</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>1112</v>
@@ -6655,11 +7129,17 @@
       <c r="A82" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="B82" s="9">
+        <v>14</v>
+      </c>
       <c r="C82" s="7" t="s">
         <v>600</v>
       </c>
       <c r="D82" s="8">
         <v>1405</v>
+      </c>
+      <c r="E82" s="9">
+        <v>14</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>1113</v>
@@ -6669,11 +7149,17 @@
       <c r="A83" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="B83" s="9">
+        <v>14</v>
+      </c>
       <c r="C83" s="7" t="s">
         <v>601</v>
       </c>
       <c r="D83" s="8">
         <v>1406</v>
+      </c>
+      <c r="E83" s="9">
+        <v>14</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>1114</v>
@@ -6683,11 +7169,17 @@
       <c r="A84" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="B84" s="9">
+        <v>14</v>
+      </c>
       <c r="C84" s="7" t="s">
         <v>602</v>
       </c>
       <c r="D84" s="8">
         <v>1407</v>
+      </c>
+      <c r="E84" s="9">
+        <v>14</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>1115</v>
@@ -6697,11 +7189,17 @@
       <c r="A85" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="B85" s="9">
+        <v>14</v>
+      </c>
       <c r="C85" s="7" t="s">
         <v>603</v>
       </c>
       <c r="D85" s="8">
         <v>1408</v>
+      </c>
+      <c r="E85" s="9">
+        <v>14</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>1116</v>
@@ -6711,11 +7209,17 @@
       <c r="A86" s="6" t="s">
         <v>90</v>
       </c>
+      <c r="B86" s="9">
+        <v>14</v>
+      </c>
       <c r="C86" s="7" t="s">
         <v>604</v>
       </c>
       <c r="D86" s="8">
         <v>1409</v>
+      </c>
+      <c r="E86" s="9">
+        <v>14</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>1117</v>
@@ -6725,11 +7229,17 @@
       <c r="A87" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="B87" s="9">
+        <v>14</v>
+      </c>
       <c r="C87" s="7" t="s">
         <v>605</v>
       </c>
       <c r="D87" s="8">
         <v>1410</v>
+      </c>
+      <c r="E87" s="9">
+        <v>14</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>1118</v>
@@ -6739,11 +7249,17 @@
       <c r="A88" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="B88" s="9">
+        <v>14</v>
+      </c>
       <c r="C88" s="7" t="s">
         <v>606</v>
       </c>
       <c r="D88" s="8">
         <v>1471</v>
+      </c>
+      <c r="E88" s="9">
+        <v>14</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>1119</v>
@@ -6753,11 +7269,17 @@
       <c r="A89" s="6" t="s">
         <v>93</v>
       </c>
+      <c r="B89" s="9">
+        <v>14</v>
+      </c>
       <c r="C89" s="7" t="s">
         <v>607</v>
       </c>
       <c r="D89" s="8">
         <v>1473</v>
+      </c>
+      <c r="E89" s="9">
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>1120</v>
@@ -6767,11 +7289,17 @@
       <c r="A90" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="B90">
+        <v>15</v>
+      </c>
       <c r="C90" s="7" t="s">
         <v>608</v>
       </c>
       <c r="D90" s="8">
         <v>1501</v>
+      </c>
+      <c r="E90">
+        <v>15</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>1121</v>
@@ -6781,11 +7309,17 @@
       <c r="A91" s="6" t="s">
         <v>95</v>
       </c>
+      <c r="B91" s="9">
+        <v>15</v>
+      </c>
       <c r="C91" s="7" t="s">
         <v>609</v>
       </c>
       <c r="D91" s="8">
         <v>1502</v>
+      </c>
+      <c r="E91" s="9">
+        <v>15</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>1122</v>
@@ -6795,11 +7329,17 @@
       <c r="A92" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="B92" s="9">
+        <v>15</v>
+      </c>
       <c r="C92" s="7" t="s">
         <v>610</v>
       </c>
       <c r="D92" s="8">
         <v>1503</v>
+      </c>
+      <c r="E92" s="9">
+        <v>15</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>1123</v>
@@ -6809,11 +7349,17 @@
       <c r="A93" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="B93" s="9">
+        <v>15</v>
+      </c>
       <c r="C93" s="7" t="s">
         <v>611</v>
       </c>
       <c r="D93" s="8">
         <v>1504</v>
+      </c>
+      <c r="E93" s="9">
+        <v>15</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>1124</v>
@@ -6823,11 +7369,17 @@
       <c r="A94" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="B94" s="9">
+        <v>15</v>
+      </c>
       <c r="C94" s="7" t="s">
         <v>612</v>
       </c>
       <c r="D94" s="8">
         <v>1505</v>
+      </c>
+      <c r="E94" s="9">
+        <v>15</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>1125</v>
@@ -6837,11 +7389,17 @@
       <c r="A95" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="B95" s="9">
+        <v>15</v>
+      </c>
       <c r="C95" s="7" t="s">
         <v>613</v>
       </c>
       <c r="D95" s="8">
         <v>1506</v>
+      </c>
+      <c r="E95" s="9">
+        <v>15</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>1126</v>
@@ -6851,11 +7409,17 @@
       <c r="A96" s="6" t="s">
         <v>100</v>
       </c>
+      <c r="B96" s="9">
+        <v>15</v>
+      </c>
       <c r="C96" s="7" t="s">
         <v>614</v>
       </c>
       <c r="D96" s="8">
         <v>1507</v>
+      </c>
+      <c r="E96" s="9">
+        <v>15</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>1127</v>
@@ -6865,11 +7429,17 @@
       <c r="A97" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="B97" s="9">
+        <v>15</v>
+      </c>
       <c r="C97" s="7" t="s">
         <v>615</v>
       </c>
       <c r="D97" s="8">
         <v>1508</v>
+      </c>
+      <c r="E97" s="9">
+        <v>15</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>1128</v>
@@ -6879,11 +7449,17 @@
       <c r="A98" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="B98" s="9">
+        <v>15</v>
+      </c>
       <c r="C98" s="7" t="s">
         <v>616</v>
       </c>
       <c r="D98" s="8">
         <v>1509</v>
+      </c>
+      <c r="E98" s="9">
+        <v>15</v>
       </c>
       <c r="F98" s="9" t="s">
         <v>1129</v>
@@ -6893,11 +7469,17 @@
       <c r="A99" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="B99" s="9">
+        <v>15</v>
+      </c>
       <c r="C99" s="7" t="s">
         <v>617</v>
       </c>
       <c r="D99" s="8">
         <v>1571</v>
+      </c>
+      <c r="E99" s="9">
+        <v>15</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>1130</v>
@@ -6907,11 +7489,17 @@
       <c r="A100" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="B100" s="9">
+        <v>15</v>
+      </c>
       <c r="C100" s="7" t="s">
         <v>618</v>
       </c>
       <c r="D100" s="8">
         <v>1572</v>
+      </c>
+      <c r="E100" s="9">
+        <v>15</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>1131</v>
@@ -6921,11 +7509,17 @@
       <c r="A101" s="6" t="s">
         <v>105</v>
       </c>
+      <c r="B101">
+        <v>16</v>
+      </c>
       <c r="C101" s="7" t="s">
         <v>619</v>
       </c>
       <c r="D101" s="8">
         <v>1601</v>
+      </c>
+      <c r="E101">
+        <v>16</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>1132</v>
@@ -6935,11 +7529,17 @@
       <c r="A102" s="6" t="s">
         <v>106</v>
       </c>
+      <c r="B102" s="9">
+        <v>16</v>
+      </c>
       <c r="C102" s="7" t="s">
         <v>620</v>
       </c>
       <c r="D102" s="8">
         <v>1602</v>
+      </c>
+      <c r="E102" s="9">
+        <v>16</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>1133</v>
@@ -6949,11 +7549,17 @@
       <c r="A103" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="B103" s="9">
+        <v>16</v>
+      </c>
       <c r="C103" s="7" t="s">
         <v>621</v>
       </c>
       <c r="D103" s="8">
         <v>1603</v>
+      </c>
+      <c r="E103" s="9">
+        <v>16</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>1134</v>
@@ -6963,11 +7569,17 @@
       <c r="A104" s="6" t="s">
         <v>108</v>
       </c>
+      <c r="B104" s="9">
+        <v>16</v>
+      </c>
       <c r="C104" s="7" t="s">
         <v>622</v>
       </c>
       <c r="D104" s="8">
         <v>1604</v>
+      </c>
+      <c r="E104" s="9">
+        <v>16</v>
       </c>
       <c r="F104" s="9" t="s">
         <v>1135</v>
@@ -6977,11 +7589,17 @@
       <c r="A105" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="B105" s="9">
+        <v>16</v>
+      </c>
       <c r="C105" s="7" t="s">
         <v>623</v>
       </c>
       <c r="D105" s="8">
         <v>1605</v>
+      </c>
+      <c r="E105" s="9">
+        <v>16</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>1136</v>
@@ -6991,11 +7609,17 @@
       <c r="A106" s="6" t="s">
         <v>110</v>
       </c>
+      <c r="B106" s="9">
+        <v>16</v>
+      </c>
       <c r="C106" s="7" t="s">
         <v>624</v>
       </c>
       <c r="D106" s="8">
         <v>1606</v>
+      </c>
+      <c r="E106" s="9">
+        <v>16</v>
       </c>
       <c r="F106" s="9" t="s">
         <v>1137</v>
@@ -7005,11 +7629,17 @@
       <c r="A107" s="6" t="s">
         <v>111</v>
       </c>
+      <c r="B107" s="9">
+        <v>16</v>
+      </c>
       <c r="C107" s="7" t="s">
         <v>625</v>
       </c>
       <c r="D107" s="8">
         <v>1607</v>
+      </c>
+      <c r="E107" s="9">
+        <v>16</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>1138</v>
@@ -7019,11 +7649,17 @@
       <c r="A108" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="B108" s="9">
+        <v>16</v>
+      </c>
       <c r="C108" s="7" t="s">
         <v>626</v>
       </c>
       <c r="D108" s="8">
         <v>1608</v>
+      </c>
+      <c r="E108" s="9">
+        <v>16</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>1139</v>
@@ -7033,11 +7669,17 @@
       <c r="A109" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="B109" s="9">
+        <v>16</v>
+      </c>
       <c r="C109" s="7" t="s">
         <v>627</v>
       </c>
       <c r="D109" s="8">
         <v>1609</v>
+      </c>
+      <c r="E109" s="9">
+        <v>16</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>1140</v>
@@ -7047,11 +7689,17 @@
       <c r="A110" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="B110" s="9">
+        <v>16</v>
+      </c>
       <c r="C110" s="7" t="s">
         <v>628</v>
       </c>
       <c r="D110" s="8">
         <v>1610</v>
+      </c>
+      <c r="E110" s="9">
+        <v>16</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>1141</v>
@@ -7061,11 +7709,17 @@
       <c r="A111" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="B111" s="9">
+        <v>16</v>
+      </c>
       <c r="C111" s="7" t="s">
         <v>629</v>
       </c>
       <c r="D111" s="8">
         <v>1611</v>
+      </c>
+      <c r="E111" s="9">
+        <v>16</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>1142</v>
@@ -7075,11 +7729,17 @@
       <c r="A112" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="B112" s="9">
+        <v>16</v>
+      </c>
       <c r="C112" s="7" t="s">
         <v>630</v>
       </c>
       <c r="D112" s="8">
         <v>1612</v>
+      </c>
+      <c r="E112" s="9">
+        <v>16</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>1143</v>
@@ -7089,11 +7749,17 @@
       <c r="A113" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="B113" s="9">
+        <v>16</v>
+      </c>
       <c r="C113" s="7" t="s">
         <v>631</v>
       </c>
       <c r="D113" s="8">
         <v>1613</v>
+      </c>
+      <c r="E113" s="9">
+        <v>16</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>1144</v>
@@ -7103,11 +7769,17 @@
       <c r="A114" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="B114" s="9">
+        <v>16</v>
+      </c>
       <c r="C114" s="7" t="s">
         <v>632</v>
       </c>
       <c r="D114" s="8">
         <v>1671</v>
+      </c>
+      <c r="E114" s="9">
+        <v>16</v>
       </c>
       <c r="F114" s="9" t="s">
         <v>1145</v>
@@ -7117,11 +7789,17 @@
       <c r="A115" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="B115" s="9">
+        <v>16</v>
+      </c>
       <c r="C115" s="7" t="s">
         <v>633</v>
       </c>
       <c r="D115" s="8">
         <v>1672</v>
+      </c>
+      <c r="E115" s="9">
+        <v>16</v>
       </c>
       <c r="F115" s="9" t="s">
         <v>1146</v>
@@ -7131,11 +7809,17 @@
       <c r="A116" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="B116" s="9">
+        <v>16</v>
+      </c>
       <c r="C116" s="7" t="s">
         <v>634</v>
       </c>
       <c r="D116" s="8">
         <v>1673</v>
+      </c>
+      <c r="E116" s="9">
+        <v>16</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>1147</v>
@@ -7145,11 +7829,17 @@
       <c r="A117" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="B117" s="9">
+        <v>16</v>
+      </c>
       <c r="C117" s="7" t="s">
         <v>635</v>
       </c>
       <c r="D117" s="8">
         <v>1674</v>
+      </c>
+      <c r="E117" s="9">
+        <v>16</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>1148</v>
@@ -7159,11 +7849,17 @@
       <c r="A118" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="B118" s="9">
+        <v>17</v>
+      </c>
       <c r="C118" s="7" t="s">
         <v>636</v>
       </c>
       <c r="D118" s="8">
         <v>1701</v>
+      </c>
+      <c r="E118">
+        <v>17</v>
       </c>
       <c r="F118" s="9" t="s">
         <v>1149</v>
@@ -7173,11 +7869,17 @@
       <c r="A119" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="B119" s="9">
+        <v>17</v>
+      </c>
       <c r="C119" s="7" t="s">
         <v>637</v>
       </c>
       <c r="D119" s="8">
         <v>1702</v>
+      </c>
+      <c r="E119" s="9">
+        <v>17</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>1150</v>
@@ -7187,11 +7889,17 @@
       <c r="A120" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="B120" s="9">
+        <v>17</v>
+      </c>
       <c r="C120" s="7" t="s">
         <v>638</v>
       </c>
       <c r="D120" s="8">
         <v>1703</v>
+      </c>
+      <c r="E120" s="9">
+        <v>17</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>1151</v>
@@ -7201,11 +7909,17 @@
       <c r="A121" s="6" t="s">
         <v>125</v>
       </c>
+      <c r="B121" s="9">
+        <v>17</v>
+      </c>
       <c r="C121" s="7" t="s">
         <v>639</v>
       </c>
       <c r="D121" s="8">
         <v>1704</v>
+      </c>
+      <c r="E121" s="9">
+        <v>17</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>1152</v>
@@ -7215,11 +7929,17 @@
       <c r="A122" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="B122" s="9">
+        <v>17</v>
+      </c>
       <c r="C122" s="7" t="s">
         <v>640</v>
       </c>
       <c r="D122" s="8">
         <v>1705</v>
+      </c>
+      <c r="E122" s="9">
+        <v>17</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>1153</v>
@@ -7229,11 +7949,17 @@
       <c r="A123" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="B123" s="9">
+        <v>17</v>
+      </c>
       <c r="C123" s="7" t="s">
         <v>641</v>
       </c>
       <c r="D123" s="8">
         <v>1706</v>
+      </c>
+      <c r="E123" s="9">
+        <v>17</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>1154</v>
@@ -7243,11 +7969,17 @@
       <c r="A124" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="B124" s="9">
+        <v>17</v>
+      </c>
       <c r="C124" s="7" t="s">
         <v>642</v>
       </c>
       <c r="D124" s="8">
         <v>1707</v>
+      </c>
+      <c r="E124" s="9">
+        <v>17</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>1155</v>
@@ -7257,11 +7989,17 @@
       <c r="A125" s="6" t="s">
         <v>129</v>
       </c>
+      <c r="B125" s="9">
+        <v>17</v>
+      </c>
       <c r="C125" s="7" t="s">
         <v>643</v>
       </c>
       <c r="D125" s="8">
         <v>1708</v>
+      </c>
+      <c r="E125" s="9">
+        <v>17</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>1156</v>
@@ -7271,11 +8009,17 @@
       <c r="A126" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="B126" s="9">
+        <v>17</v>
+      </c>
       <c r="C126" s="7" t="s">
         <v>644</v>
       </c>
       <c r="D126" s="8">
         <v>1709</v>
+      </c>
+      <c r="E126" s="9">
+        <v>17</v>
       </c>
       <c r="F126" s="9" t="s">
         <v>1157</v>
@@ -7285,11 +8029,17 @@
       <c r="A127" s="6" t="s">
         <v>131</v>
       </c>
+      <c r="B127" s="9">
+        <v>17</v>
+      </c>
       <c r="C127" s="7" t="s">
         <v>645</v>
       </c>
       <c r="D127" s="8">
         <v>1771</v>
+      </c>
+      <c r="E127" s="9">
+        <v>17</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>1158</v>
@@ -7299,11 +8049,17 @@
       <c r="A128" s="6" t="s">
         <v>132</v>
       </c>
+      <c r="B128">
+        <v>18</v>
+      </c>
       <c r="C128" s="7" t="s">
         <v>646</v>
       </c>
       <c r="D128" s="8">
         <v>1801</v>
+      </c>
+      <c r="E128" s="9">
+        <v>18</v>
       </c>
       <c r="F128" s="9" t="s">
         <v>1159</v>
@@ -7313,11 +8069,17 @@
       <c r="A129" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="B129" s="9">
+        <v>18</v>
+      </c>
       <c r="C129" s="7" t="s">
         <v>647</v>
       </c>
       <c r="D129" s="8">
         <v>1802</v>
+      </c>
+      <c r="E129" s="9">
+        <v>18</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>1160</v>
@@ -7327,11 +8089,17 @@
       <c r="A130" s="6" t="s">
         <v>134</v>
       </c>
+      <c r="B130" s="9">
+        <v>18</v>
+      </c>
       <c r="C130" s="7" t="s">
         <v>648</v>
       </c>
       <c r="D130" s="8">
         <v>1803</v>
+      </c>
+      <c r="E130" s="9">
+        <v>18</v>
       </c>
       <c r="F130" s="9" t="s">
         <v>1161</v>
@@ -7341,11 +8109,17 @@
       <c r="A131" s="6" t="s">
         <v>135</v>
       </c>
+      <c r="B131" s="9">
+        <v>18</v>
+      </c>
       <c r="C131" s="7" t="s">
         <v>649</v>
       </c>
       <c r="D131" s="8">
         <v>1804</v>
+      </c>
+      <c r="E131" s="9">
+        <v>18</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>1162</v>
@@ -7355,11 +8129,17 @@
       <c r="A132" s="6" t="s">
         <v>136</v>
       </c>
+      <c r="B132" s="9">
+        <v>18</v>
+      </c>
       <c r="C132" s="7" t="s">
         <v>650</v>
       </c>
       <c r="D132" s="8">
         <v>1805</v>
+      </c>
+      <c r="E132" s="9">
+        <v>18</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>1163</v>
@@ -7369,11 +8149,17 @@
       <c r="A133" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="B133" s="9">
+        <v>18</v>
+      </c>
       <c r="C133" s="7" t="s">
         <v>651</v>
       </c>
       <c r="D133" s="8">
         <v>1806</v>
+      </c>
+      <c r="E133" s="9">
+        <v>18</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>1164</v>
@@ -7383,11 +8169,17 @@
       <c r="A134" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="B134" s="9">
+        <v>18</v>
+      </c>
       <c r="C134" s="7" t="s">
         <v>652</v>
       </c>
       <c r="D134" s="8">
         <v>1807</v>
+      </c>
+      <c r="E134" s="9">
+        <v>18</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>1165</v>
@@ -7397,11 +8189,17 @@
       <c r="A135" s="6" t="s">
         <v>139</v>
       </c>
+      <c r="B135" s="9">
+        <v>18</v>
+      </c>
       <c r="C135" s="7" t="s">
         <v>653</v>
       </c>
       <c r="D135" s="8">
         <v>1808</v>
+      </c>
+      <c r="E135" s="9">
+        <v>18</v>
       </c>
       <c r="F135" s="9" t="s">
         <v>1166</v>
@@ -7411,11 +8209,17 @@
       <c r="A136" s="6" t="s">
         <v>140</v>
       </c>
+      <c r="B136" s="9">
+        <v>18</v>
+      </c>
       <c r="C136" s="7" t="s">
         <v>654</v>
       </c>
       <c r="D136" s="8">
         <v>1809</v>
+      </c>
+      <c r="E136" s="9">
+        <v>18</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>1167</v>
@@ -7425,11 +8229,17 @@
       <c r="A137" s="6" t="s">
         <v>141</v>
       </c>
+      <c r="B137" s="9">
+        <v>18</v>
+      </c>
       <c r="C137" s="7" t="s">
         <v>655</v>
       </c>
       <c r="D137" s="8">
         <v>1810</v>
+      </c>
+      <c r="E137" s="9">
+        <v>18</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>1168</v>
@@ -7439,11 +8249,17 @@
       <c r="A138" s="6" t="s">
         <v>142</v>
       </c>
+      <c r="B138" s="9">
+        <v>18</v>
+      </c>
       <c r="C138" s="7" t="s">
         <v>656</v>
       </c>
       <c r="D138" s="8">
         <v>1811</v>
+      </c>
+      <c r="E138" s="9">
+        <v>18</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>1169</v>
@@ -7453,11 +8269,17 @@
       <c r="A139" s="6" t="s">
         <v>143</v>
       </c>
+      <c r="B139" s="9">
+        <v>18</v>
+      </c>
       <c r="C139" s="7" t="s">
         <v>657</v>
       </c>
       <c r="D139" s="8">
         <v>1812</v>
+      </c>
+      <c r="E139" s="9">
+        <v>18</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>1170</v>
@@ -7467,11 +8289,17 @@
       <c r="A140" s="6" t="s">
         <v>144</v>
       </c>
+      <c r="B140" s="9">
+        <v>18</v>
+      </c>
       <c r="C140" s="7" t="s">
         <v>658</v>
       </c>
       <c r="D140" s="8">
         <v>1813</v>
+      </c>
+      <c r="E140" s="9">
+        <v>18</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>1171</v>
@@ -7481,11 +8309,17 @@
       <c r="A141" s="6" t="s">
         <v>145</v>
       </c>
+      <c r="B141" s="9">
+        <v>18</v>
+      </c>
       <c r="C141" s="7" t="s">
         <v>659</v>
       </c>
       <c r="D141" s="8">
         <v>1871</v>
+      </c>
+      <c r="E141" s="9">
+        <v>18</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>1172</v>
@@ -7495,11 +8329,17 @@
       <c r="A142" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="B142" s="9">
+        <v>18</v>
+      </c>
       <c r="C142" s="7" t="s">
         <v>660</v>
       </c>
       <c r="D142" s="8">
         <v>1872</v>
+      </c>
+      <c r="E142" s="9">
+        <v>18</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>1173</v>
@@ -7509,11 +8349,17 @@
       <c r="A143" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="B143">
+        <v>19</v>
+      </c>
       <c r="C143" s="7" t="s">
         <v>661</v>
       </c>
       <c r="D143" s="8">
         <v>1901</v>
+      </c>
+      <c r="E143" s="9">
+        <v>19</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>1174</v>
@@ -7523,11 +8369,17 @@
       <c r="A144" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="B144" s="9">
+        <v>19</v>
+      </c>
       <c r="C144" s="7" t="s">
         <v>662</v>
       </c>
       <c r="D144" s="8">
         <v>1902</v>
+      </c>
+      <c r="E144" s="9">
+        <v>19</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>1175</v>
@@ -7537,11 +8389,17 @@
       <c r="A145" s="6" t="s">
         <v>149</v>
       </c>
+      <c r="B145" s="9">
+        <v>19</v>
+      </c>
       <c r="C145" s="7" t="s">
         <v>663</v>
       </c>
       <c r="D145" s="8">
         <v>1903</v>
+      </c>
+      <c r="E145" s="9">
+        <v>19</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>1176</v>
@@ -7551,11 +8409,17 @@
       <c r="A146" s="6" t="s">
         <v>150</v>
       </c>
+      <c r="B146" s="9">
+        <v>19</v>
+      </c>
       <c r="C146" s="7" t="s">
         <v>664</v>
       </c>
       <c r="D146" s="8">
         <v>1904</v>
+      </c>
+      <c r="E146" s="9">
+        <v>19</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>1177</v>
@@ -7565,11 +8429,17 @@
       <c r="A147" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="B147" s="9">
+        <v>19</v>
+      </c>
       <c r="C147" s="7" t="s">
         <v>665</v>
       </c>
       <c r="D147" s="8">
         <v>1905</v>
+      </c>
+      <c r="E147" s="9">
+        <v>19</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>1178</v>
@@ -7579,11 +8449,17 @@
       <c r="A148" s="6" t="s">
         <v>152</v>
       </c>
+      <c r="B148" s="9">
+        <v>19</v>
+      </c>
       <c r="C148" s="7" t="s">
         <v>666</v>
       </c>
       <c r="D148" s="8">
         <v>1906</v>
+      </c>
+      <c r="E148" s="9">
+        <v>19</v>
       </c>
       <c r="F148" s="9" t="s">
         <v>1179</v>
@@ -7593,11 +8469,17 @@
       <c r="A149" s="6" t="s">
         <v>153</v>
       </c>
+      <c r="B149" s="9">
+        <v>19</v>
+      </c>
       <c r="C149" s="7" t="s">
         <v>667</v>
       </c>
       <c r="D149" s="8">
         <v>1971</v>
+      </c>
+      <c r="E149" s="9">
+        <v>19</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>1180</v>
@@ -7607,11 +8489,17 @@
       <c r="A150" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="B150">
+        <v>21</v>
+      </c>
       <c r="C150" s="7" t="s">
         <v>668</v>
       </c>
       <c r="D150" s="8">
         <v>2101</v>
+      </c>
+      <c r="E150">
+        <v>21</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>1181</v>
@@ -7621,11 +8509,17 @@
       <c r="A151" s="6" t="s">
         <v>155</v>
       </c>
+      <c r="B151" s="9">
+        <v>21</v>
+      </c>
       <c r="C151" s="7" t="s">
         <v>669</v>
       </c>
       <c r="D151" s="8">
         <v>2102</v>
+      </c>
+      <c r="E151" s="9">
+        <v>21</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>1182</v>
@@ -7635,11 +8529,17 @@
       <c r="A152" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="B152" s="9">
+        <v>21</v>
+      </c>
       <c r="C152" s="7" t="s">
         <v>670</v>
       </c>
       <c r="D152" s="8">
         <v>2103</v>
+      </c>
+      <c r="E152" s="9">
+        <v>21</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>1183</v>
@@ -7649,11 +8549,17 @@
       <c r="A153" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="B153" s="9">
+        <v>21</v>
+      </c>
       <c r="C153" s="7" t="s">
         <v>671</v>
       </c>
       <c r="D153" s="8">
         <v>2104</v>
+      </c>
+      <c r="E153" s="9">
+        <v>21</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>1184</v>
@@ -7663,11 +8569,17 @@
       <c r="A154" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="B154" s="9">
+        <v>21</v>
+      </c>
       <c r="C154" s="7" t="s">
         <v>672</v>
       </c>
       <c r="D154" s="8">
         <v>2105</v>
+      </c>
+      <c r="E154" s="9">
+        <v>21</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>1185</v>
@@ -7677,11 +8589,17 @@
       <c r="A155" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="B155" s="9">
+        <v>21</v>
+      </c>
       <c r="C155" s="7" t="s">
         <v>673</v>
       </c>
       <c r="D155" s="8">
         <v>2171</v>
+      </c>
+      <c r="E155" s="9">
+        <v>21</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>1186</v>
@@ -7691,11 +8609,17 @@
       <c r="A156" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="B156" s="9">
+        <v>21</v>
+      </c>
       <c r="C156" s="7" t="s">
         <v>674</v>
       </c>
       <c r="D156" s="8">
         <v>2172</v>
+      </c>
+      <c r="E156" s="9">
+        <v>21</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>1187</v>
@@ -7705,11 +8629,17 @@
       <c r="A157" s="6" t="s">
         <v>161</v>
       </c>
+      <c r="B157" s="9">
+        <v>31</v>
+      </c>
       <c r="C157" s="7" t="s">
         <v>675</v>
       </c>
       <c r="D157" s="8">
         <v>3101</v>
+      </c>
+      <c r="E157">
+        <v>31</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>1188</v>
@@ -7719,11 +8649,17 @@
       <c r="A158" s="6" t="s">
         <v>162</v>
       </c>
+      <c r="B158" s="9">
+        <v>31</v>
+      </c>
       <c r="C158" s="7" t="s">
         <v>676</v>
       </c>
       <c r="D158" s="8">
         <v>3171</v>
+      </c>
+      <c r="E158" s="9">
+        <v>31</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>1189</v>
@@ -7733,11 +8669,17 @@
       <c r="A159" s="6" t="s">
         <v>163</v>
       </c>
+      <c r="B159" s="9">
+        <v>31</v>
+      </c>
       <c r="C159" s="7" t="s">
         <v>677</v>
       </c>
       <c r="D159" s="8">
         <v>3172</v>
+      </c>
+      <c r="E159" s="9">
+        <v>31</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>1190</v>
@@ -7747,11 +8689,17 @@
       <c r="A160" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="B160" s="9">
+        <v>31</v>
+      </c>
       <c r="C160" s="7" t="s">
         <v>678</v>
       </c>
       <c r="D160" s="8">
         <v>3173</v>
+      </c>
+      <c r="E160" s="9">
+        <v>31</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>1191</v>
@@ -7761,11 +8709,17 @@
       <c r="A161" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="B161" s="9">
+        <v>31</v>
+      </c>
       <c r="C161" s="7" t="s">
         <v>679</v>
       </c>
       <c r="D161" s="8">
         <v>3174</v>
+      </c>
+      <c r="E161" s="9">
+        <v>31</v>
       </c>
       <c r="F161" s="9" t="s">
         <v>1192</v>
@@ -7775,11 +8729,17 @@
       <c r="A162" s="6" t="s">
         <v>166</v>
       </c>
+      <c r="B162" s="9">
+        <v>31</v>
+      </c>
       <c r="C162" s="7" t="s">
         <v>680</v>
       </c>
       <c r="D162" s="8">
         <v>3175</v>
+      </c>
+      <c r="E162" s="9">
+        <v>31</v>
       </c>
       <c r="F162" s="9" t="s">
         <v>1193</v>
@@ -7789,11 +8749,17 @@
       <c r="A163" s="6" t="s">
         <v>167</v>
       </c>
+      <c r="B163">
+        <v>32</v>
+      </c>
       <c r="C163" s="7" t="s">
         <v>681</v>
       </c>
       <c r="D163" s="8">
         <v>3201</v>
+      </c>
+      <c r="E163" s="9">
+        <v>32</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>1194</v>
@@ -7803,11 +8769,17 @@
       <c r="A164" s="6" t="s">
         <v>168</v>
       </c>
+      <c r="B164" s="9">
+        <v>32</v>
+      </c>
       <c r="C164" s="7" t="s">
         <v>682</v>
       </c>
       <c r="D164" s="8">
         <v>3202</v>
+      </c>
+      <c r="E164" s="9">
+        <v>32</v>
       </c>
       <c r="F164" s="9" t="s">
         <v>1195</v>
@@ -7817,11 +8789,17 @@
       <c r="A165" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="B165" s="9">
+        <v>32</v>
+      </c>
       <c r="C165" s="7" t="s">
         <v>683</v>
       </c>
       <c r="D165" s="8">
         <v>3203</v>
+      </c>
+      <c r="E165" s="9">
+        <v>32</v>
       </c>
       <c r="F165" s="9" t="s">
         <v>1196</v>
@@ -7831,11 +8809,17 @@
       <c r="A166" s="6" t="s">
         <v>170</v>
       </c>
+      <c r="B166" s="9">
+        <v>32</v>
+      </c>
       <c r="C166" s="7" t="s">
         <v>684</v>
       </c>
       <c r="D166" s="8">
         <v>3204</v>
+      </c>
+      <c r="E166" s="9">
+        <v>32</v>
       </c>
       <c r="F166" s="9" t="s">
         <v>1197</v>
@@ -7845,11 +8829,17 @@
       <c r="A167" s="6" t="s">
         <v>171</v>
       </c>
+      <c r="B167" s="9">
+        <v>32</v>
+      </c>
       <c r="C167" s="7" t="s">
         <v>685</v>
       </c>
       <c r="D167" s="8">
         <v>3205</v>
+      </c>
+      <c r="E167" s="9">
+        <v>32</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>1198</v>
@@ -7859,11 +8849,17 @@
       <c r="A168" s="6" t="s">
         <v>172</v>
       </c>
+      <c r="B168" s="9">
+        <v>32</v>
+      </c>
       <c r="C168" s="7" t="s">
         <v>686</v>
       </c>
       <c r="D168" s="8">
         <v>3206</v>
+      </c>
+      <c r="E168" s="9">
+        <v>32</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>1199</v>
@@ -7873,11 +8869,17 @@
       <c r="A169" s="6" t="s">
         <v>173</v>
       </c>
+      <c r="B169" s="9">
+        <v>32</v>
+      </c>
       <c r="C169" s="7" t="s">
         <v>687</v>
       </c>
       <c r="D169" s="8">
         <v>3207</v>
+      </c>
+      <c r="E169" s="9">
+        <v>32</v>
       </c>
       <c r="F169" s="9" t="s">
         <v>1200</v>
@@ -7887,11 +8889,17 @@
       <c r="A170" s="6" t="s">
         <v>174</v>
       </c>
+      <c r="B170" s="9">
+        <v>32</v>
+      </c>
       <c r="C170" s="7" t="s">
         <v>688</v>
       </c>
       <c r="D170" s="8">
         <v>3208</v>
+      </c>
+      <c r="E170" s="9">
+        <v>32</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>1201</v>
@@ -7901,11 +8909,17 @@
       <c r="A171" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="B171" s="9">
+        <v>32</v>
+      </c>
       <c r="C171" s="7" t="s">
         <v>689</v>
       </c>
       <c r="D171" s="8">
         <v>3209</v>
+      </c>
+      <c r="E171" s="9">
+        <v>32</v>
       </c>
       <c r="F171" s="9" t="s">
         <v>1202</v>
@@ -7915,11 +8929,17 @@
       <c r="A172" s="6" t="s">
         <v>176</v>
       </c>
+      <c r="B172" s="9">
+        <v>32</v>
+      </c>
       <c r="C172" s="7" t="s">
         <v>690</v>
       </c>
       <c r="D172" s="8">
         <v>3210</v>
+      </c>
+      <c r="E172" s="9">
+        <v>32</v>
       </c>
       <c r="F172" s="9" t="s">
         <v>1203</v>
@@ -7929,11 +8949,17 @@
       <c r="A173" s="6" t="s">
         <v>177</v>
       </c>
+      <c r="B173" s="9">
+        <v>32</v>
+      </c>
       <c r="C173" s="7" t="s">
         <v>691</v>
       </c>
       <c r="D173" s="8">
         <v>3211</v>
+      </c>
+      <c r="E173" s="9">
+        <v>32</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>1204</v>
@@ -7943,11 +8969,17 @@
       <c r="A174" s="6" t="s">
         <v>178</v>
       </c>
+      <c r="B174" s="9">
+        <v>32</v>
+      </c>
       <c r="C174" s="7" t="s">
         <v>692</v>
       </c>
       <c r="D174" s="8">
         <v>3212</v>
+      </c>
+      <c r="E174" s="9">
+        <v>32</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>1205</v>
@@ -7957,11 +8989,17 @@
       <c r="A175" s="6" t="s">
         <v>179</v>
       </c>
+      <c r="B175" s="9">
+        <v>32</v>
+      </c>
       <c r="C175" s="7" t="s">
         <v>693</v>
       </c>
       <c r="D175" s="8">
         <v>3213</v>
+      </c>
+      <c r="E175" s="9">
+        <v>32</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>1206</v>
@@ -7971,11 +9009,17 @@
       <c r="A176" s="6" t="s">
         <v>180</v>
       </c>
+      <c r="B176" s="9">
+        <v>32</v>
+      </c>
       <c r="C176" s="7" t="s">
         <v>694</v>
       </c>
       <c r="D176" s="8">
         <v>3214</v>
+      </c>
+      <c r="E176" s="9">
+        <v>32</v>
       </c>
       <c r="F176" s="9" t="s">
         <v>1207</v>
@@ -7985,11 +9029,17 @@
       <c r="A177" s="6" t="s">
         <v>181</v>
       </c>
+      <c r="B177" s="9">
+        <v>32</v>
+      </c>
       <c r="C177" s="7" t="s">
         <v>695</v>
       </c>
       <c r="D177" s="8">
         <v>3215</v>
+      </c>
+      <c r="E177" s="9">
+        <v>32</v>
       </c>
       <c r="F177" s="9" t="s">
         <v>1208</v>
@@ -7999,11 +9049,17 @@
       <c r="A178" s="6" t="s">
         <v>182</v>
       </c>
+      <c r="B178" s="9">
+        <v>32</v>
+      </c>
       <c r="C178" s="7" t="s">
         <v>696</v>
       </c>
       <c r="D178" s="8">
         <v>3216</v>
+      </c>
+      <c r="E178" s="9">
+        <v>32</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>1209</v>
@@ -8013,11 +9069,17 @@
       <c r="A179" s="6" t="s">
         <v>183</v>
       </c>
+      <c r="B179" s="9">
+        <v>32</v>
+      </c>
       <c r="C179" s="7" t="s">
         <v>697</v>
       </c>
       <c r="D179" s="8">
         <v>3217</v>
+      </c>
+      <c r="E179" s="9">
+        <v>32</v>
       </c>
       <c r="F179" s="9" t="s">
         <v>1210</v>
@@ -8027,11 +9089,17 @@
       <c r="A180" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="B180" s="9">
+        <v>32</v>
+      </c>
       <c r="C180" s="7" t="s">
         <v>698</v>
       </c>
       <c r="D180" s="8">
         <v>3218</v>
+      </c>
+      <c r="E180" s="9">
+        <v>32</v>
       </c>
       <c r="F180" s="9" t="s">
         <v>1211</v>
@@ -8041,11 +9109,17 @@
       <c r="A181" s="6" t="s">
         <v>185</v>
       </c>
+      <c r="B181" s="9">
+        <v>32</v>
+      </c>
       <c r="C181" s="7" t="s">
         <v>699</v>
       </c>
       <c r="D181" s="8">
         <v>3271</v>
+      </c>
+      <c r="E181" s="9">
+        <v>32</v>
       </c>
       <c r="F181" s="9" t="s">
         <v>1194</v>
@@ -8055,11 +9129,17 @@
       <c r="A182" s="6" t="s">
         <v>186</v>
       </c>
+      <c r="B182" s="9">
+        <v>32</v>
+      </c>
       <c r="C182" s="7" t="s">
         <v>700</v>
       </c>
       <c r="D182" s="8">
         <v>3272</v>
+      </c>
+      <c r="E182" s="9">
+        <v>32</v>
       </c>
       <c r="F182" s="9" t="s">
         <v>1195</v>
@@ -8069,11 +9149,17 @@
       <c r="A183" s="6" t="s">
         <v>187</v>
       </c>
+      <c r="B183" s="9">
+        <v>32</v>
+      </c>
       <c r="C183" s="7" t="s">
         <v>701</v>
       </c>
       <c r="D183" s="8">
         <v>3273</v>
+      </c>
+      <c r="E183" s="9">
+        <v>32</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>1197</v>
@@ -8083,11 +9169,17 @@
       <c r="A184" s="6" t="s">
         <v>188</v>
       </c>
+      <c r="B184" s="9">
+        <v>32</v>
+      </c>
       <c r="C184" s="7" t="s">
         <v>702</v>
       </c>
       <c r="D184" s="8">
         <v>3274</v>
+      </c>
+      <c r="E184" s="9">
+        <v>32</v>
       </c>
       <c r="F184" s="9" t="s">
         <v>1202</v>
@@ -8097,11 +9189,17 @@
       <c r="A185" s="6" t="s">
         <v>189</v>
       </c>
+      <c r="B185" s="9">
+        <v>32</v>
+      </c>
       <c r="C185" s="7" t="s">
         <v>703</v>
       </c>
       <c r="D185" s="8">
         <v>3275</v>
+      </c>
+      <c r="E185" s="9">
+        <v>32</v>
       </c>
       <c r="F185" s="9" t="s">
         <v>1209</v>
@@ -8111,11 +9209,17 @@
       <c r="A186" s="6" t="s">
         <v>190</v>
       </c>
+      <c r="B186" s="9">
+        <v>32</v>
+      </c>
       <c r="C186" s="7" t="s">
         <v>704</v>
       </c>
       <c r="D186" s="8">
         <v>3276</v>
+      </c>
+      <c r="E186" s="9">
+        <v>32</v>
       </c>
       <c r="F186" s="9" t="s">
         <v>1212</v>
@@ -8125,11 +9229,17 @@
       <c r="A187" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="B187" s="9">
+        <v>32</v>
+      </c>
       <c r="C187" s="7" t="s">
         <v>705</v>
       </c>
       <c r="D187" s="8">
         <v>3277</v>
+      </c>
+      <c r="E187" s="9">
+        <v>32</v>
       </c>
       <c r="F187" s="9" t="s">
         <v>1213</v>
@@ -8139,11 +9249,17 @@
       <c r="A188" s="6" t="s">
         <v>192</v>
       </c>
+      <c r="B188" s="9">
+        <v>32</v>
+      </c>
       <c r="C188" s="7" t="s">
         <v>706</v>
       </c>
       <c r="D188" s="8">
         <v>3278</v>
+      </c>
+      <c r="E188" s="9">
+        <v>32</v>
       </c>
       <c r="F188" s="9" t="s">
         <v>1199</v>
@@ -8153,11 +9269,17 @@
       <c r="A189" s="6" t="s">
         <v>193</v>
       </c>
+      <c r="B189" s="9">
+        <v>32</v>
+      </c>
       <c r="C189" s="7" t="s">
         <v>707</v>
       </c>
       <c r="D189" s="8">
         <v>3279</v>
+      </c>
+      <c r="E189" s="9">
+        <v>32</v>
       </c>
       <c r="F189" s="9" t="s">
         <v>1214</v>
@@ -8167,11 +9289,17 @@
       <c r="A190" s="6" t="s">
         <v>194</v>
       </c>
+      <c r="B190">
+        <v>33</v>
+      </c>
       <c r="C190" s="7" t="s">
         <v>708</v>
       </c>
       <c r="D190" s="8">
         <v>3301</v>
+      </c>
+      <c r="E190">
+        <v>33</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>1215</v>
@@ -8181,11 +9309,17 @@
       <c r="A191" s="6" t="s">
         <v>195</v>
       </c>
+      <c r="B191" s="9">
+        <v>33</v>
+      </c>
       <c r="C191" s="7" t="s">
         <v>709</v>
       </c>
       <c r="D191" s="8">
         <v>3302</v>
+      </c>
+      <c r="E191" s="9">
+        <v>33</v>
       </c>
       <c r="F191" s="9" t="s">
         <v>1216</v>
@@ -8195,11 +9329,17 @@
       <c r="A192" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="B192" s="9">
+        <v>33</v>
+      </c>
       <c r="C192" s="7" t="s">
         <v>710</v>
       </c>
       <c r="D192" s="8">
         <v>3303</v>
+      </c>
+      <c r="E192" s="9">
+        <v>33</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>1217</v>
@@ -8209,11 +9349,17 @@
       <c r="A193" s="6" t="s">
         <v>197</v>
       </c>
+      <c r="B193" s="9">
+        <v>33</v>
+      </c>
       <c r="C193" s="7" t="s">
         <v>711</v>
       </c>
       <c r="D193" s="8">
         <v>3304</v>
+      </c>
+      <c r="E193" s="9">
+        <v>33</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>1218</v>
@@ -8223,11 +9369,17 @@
       <c r="A194" s="6" t="s">
         <v>198</v>
       </c>
+      <c r="B194" s="9">
+        <v>33</v>
+      </c>
       <c r="C194" s="7" t="s">
         <v>712</v>
       </c>
       <c r="D194" s="8">
         <v>3305</v>
+      </c>
+      <c r="E194" s="9">
+        <v>33</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>1219</v>
@@ -8237,11 +9389,17 @@
       <c r="A195" s="6" t="s">
         <v>199</v>
       </c>
+      <c r="B195" s="9">
+        <v>33</v>
+      </c>
       <c r="C195" s="7" t="s">
         <v>713</v>
       </c>
       <c r="D195" s="8">
         <v>3306</v>
+      </c>
+      <c r="E195" s="9">
+        <v>33</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>1220</v>
@@ -8251,11 +9409,17 @@
       <c r="A196" s="6" t="s">
         <v>200</v>
       </c>
+      <c r="B196" s="9">
+        <v>33</v>
+      </c>
       <c r="C196" s="7" t="s">
         <v>714</v>
       </c>
       <c r="D196" s="8">
         <v>3307</v>
+      </c>
+      <c r="E196" s="9">
+        <v>33</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>1221</v>
@@ -8265,11 +9429,17 @@
       <c r="A197" s="6" t="s">
         <v>201</v>
       </c>
+      <c r="B197" s="9">
+        <v>33</v>
+      </c>
       <c r="C197" s="7" t="s">
         <v>715</v>
       </c>
       <c r="D197" s="8">
         <v>3308</v>
+      </c>
+      <c r="E197" s="9">
+        <v>33</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>1222</v>
@@ -8279,11 +9449,17 @@
       <c r="A198" s="6" t="s">
         <v>202</v>
       </c>
+      <c r="B198" s="9">
+        <v>33</v>
+      </c>
       <c r="C198" s="7" t="s">
         <v>716</v>
       </c>
       <c r="D198" s="8">
         <v>3309</v>
+      </c>
+      <c r="E198" s="9">
+        <v>33</v>
       </c>
       <c r="F198" s="9" t="s">
         <v>1223</v>
@@ -8293,11 +9469,17 @@
       <c r="A199" s="6" t="s">
         <v>203</v>
       </c>
+      <c r="B199" s="9">
+        <v>33</v>
+      </c>
       <c r="C199" s="7" t="s">
         <v>717</v>
       </c>
       <c r="D199" s="8">
         <v>3310</v>
+      </c>
+      <c r="E199" s="9">
+        <v>33</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>1224</v>
@@ -8307,11 +9489,17 @@
       <c r="A200" s="6" t="s">
         <v>204</v>
       </c>
+      <c r="B200" s="9">
+        <v>33</v>
+      </c>
       <c r="C200" s="7" t="s">
         <v>718</v>
       </c>
       <c r="D200" s="8">
         <v>3311</v>
+      </c>
+      <c r="E200" s="9">
+        <v>33</v>
       </c>
       <c r="F200" s="9" t="s">
         <v>1225</v>
@@ -8321,11 +9509,17 @@
       <c r="A201" s="6" t="s">
         <v>205</v>
       </c>
+      <c r="B201" s="9">
+        <v>33</v>
+      </c>
       <c r="C201" s="7" t="s">
         <v>719</v>
       </c>
       <c r="D201" s="8">
         <v>3312</v>
+      </c>
+      <c r="E201" s="9">
+        <v>33</v>
       </c>
       <c r="F201" s="9" t="s">
         <v>1226</v>
@@ -8335,11 +9529,17 @@
       <c r="A202" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="B202" s="9">
+        <v>33</v>
+      </c>
       <c r="C202" s="7" t="s">
         <v>720</v>
       </c>
       <c r="D202" s="8">
         <v>3313</v>
+      </c>
+      <c r="E202" s="9">
+        <v>33</v>
       </c>
       <c r="F202" s="9" t="s">
         <v>1227</v>
@@ -8349,11 +9549,17 @@
       <c r="A203" s="6" t="s">
         <v>207</v>
       </c>
+      <c r="B203" s="9">
+        <v>33</v>
+      </c>
       <c r="C203" s="7" t="s">
         <v>721</v>
       </c>
       <c r="D203" s="8">
         <v>3314</v>
+      </c>
+      <c r="E203" s="9">
+        <v>33</v>
       </c>
       <c r="F203" s="9" t="s">
         <v>1228</v>
@@ -8363,11 +9569,17 @@
       <c r="A204" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="B204" s="9">
+        <v>33</v>
+      </c>
       <c r="C204" s="7" t="s">
         <v>722</v>
       </c>
       <c r="D204" s="8">
         <v>3315</v>
+      </c>
+      <c r="E204" s="9">
+        <v>33</v>
       </c>
       <c r="F204" s="9" t="s">
         <v>1229</v>
@@ -8377,11 +9589,17 @@
       <c r="A205" s="6" t="s">
         <v>209</v>
       </c>
+      <c r="B205" s="9">
+        <v>33</v>
+      </c>
       <c r="C205" s="7" t="s">
         <v>723</v>
       </c>
       <c r="D205" s="8">
         <v>3316</v>
+      </c>
+      <c r="E205" s="9">
+        <v>33</v>
       </c>
       <c r="F205" s="9" t="s">
         <v>1230</v>
@@ -8391,11 +9609,17 @@
       <c r="A206" s="6" t="s">
         <v>210</v>
       </c>
+      <c r="B206" s="9">
+        <v>33</v>
+      </c>
       <c r="C206" s="7" t="s">
         <v>724</v>
       </c>
       <c r="D206" s="8">
         <v>3317</v>
+      </c>
+      <c r="E206" s="9">
+        <v>33</v>
       </c>
       <c r="F206" s="9" t="s">
         <v>1231</v>
@@ -8405,11 +9629,17 @@
       <c r="A207" s="6" t="s">
         <v>211</v>
       </c>
+      <c r="B207" s="9">
+        <v>33</v>
+      </c>
       <c r="C207" s="7" t="s">
         <v>725</v>
       </c>
       <c r="D207" s="8">
         <v>3318</v>
+      </c>
+      <c r="E207" s="9">
+        <v>33</v>
       </c>
       <c r="F207" s="9" t="s">
         <v>1232</v>
@@ -8419,11 +9649,17 @@
       <c r="A208" s="6" t="s">
         <v>212</v>
       </c>
+      <c r="B208" s="9">
+        <v>33</v>
+      </c>
       <c r="C208" s="7" t="s">
         <v>726</v>
       </c>
       <c r="D208" s="8">
         <v>3319</v>
+      </c>
+      <c r="E208" s="9">
+        <v>33</v>
       </c>
       <c r="F208" s="9" t="s">
         <v>1233</v>
@@ -8433,11 +9669,17 @@
       <c r="A209" s="6" t="s">
         <v>213</v>
       </c>
+      <c r="B209" s="9">
+        <v>33</v>
+      </c>
       <c r="C209" s="7" t="s">
         <v>727</v>
       </c>
       <c r="D209" s="8">
         <v>3320</v>
+      </c>
+      <c r="E209" s="9">
+        <v>33</v>
       </c>
       <c r="F209" s="9" t="s">
         <v>1234</v>
@@ -8447,11 +9689,17 @@
       <c r="A210" s="6" t="s">
         <v>214</v>
       </c>
+      <c r="B210" s="9">
+        <v>33</v>
+      </c>
       <c r="C210" s="7" t="s">
         <v>728</v>
       </c>
       <c r="D210" s="8">
         <v>3321</v>
+      </c>
+      <c r="E210" s="9">
+        <v>33</v>
       </c>
       <c r="F210" s="9" t="s">
         <v>1235</v>
@@ -8461,11 +9709,17 @@
       <c r="A211" s="6" t="s">
         <v>215</v>
       </c>
+      <c r="B211" s="9">
+        <v>33</v>
+      </c>
       <c r="C211" s="7" t="s">
         <v>729</v>
       </c>
       <c r="D211" s="8">
         <v>3322</v>
+      </c>
+      <c r="E211" s="9">
+        <v>33</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>1236</v>
@@ -8475,11 +9729,17 @@
       <c r="A212" s="6" t="s">
         <v>216</v>
       </c>
+      <c r="B212" s="9">
+        <v>33</v>
+      </c>
       <c r="C212" s="7" t="s">
         <v>730</v>
       </c>
       <c r="D212" s="8">
         <v>3323</v>
+      </c>
+      <c r="E212" s="9">
+        <v>33</v>
       </c>
       <c r="F212" s="9" t="s">
         <v>1237</v>
@@ -8489,11 +9749,17 @@
       <c r="A213" s="6" t="s">
         <v>217</v>
       </c>
+      <c r="B213" s="9">
+        <v>33</v>
+      </c>
       <c r="C213" s="7" t="s">
         <v>731</v>
       </c>
       <c r="D213" s="8">
         <v>3324</v>
+      </c>
+      <c r="E213" s="9">
+        <v>33</v>
       </c>
       <c r="F213" s="9" t="s">
         <v>1238</v>
@@ -8503,11 +9769,17 @@
       <c r="A214" s="6" t="s">
         <v>218</v>
       </c>
+      <c r="B214" s="9">
+        <v>33</v>
+      </c>
       <c r="C214" s="7" t="s">
         <v>732</v>
       </c>
       <c r="D214" s="8">
         <v>3325</v>
+      </c>
+      <c r="E214" s="9">
+        <v>33</v>
       </c>
       <c r="F214" s="9" t="s">
         <v>1239</v>
@@ -8517,11 +9789,17 @@
       <c r="A215" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="B215" s="9">
+        <v>33</v>
+      </c>
       <c r="C215" s="7" t="s">
         <v>733</v>
       </c>
       <c r="D215" s="8">
         <v>3326</v>
+      </c>
+      <c r="E215" s="9">
+        <v>33</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>1240</v>
@@ -8531,11 +9809,17 @@
       <c r="A216" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="B216" s="9">
+        <v>33</v>
+      </c>
       <c r="C216" s="7" t="s">
         <v>734</v>
       </c>
       <c r="D216" s="8">
         <v>3327</v>
+      </c>
+      <c r="E216" s="9">
+        <v>33</v>
       </c>
       <c r="F216" s="9" t="s">
         <v>1241</v>
@@ -8545,11 +9829,17 @@
       <c r="A217" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="B217" s="9">
+        <v>33</v>
+      </c>
       <c r="C217" s="7" t="s">
         <v>735</v>
       </c>
       <c r="D217" s="8">
         <v>3328</v>
+      </c>
+      <c r="E217" s="9">
+        <v>33</v>
       </c>
       <c r="F217" s="9" t="s">
         <v>1242</v>
@@ -8559,11 +9849,17 @@
       <c r="A218" s="6" t="s">
         <v>222</v>
       </c>
+      <c r="B218" s="9">
+        <v>33</v>
+      </c>
       <c r="C218" s="7" t="s">
         <v>736</v>
       </c>
       <c r="D218" s="8">
         <v>3329</v>
+      </c>
+      <c r="E218" s="9">
+        <v>33</v>
       </c>
       <c r="F218" s="9" t="s">
         <v>1243</v>
@@ -8573,11 +9869,17 @@
       <c r="A219" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="B219" s="9">
+        <v>33</v>
+      </c>
       <c r="C219" s="7" t="s">
         <v>737</v>
       </c>
       <c r="D219" s="8">
         <v>3371</v>
+      </c>
+      <c r="E219" s="9">
+        <v>33</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>1222</v>
@@ -8587,11 +9889,17 @@
       <c r="A220" s="6" t="s">
         <v>224</v>
       </c>
+      <c r="B220" s="9">
+        <v>33</v>
+      </c>
       <c r="C220" s="7" t="s">
         <v>738</v>
       </c>
       <c r="D220" s="8">
         <v>3372</v>
+      </c>
+      <c r="E220" s="9">
+        <v>33</v>
       </c>
       <c r="F220" s="9" t="s">
         <v>1244</v>
@@ -8601,11 +9909,17 @@
       <c r="A221" s="6" t="s">
         <v>225</v>
       </c>
+      <c r="B221" s="9">
+        <v>33</v>
+      </c>
       <c r="C221" s="7" t="s">
         <v>739</v>
       </c>
       <c r="D221" s="8">
         <v>3373</v>
+      </c>
+      <c r="E221" s="9">
+        <v>33</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>1245</v>
@@ -8615,11 +9929,17 @@
       <c r="A222" s="6" t="s">
         <v>226</v>
       </c>
+      <c r="B222" s="9">
+        <v>33</v>
+      </c>
       <c r="C222" s="7" t="s">
         <v>740</v>
       </c>
       <c r="D222" s="8">
         <v>3374</v>
+      </c>
+      <c r="E222" s="9">
+        <v>33</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>1236</v>
@@ -8629,11 +9949,17 @@
       <c r="A223" s="6" t="s">
         <v>227</v>
       </c>
+      <c r="B223" s="9">
+        <v>33</v>
+      </c>
       <c r="C223" s="7" t="s">
         <v>741</v>
       </c>
       <c r="D223" s="8">
         <v>3375</v>
+      </c>
+      <c r="E223" s="9">
+        <v>33</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>1240</v>
@@ -8643,11 +9969,17 @@
       <c r="A224" s="6" t="s">
         <v>228</v>
       </c>
+      <c r="B224" s="9">
+        <v>33</v>
+      </c>
       <c r="C224" s="7" t="s">
         <v>742</v>
       </c>
       <c r="D224" s="8">
         <v>3376</v>
+      </c>
+      <c r="E224" s="9">
+        <v>33</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>1242</v>
@@ -8657,11 +9989,17 @@
       <c r="A225" s="6" t="s">
         <v>229</v>
       </c>
+      <c r="B225">
+        <v>34</v>
+      </c>
       <c r="C225" s="7" t="s">
         <v>743</v>
       </c>
       <c r="D225" s="8">
         <v>3401</v>
+      </c>
+      <c r="E225" s="9">
+        <v>34</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>1246</v>
@@ -8671,11 +10009,17 @@
       <c r="A226" s="6" t="s">
         <v>230</v>
       </c>
+      <c r="B226" s="9">
+        <v>34</v>
+      </c>
       <c r="C226" s="7" t="s">
         <v>744</v>
       </c>
       <c r="D226" s="8">
         <v>3402</v>
+      </c>
+      <c r="E226" s="9">
+        <v>34</v>
       </c>
       <c r="F226" s="9" t="s">
         <v>1247</v>
@@ -8685,11 +10029,17 @@
       <c r="A227" s="6" t="s">
         <v>231</v>
       </c>
+      <c r="B227" s="9">
+        <v>34</v>
+      </c>
       <c r="C227" s="7" t="s">
         <v>745</v>
       </c>
       <c r="D227" s="8">
         <v>3403</v>
+      </c>
+      <c r="E227" s="9">
+        <v>34</v>
       </c>
       <c r="F227" s="9" t="s">
         <v>1248</v>
@@ -8699,11 +10049,17 @@
       <c r="A228" s="6" t="s">
         <v>232</v>
       </c>
+      <c r="B228" s="9">
+        <v>34</v>
+      </c>
       <c r="C228" s="7" t="s">
         <v>746</v>
       </c>
       <c r="D228" s="8">
         <v>3404</v>
+      </c>
+      <c r="E228" s="9">
+        <v>34</v>
       </c>
       <c r="F228" s="9" t="s">
         <v>1249</v>
@@ -8713,11 +10069,17 @@
       <c r="A229" s="6" t="s">
         <v>233</v>
       </c>
+      <c r="B229" s="9">
+        <v>34</v>
+      </c>
       <c r="C229" s="7" t="s">
         <v>747</v>
       </c>
       <c r="D229" s="8">
         <v>3471</v>
+      </c>
+      <c r="E229" s="9">
+        <v>34</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>1250</v>
@@ -8727,11 +10089,17 @@
       <c r="A230" s="6" t="s">
         <v>234</v>
       </c>
+      <c r="B230">
+        <v>35</v>
+      </c>
       <c r="C230" s="7" t="s">
         <v>748</v>
       </c>
       <c r="D230" s="8">
         <v>3501</v>
+      </c>
+      <c r="E230">
+        <v>35</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>1251</v>
@@ -8741,11 +10109,17 @@
       <c r="A231" s="6" t="s">
         <v>235</v>
       </c>
+      <c r="B231" s="9">
+        <v>35</v>
+      </c>
       <c r="C231" s="7" t="s">
         <v>749</v>
       </c>
       <c r="D231" s="8">
         <v>3502</v>
+      </c>
+      <c r="E231" s="9">
+        <v>35</v>
       </c>
       <c r="F231" s="9" t="s">
         <v>1252</v>
@@ -8755,11 +10129,17 @@
       <c r="A232" s="6" t="s">
         <v>236</v>
       </c>
+      <c r="B232" s="9">
+        <v>35</v>
+      </c>
       <c r="C232" s="7" t="s">
         <v>750</v>
       </c>
       <c r="D232" s="8">
         <v>3503</v>
+      </c>
+      <c r="E232" s="9">
+        <v>35</v>
       </c>
       <c r="F232" s="9" t="s">
         <v>1253</v>
@@ -8769,11 +10149,17 @@
       <c r="A233" s="6" t="s">
         <v>237</v>
       </c>
+      <c r="B233" s="9">
+        <v>35</v>
+      </c>
       <c r="C233" s="7" t="s">
         <v>751</v>
       </c>
       <c r="D233" s="8">
         <v>3504</v>
+      </c>
+      <c r="E233" s="9">
+        <v>35</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>1254</v>
@@ -8783,11 +10169,17 @@
       <c r="A234" s="6" t="s">
         <v>238</v>
       </c>
+      <c r="B234" s="9">
+        <v>35</v>
+      </c>
       <c r="C234" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D234" s="8">
         <v>3505</v>
+      </c>
+      <c r="E234" s="9">
+        <v>35</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>1255</v>
@@ -8797,11 +10189,17 @@
       <c r="A235" s="6" t="s">
         <v>239</v>
       </c>
+      <c r="B235" s="9">
+        <v>35</v>
+      </c>
       <c r="C235" s="7" t="s">
         <v>753</v>
       </c>
       <c r="D235" s="8">
         <v>3506</v>
+      </c>
+      <c r="E235" s="9">
+        <v>35</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>1256</v>
@@ -8811,11 +10209,17 @@
       <c r="A236" s="6" t="s">
         <v>240</v>
       </c>
+      <c r="B236" s="9">
+        <v>35</v>
+      </c>
       <c r="C236" s="7" t="s">
         <v>754</v>
       </c>
       <c r="D236" s="8">
         <v>3507</v>
+      </c>
+      <c r="E236" s="9">
+        <v>35</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>1257</v>
@@ -8825,11 +10229,17 @@
       <c r="A237" s="6" t="s">
         <v>241</v>
       </c>
+      <c r="B237" s="9">
+        <v>35</v>
+      </c>
       <c r="C237" s="7" t="s">
         <v>755</v>
       </c>
       <c r="D237" s="8">
         <v>3508</v>
+      </c>
+      <c r="E237" s="9">
+        <v>35</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>1258</v>
@@ -8839,11 +10249,17 @@
       <c r="A238" s="6" t="s">
         <v>242</v>
       </c>
+      <c r="B238" s="9">
+        <v>35</v>
+      </c>
       <c r="C238" s="7" t="s">
         <v>756</v>
       </c>
       <c r="D238" s="8">
         <v>3509</v>
+      </c>
+      <c r="E238" s="9">
+        <v>35</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>1259</v>
@@ -8853,11 +10269,17 @@
       <c r="A239" s="6" t="s">
         <v>243</v>
       </c>
+      <c r="B239" s="9">
+        <v>35</v>
+      </c>
       <c r="C239" s="7" t="s">
         <v>757</v>
       </c>
       <c r="D239" s="8">
         <v>3510</v>
+      </c>
+      <c r="E239" s="9">
+        <v>35</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>1260</v>
@@ -8867,11 +10289,17 @@
       <c r="A240" s="6" t="s">
         <v>244</v>
       </c>
+      <c r="B240" s="9">
+        <v>35</v>
+      </c>
       <c r="C240" s="7" t="s">
         <v>758</v>
       </c>
       <c r="D240" s="8">
         <v>3511</v>
+      </c>
+      <c r="E240" s="9">
+        <v>35</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>1261</v>
@@ -8881,11 +10309,17 @@
       <c r="A241" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="B241" s="9">
+        <v>35</v>
+      </c>
       <c r="C241" s="7" t="s">
         <v>759</v>
       </c>
       <c r="D241" s="8">
         <v>3512</v>
+      </c>
+      <c r="E241" s="9">
+        <v>35</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>1262</v>
@@ -8895,11 +10329,17 @@
       <c r="A242" s="6" t="s">
         <v>246</v>
       </c>
+      <c r="B242" s="9">
+        <v>35</v>
+      </c>
       <c r="C242" s="7" t="s">
         <v>760</v>
       </c>
       <c r="D242" s="8">
         <v>3513</v>
+      </c>
+      <c r="E242" s="9">
+        <v>35</v>
       </c>
       <c r="F242" s="9" t="s">
         <v>1263</v>
@@ -8909,11 +10349,17 @@
       <c r="A243" s="6" t="s">
         <v>247</v>
       </c>
+      <c r="B243" s="9">
+        <v>35</v>
+      </c>
       <c r="C243" s="7" t="s">
         <v>761</v>
       </c>
       <c r="D243" s="8">
         <v>3514</v>
+      </c>
+      <c r="E243" s="9">
+        <v>35</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>1264</v>
@@ -8923,11 +10369,17 @@
       <c r="A244" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="B244" s="9">
+        <v>35</v>
+      </c>
       <c r="C244" s="7" t="s">
         <v>762</v>
       </c>
       <c r="D244" s="8">
         <v>3515</v>
+      </c>
+      <c r="E244" s="9">
+        <v>35</v>
       </c>
       <c r="F244" s="9" t="s">
         <v>1265</v>
@@ -8937,11 +10389,17 @@
       <c r="A245" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="B245" s="9">
+        <v>35</v>
+      </c>
       <c r="C245" s="7" t="s">
         <v>763</v>
       </c>
       <c r="D245" s="8">
         <v>3516</v>
+      </c>
+      <c r="E245" s="9">
+        <v>35</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>1266</v>
@@ -8951,11 +10409,17 @@
       <c r="A246" s="6" t="s">
         <v>250</v>
       </c>
+      <c r="B246" s="9">
+        <v>35</v>
+      </c>
       <c r="C246" s="7" t="s">
         <v>764</v>
       </c>
       <c r="D246" s="8">
         <v>3517</v>
+      </c>
+      <c r="E246" s="9">
+        <v>35</v>
       </c>
       <c r="F246" s="9" t="s">
         <v>1267</v>
@@ -8965,11 +10429,17 @@
       <c r="A247" s="6" t="s">
         <v>251</v>
       </c>
+      <c r="B247" s="9">
+        <v>35</v>
+      </c>
       <c r="C247" s="7" t="s">
         <v>765</v>
       </c>
       <c r="D247" s="8">
         <v>3518</v>
+      </c>
+      <c r="E247" s="9">
+        <v>35</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>1268</v>
@@ -8979,11 +10449,17 @@
       <c r="A248" s="6" t="s">
         <v>252</v>
       </c>
+      <c r="B248" s="9">
+        <v>35</v>
+      </c>
       <c r="C248" s="7" t="s">
         <v>766</v>
       </c>
       <c r="D248" s="8">
         <v>3519</v>
+      </c>
+      <c r="E248" s="9">
+        <v>35</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>1269</v>
@@ -8993,11 +10469,17 @@
       <c r="A249" s="6" t="s">
         <v>253</v>
       </c>
+      <c r="B249" s="9">
+        <v>35</v>
+      </c>
       <c r="C249" s="7" t="s">
         <v>767</v>
       </c>
       <c r="D249" s="8">
         <v>3520</v>
+      </c>
+      <c r="E249" s="9">
+        <v>35</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>1270</v>
@@ -9007,11 +10489,17 @@
       <c r="A250" s="6" t="s">
         <v>254</v>
       </c>
+      <c r="B250" s="9">
+        <v>35</v>
+      </c>
       <c r="C250" s="7" t="s">
         <v>768</v>
       </c>
       <c r="D250" s="8">
         <v>3521</v>
+      </c>
+      <c r="E250" s="9">
+        <v>35</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>1271</v>
@@ -9021,11 +10509,17 @@
       <c r="A251" s="6" t="s">
         <v>255</v>
       </c>
+      <c r="B251" s="9">
+        <v>35</v>
+      </c>
       <c r="C251" s="7" t="s">
         <v>769</v>
       </c>
       <c r="D251" s="8">
         <v>3522</v>
+      </c>
+      <c r="E251" s="9">
+        <v>35</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>1272</v>
@@ -9035,11 +10529,17 @@
       <c r="A252" s="6" t="s">
         <v>256</v>
       </c>
+      <c r="B252" s="9">
+        <v>35</v>
+      </c>
       <c r="C252" s="7" t="s">
         <v>770</v>
       </c>
       <c r="D252" s="8">
         <v>3523</v>
+      </c>
+      <c r="E252" s="9">
+        <v>35</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>1273</v>
@@ -9049,11 +10549,17 @@
       <c r="A253" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="B253" s="9">
+        <v>35</v>
+      </c>
       <c r="C253" s="7" t="s">
         <v>771</v>
       </c>
       <c r="D253" s="8">
         <v>3524</v>
+      </c>
+      <c r="E253" s="9">
+        <v>35</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>1274</v>
@@ -9063,11 +10569,17 @@
       <c r="A254" s="6" t="s">
         <v>258</v>
       </c>
+      <c r="B254" s="9">
+        <v>35</v>
+      </c>
       <c r="C254" s="7" t="s">
         <v>772</v>
       </c>
       <c r="D254" s="8">
         <v>3525</v>
+      </c>
+      <c r="E254" s="9">
+        <v>35</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>1275</v>
@@ -9077,11 +10589,17 @@
       <c r="A255" s="6" t="s">
         <v>259</v>
       </c>
+      <c r="B255" s="9">
+        <v>35</v>
+      </c>
       <c r="C255" s="7" t="s">
         <v>773</v>
       </c>
       <c r="D255" s="8">
         <v>3526</v>
+      </c>
+      <c r="E255" s="9">
+        <v>35</v>
       </c>
       <c r="F255" s="9" t="s">
         <v>1276</v>
@@ -9091,11 +10609,17 @@
       <c r="A256" s="6" t="s">
         <v>260</v>
       </c>
+      <c r="B256" s="9">
+        <v>35</v>
+      </c>
       <c r="C256" s="7" t="s">
         <v>774</v>
       </c>
       <c r="D256" s="8">
         <v>3527</v>
+      </c>
+      <c r="E256" s="9">
+        <v>35</v>
       </c>
       <c r="F256" s="9" t="s">
         <v>1277</v>
@@ -9105,11 +10629,17 @@
       <c r="A257" s="6" t="s">
         <v>261</v>
       </c>
+      <c r="B257" s="9">
+        <v>35</v>
+      </c>
       <c r="C257" s="7" t="s">
         <v>775</v>
       </c>
       <c r="D257" s="8">
         <v>3528</v>
+      </c>
+      <c r="E257" s="9">
+        <v>35</v>
       </c>
       <c r="F257" s="9" t="s">
         <v>1278</v>
@@ -9119,11 +10649,17 @@
       <c r="A258" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="B258" s="9">
+        <v>35</v>
+      </c>
       <c r="C258" s="7" t="s">
         <v>776</v>
       </c>
       <c r="D258" s="8">
         <v>3529</v>
+      </c>
+      <c r="E258" s="9">
+        <v>35</v>
       </c>
       <c r="F258" s="9" t="s">
         <v>1279</v>
@@ -9133,11 +10669,17 @@
       <c r="A259" s="6" t="s">
         <v>263</v>
       </c>
+      <c r="B259" s="9">
+        <v>35</v>
+      </c>
       <c r="C259" s="7" t="s">
         <v>777</v>
       </c>
       <c r="D259" s="8">
         <v>3571</v>
+      </c>
+      <c r="E259" s="9">
+        <v>35</v>
       </c>
       <c r="F259" s="9" t="s">
         <v>1256</v>
@@ -9147,11 +10689,17 @@
       <c r="A260" s="6" t="s">
         <v>264</v>
       </c>
+      <c r="B260" s="9">
+        <v>35</v>
+      </c>
       <c r="C260" s="7" t="s">
         <v>778</v>
       </c>
       <c r="D260" s="8">
         <v>3572</v>
+      </c>
+      <c r="E260" s="9">
+        <v>35</v>
       </c>
       <c r="F260" s="9" t="s">
         <v>1255</v>
@@ -9161,11 +10709,17 @@
       <c r="A261" s="6" t="s">
         <v>265</v>
       </c>
+      <c r="B261" s="9">
+        <v>35</v>
+      </c>
       <c r="C261" s="7" t="s">
         <v>779</v>
       </c>
       <c r="D261" s="8">
         <v>3573</v>
+      </c>
+      <c r="E261" s="9">
+        <v>35</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>1257</v>
@@ -9175,11 +10729,17 @@
       <c r="A262" s="6" t="s">
         <v>266</v>
       </c>
+      <c r="B262" s="9">
+        <v>35</v>
+      </c>
       <c r="C262" s="7" t="s">
         <v>780</v>
       </c>
       <c r="D262" s="8">
         <v>3574</v>
+      </c>
+      <c r="E262" s="9">
+        <v>35</v>
       </c>
       <c r="F262" s="9" t="s">
         <v>1263</v>
@@ -9189,11 +10749,17 @@
       <c r="A263" s="6" t="s">
         <v>267</v>
       </c>
+      <c r="B263" s="9">
+        <v>35</v>
+      </c>
       <c r="C263" s="7" t="s">
         <v>781</v>
       </c>
       <c r="D263" s="8">
         <v>3575</v>
+      </c>
+      <c r="E263" s="9">
+        <v>35</v>
       </c>
       <c r="F263" s="9" t="s">
         <v>1264</v>
@@ -9203,11 +10769,17 @@
       <c r="A264" s="6" t="s">
         <v>268</v>
       </c>
+      <c r="B264" s="9">
+        <v>35</v>
+      </c>
       <c r="C264" s="7" t="s">
         <v>782</v>
       </c>
       <c r="D264" s="8">
         <v>3576</v>
+      </c>
+      <c r="E264" s="9">
+        <v>35</v>
       </c>
       <c r="F264" s="9" t="s">
         <v>1266</v>
@@ -9217,11 +10789,17 @@
       <c r="A265" s="6" t="s">
         <v>269</v>
       </c>
+      <c r="B265" s="9">
+        <v>35</v>
+      </c>
       <c r="C265" s="7" t="s">
         <v>783</v>
       </c>
       <c r="D265" s="8">
         <v>3577</v>
+      </c>
+      <c r="E265" s="9">
+        <v>35</v>
       </c>
       <c r="F265" s="9" t="s">
         <v>1269</v>
@@ -9231,11 +10809,17 @@
       <c r="A266" s="6" t="s">
         <v>270</v>
       </c>
+      <c r="B266" s="9">
+        <v>35</v>
+      </c>
       <c r="C266" s="7" t="s">
         <v>784</v>
       </c>
       <c r="D266" s="8">
         <v>3578</v>
+      </c>
+      <c r="E266" s="9">
+        <v>35</v>
       </c>
       <c r="F266" s="9" t="s">
         <v>1280</v>
@@ -9245,11 +10829,17 @@
       <c r="A267" s="6" t="s">
         <v>271</v>
       </c>
+      <c r="B267" s="9">
+        <v>35</v>
+      </c>
       <c r="C267" s="7" t="s">
         <v>785</v>
       </c>
       <c r="D267" s="8">
         <v>3579</v>
+      </c>
+      <c r="E267" s="9">
+        <v>35</v>
       </c>
       <c r="F267" s="9" t="s">
         <v>1281</v>
@@ -9259,11 +10849,17 @@
       <c r="A268" s="6" t="s">
         <v>272</v>
       </c>
+      <c r="B268">
+        <v>36</v>
+      </c>
       <c r="C268" s="7" t="s">
         <v>786</v>
       </c>
       <c r="D268" s="8">
         <v>3601</v>
+      </c>
+      <c r="E268" s="9">
+        <v>36</v>
       </c>
       <c r="F268" s="9" t="s">
         <v>1282</v>
@@ -9273,11 +10869,17 @@
       <c r="A269" s="6" t="s">
         <v>273</v>
       </c>
+      <c r="B269" s="9">
+        <v>36</v>
+      </c>
       <c r="C269" s="7" t="s">
         <v>787</v>
       </c>
       <c r="D269" s="8">
         <v>3602</v>
+      </c>
+      <c r="E269" s="9">
+        <v>36</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>1283</v>
@@ -9287,11 +10889,17 @@
       <c r="A270" s="6" t="s">
         <v>274</v>
       </c>
+      <c r="B270" s="9">
+        <v>36</v>
+      </c>
       <c r="C270" s="7" t="s">
         <v>788</v>
       </c>
       <c r="D270" s="8">
         <v>3603</v>
+      </c>
+      <c r="E270" s="9">
+        <v>36</v>
       </c>
       <c r="F270" s="9" t="s">
         <v>1284</v>
@@ -9301,11 +10909,17 @@
       <c r="A271" s="6" t="s">
         <v>275</v>
       </c>
+      <c r="B271" s="9">
+        <v>36</v>
+      </c>
       <c r="C271" s="7" t="s">
         <v>789</v>
       </c>
       <c r="D271" s="8">
         <v>3604</v>
+      </c>
+      <c r="E271" s="9">
+        <v>36</v>
       </c>
       <c r="F271" s="9" t="s">
         <v>1285</v>
@@ -9315,11 +10929,17 @@
       <c r="A272" s="6" t="s">
         <v>276</v>
       </c>
+      <c r="B272" s="9">
+        <v>36</v>
+      </c>
       <c r="C272" s="7" t="s">
         <v>790</v>
       </c>
       <c r="D272" s="8">
         <v>3671</v>
+      </c>
+      <c r="E272" s="9">
+        <v>36</v>
       </c>
       <c r="F272" s="9" t="s">
         <v>1284</v>
@@ -9329,11 +10949,17 @@
       <c r="A273" s="6" t="s">
         <v>277</v>
       </c>
+      <c r="B273" s="9">
+        <v>36</v>
+      </c>
       <c r="C273" s="7" t="s">
         <v>791</v>
       </c>
       <c r="D273" s="8">
         <v>3672</v>
+      </c>
+      <c r="E273" s="9">
+        <v>36</v>
       </c>
       <c r="F273" s="9" t="s">
         <v>1286</v>
@@ -9343,11 +10969,17 @@
       <c r="A274" s="6" t="s">
         <v>278</v>
       </c>
+      <c r="B274" s="9">
+        <v>36</v>
+      </c>
       <c r="C274" s="7" t="s">
         <v>792</v>
       </c>
       <c r="D274" s="8">
         <v>3673</v>
+      </c>
+      <c r="E274" s="9">
+        <v>36</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>1285</v>
@@ -9357,11 +10989,17 @@
       <c r="A275" s="6" t="s">
         <v>279</v>
       </c>
+      <c r="B275" s="9">
+        <v>36</v>
+      </c>
       <c r="C275" s="7" t="s">
         <v>793</v>
       </c>
       <c r="D275" s="8">
         <v>3674</v>
+      </c>
+      <c r="E275" s="9">
+        <v>36</v>
       </c>
       <c r="F275" s="9" t="s">
         <v>1287</v>
@@ -9371,11 +11009,17 @@
       <c r="A276" s="6" t="s">
         <v>280</v>
       </c>
+      <c r="B276">
+        <v>51</v>
+      </c>
       <c r="C276" s="7" t="s">
         <v>794</v>
       </c>
       <c r="D276" s="8">
         <v>5101</v>
+      </c>
+      <c r="E276" s="9">
+        <v>51</v>
       </c>
       <c r="F276" s="9" t="s">
         <v>1288</v>
@@ -9385,11 +11029,17 @@
       <c r="A277" s="6" t="s">
         <v>281</v>
       </c>
+      <c r="B277" s="9">
+        <v>51</v>
+      </c>
       <c r="C277" s="7" t="s">
         <v>795</v>
       </c>
       <c r="D277" s="8">
         <v>5102</v>
+      </c>
+      <c r="E277" s="9">
+        <v>51</v>
       </c>
       <c r="F277" s="9" t="s">
         <v>1289</v>
@@ -9399,11 +11049,17 @@
       <c r="A278" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="B278" s="9">
+        <v>51</v>
+      </c>
       <c r="C278" s="7" t="s">
         <v>796</v>
       </c>
       <c r="D278" s="8">
         <v>5103</v>
+      </c>
+      <c r="E278" s="9">
+        <v>51</v>
       </c>
       <c r="F278" s="9" t="s">
         <v>1290</v>
@@ -9413,11 +11069,17 @@
       <c r="A279" s="6" t="s">
         <v>283</v>
       </c>
+      <c r="B279" s="9">
+        <v>51</v>
+      </c>
       <c r="C279" s="7" t="s">
         <v>797</v>
       </c>
       <c r="D279" s="8">
         <v>5104</v>
+      </c>
+      <c r="E279" s="9">
+        <v>51</v>
       </c>
       <c r="F279" s="9" t="s">
         <v>1291</v>
@@ -9427,11 +11089,17 @@
       <c r="A280" s="6" t="s">
         <v>284</v>
       </c>
+      <c r="B280" s="9">
+        <v>51</v>
+      </c>
       <c r="C280" s="7" t="s">
         <v>798</v>
       </c>
       <c r="D280" s="8">
         <v>5105</v>
+      </c>
+      <c r="E280" s="9">
+        <v>51</v>
       </c>
       <c r="F280" s="9" t="s">
         <v>1292</v>
@@ -9441,11 +11109,17 @@
       <c r="A281" s="6" t="s">
         <v>285</v>
       </c>
+      <c r="B281" s="9">
+        <v>51</v>
+      </c>
       <c r="C281" s="7" t="s">
         <v>799</v>
       </c>
       <c r="D281" s="8">
         <v>5106</v>
+      </c>
+      <c r="E281" s="9">
+        <v>51</v>
       </c>
       <c r="F281" s="9" t="s">
         <v>1293</v>
@@ -9455,11 +11129,17 @@
       <c r="A282" s="6" t="s">
         <v>286</v>
       </c>
+      <c r="B282" s="9">
+        <v>51</v>
+      </c>
       <c r="C282" s="7" t="s">
         <v>800</v>
       </c>
       <c r="D282" s="8">
         <v>5107</v>
+      </c>
+      <c r="E282" s="9">
+        <v>51</v>
       </c>
       <c r="F282" s="9" t="s">
         <v>1294</v>
@@ -9469,11 +11149,17 @@
       <c r="A283" s="6" t="s">
         <v>287</v>
       </c>
+      <c r="B283" s="9">
+        <v>51</v>
+      </c>
       <c r="C283" s="7" t="s">
         <v>801</v>
       </c>
       <c r="D283" s="8">
         <v>5108</v>
+      </c>
+      <c r="E283" s="9">
+        <v>51</v>
       </c>
       <c r="F283" s="9" t="s">
         <v>1295</v>
@@ -9483,11 +11169,17 @@
       <c r="A284" s="6" t="s">
         <v>288</v>
       </c>
+      <c r="B284" s="9">
+        <v>51</v>
+      </c>
       <c r="C284" s="7" t="s">
         <v>802</v>
       </c>
       <c r="D284" s="8">
         <v>5171</v>
+      </c>
+      <c r="E284" s="9">
+        <v>51</v>
       </c>
       <c r="F284" s="9" t="s">
         <v>1296</v>
@@ -9497,11 +11189,17 @@
       <c r="A285" s="6" t="s">
         <v>289</v>
       </c>
+      <c r="B285">
+        <v>52</v>
+      </c>
       <c r="C285" s="7" t="s">
         <v>803</v>
       </c>
       <c r="D285" s="8">
         <v>5201</v>
+      </c>
+      <c r="E285" s="9">
+        <v>52</v>
       </c>
       <c r="F285" s="9" t="s">
         <v>1297</v>
@@ -9511,11 +11209,17 @@
       <c r="A286" s="6" t="s">
         <v>290</v>
       </c>
+      <c r="B286" s="9">
+        <v>52</v>
+      </c>
       <c r="C286" s="7" t="s">
         <v>804</v>
       </c>
       <c r="D286" s="8">
         <v>5202</v>
+      </c>
+      <c r="E286" s="9">
+        <v>52</v>
       </c>
       <c r="F286" s="9" t="s">
         <v>1298</v>
@@ -9525,11 +11229,17 @@
       <c r="A287" s="6" t="s">
         <v>291</v>
       </c>
+      <c r="B287" s="9">
+        <v>52</v>
+      </c>
       <c r="C287" s="7" t="s">
         <v>805</v>
       </c>
       <c r="D287" s="8">
         <v>5203</v>
+      </c>
+      <c r="E287" s="9">
+        <v>52</v>
       </c>
       <c r="F287" s="9" t="s">
         <v>1299</v>
@@ -9539,11 +11249,17 @@
       <c r="A288" s="6" t="s">
         <v>292</v>
       </c>
+      <c r="B288" s="9">
+        <v>52</v>
+      </c>
       <c r="C288" s="7" t="s">
         <v>806</v>
       </c>
       <c r="D288" s="8">
         <v>5204</v>
+      </c>
+      <c r="E288" s="9">
+        <v>52</v>
       </c>
       <c r="F288" s="9" t="s">
         <v>1300</v>
@@ -9553,11 +11269,17 @@
       <c r="A289" s="6" t="s">
         <v>293</v>
       </c>
+      <c r="B289" s="9">
+        <v>52</v>
+      </c>
       <c r="C289" s="7" t="s">
         <v>807</v>
       </c>
       <c r="D289" s="8">
         <v>5205</v>
+      </c>
+      <c r="E289" s="9">
+        <v>52</v>
       </c>
       <c r="F289" s="9" t="s">
         <v>1301</v>
@@ -9567,11 +11289,17 @@
       <c r="A290" s="6" t="s">
         <v>294</v>
       </c>
+      <c r="B290" s="9">
+        <v>52</v>
+      </c>
       <c r="C290" s="7" t="s">
         <v>808</v>
       </c>
       <c r="D290" s="8">
         <v>5206</v>
+      </c>
+      <c r="E290" s="9">
+        <v>52</v>
       </c>
       <c r="F290" s="9" t="s">
         <v>1302</v>
@@ -9581,11 +11309,17 @@
       <c r="A291" s="6" t="s">
         <v>295</v>
       </c>
+      <c r="B291" s="9">
+        <v>52</v>
+      </c>
       <c r="C291" s="7" t="s">
         <v>809</v>
       </c>
       <c r="D291" s="8">
         <v>5207</v>
+      </c>
+      <c r="E291" s="9">
+        <v>52</v>
       </c>
       <c r="F291" s="9" t="s">
         <v>1303</v>
@@ -9595,11 +11329,17 @@
       <c r="A292" s="6" t="s">
         <v>296</v>
       </c>
+      <c r="B292" s="9">
+        <v>52</v>
+      </c>
       <c r="C292" s="7" t="s">
         <v>810</v>
       </c>
       <c r="D292" s="8">
         <v>5208</v>
+      </c>
+      <c r="E292" s="9">
+        <v>52</v>
       </c>
       <c r="F292" s="9" t="s">
         <v>1304</v>
@@ -9609,11 +11349,17 @@
       <c r="A293" s="6" t="s">
         <v>297</v>
       </c>
+      <c r="B293" s="9">
+        <v>52</v>
+      </c>
       <c r="C293" s="7" t="s">
         <v>811</v>
       </c>
       <c r="D293" s="8">
         <v>5271</v>
+      </c>
+      <c r="E293" s="9">
+        <v>52</v>
       </c>
       <c r="F293" s="9" t="s">
         <v>1305</v>
@@ -9623,11 +11369,17 @@
       <c r="A294" s="6" t="s">
         <v>298</v>
       </c>
+      <c r="B294" s="9">
+        <v>52</v>
+      </c>
       <c r="C294" s="7" t="s">
         <v>812</v>
       </c>
       <c r="D294" s="8">
         <v>5272</v>
+      </c>
+      <c r="E294" s="9">
+        <v>52</v>
       </c>
       <c r="F294" s="9" t="s">
         <v>1302</v>
@@ -9637,11 +11389,17 @@
       <c r="A295" s="6" t="s">
         <v>299</v>
       </c>
+      <c r="B295">
+        <v>53</v>
+      </c>
       <c r="C295" s="7" t="s">
         <v>813</v>
       </c>
       <c r="D295" s="8">
         <v>5301</v>
+      </c>
+      <c r="E295" s="9">
+        <v>53</v>
       </c>
       <c r="F295" s="9" t="s">
         <v>1306</v>
@@ -9651,11 +11409,17 @@
       <c r="A296" s="6" t="s">
         <v>300</v>
       </c>
+      <c r="B296" s="9">
+        <v>53</v>
+      </c>
       <c r="C296" s="7" t="s">
         <v>814</v>
       </c>
       <c r="D296" s="8">
         <v>5302</v>
+      </c>
+      <c r="E296" s="9">
+        <v>53</v>
       </c>
       <c r="F296" s="9" t="s">
         <v>1307</v>
@@ -9665,11 +11429,17 @@
       <c r="A297" s="6" t="s">
         <v>301</v>
       </c>
+      <c r="B297" s="9">
+        <v>53</v>
+      </c>
       <c r="C297" s="7" t="s">
         <v>815</v>
       </c>
       <c r="D297" s="8">
         <v>5303</v>
+      </c>
+      <c r="E297" s="9">
+        <v>53</v>
       </c>
       <c r="F297" s="9" t="s">
         <v>1308</v>
@@ -9679,11 +11449,17 @@
       <c r="A298" s="6" t="s">
         <v>302</v>
       </c>
+      <c r="B298" s="9">
+        <v>53</v>
+      </c>
       <c r="C298" s="7" t="s">
         <v>816</v>
       </c>
       <c r="D298" s="8">
         <v>5304</v>
+      </c>
+      <c r="E298" s="9">
+        <v>53</v>
       </c>
       <c r="F298" s="9" t="s">
         <v>1309</v>
@@ -9693,11 +11469,17 @@
       <c r="A299" s="6" t="s">
         <v>303</v>
       </c>
+      <c r="B299" s="9">
+        <v>53</v>
+      </c>
       <c r="C299" s="7" t="s">
         <v>817</v>
       </c>
       <c r="D299" s="8">
         <v>5305</v>
+      </c>
+      <c r="E299" s="9">
+        <v>53</v>
       </c>
       <c r="F299" s="9" t="s">
         <v>1310</v>
@@ -9707,11 +11489,17 @@
       <c r="A300" s="6" t="s">
         <v>304</v>
       </c>
+      <c r="B300" s="9">
+        <v>53</v>
+      </c>
       <c r="C300" s="7" t="s">
         <v>818</v>
       </c>
       <c r="D300" s="8">
         <v>5306</v>
+      </c>
+      <c r="E300" s="9">
+        <v>53</v>
       </c>
       <c r="F300" s="9" t="s">
         <v>1311</v>
@@ -9721,11 +11509,17 @@
       <c r="A301" s="6" t="s">
         <v>305</v>
       </c>
+      <c r="B301" s="9">
+        <v>53</v>
+      </c>
       <c r="C301" s="7" t="s">
         <v>819</v>
       </c>
       <c r="D301" s="8">
         <v>5307</v>
+      </c>
+      <c r="E301" s="9">
+        <v>53</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>1312</v>
@@ -9735,11 +11529,17 @@
       <c r="A302" s="6" t="s">
         <v>306</v>
       </c>
+      <c r="B302" s="9">
+        <v>53</v>
+      </c>
       <c r="C302" s="7" t="s">
         <v>820</v>
       </c>
       <c r="D302" s="8">
         <v>5308</v>
+      </c>
+      <c r="E302" s="9">
+        <v>53</v>
       </c>
       <c r="F302" s="9" t="s">
         <v>1313</v>
@@ -9749,11 +11549,17 @@
       <c r="A303" s="6" t="s">
         <v>307</v>
       </c>
+      <c r="B303" s="9">
+        <v>53</v>
+      </c>
       <c r="C303" s="7" t="s">
         <v>821</v>
       </c>
       <c r="D303" s="8">
         <v>5309</v>
+      </c>
+      <c r="E303" s="9">
+        <v>53</v>
       </c>
       <c r="F303" s="9" t="s">
         <v>1314</v>
@@ -9763,11 +11569,17 @@
       <c r="A304" s="6" t="s">
         <v>308</v>
       </c>
+      <c r="B304" s="9">
+        <v>53</v>
+      </c>
       <c r="C304" s="7" t="s">
         <v>822</v>
       </c>
       <c r="D304" s="8">
         <v>5310</v>
+      </c>
+      <c r="E304" s="9">
+        <v>53</v>
       </c>
       <c r="F304" s="9" t="s">
         <v>1315</v>
@@ -9777,11 +11589,17 @@
       <c r="A305" s="6" t="s">
         <v>309</v>
       </c>
+      <c r="B305" s="9">
+        <v>53</v>
+      </c>
       <c r="C305" s="7" t="s">
         <v>823</v>
       </c>
       <c r="D305" s="8">
         <v>5311</v>
+      </c>
+      <c r="E305" s="9">
+        <v>53</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>1316</v>
@@ -9791,11 +11609,17 @@
       <c r="A306" s="6" t="s">
         <v>310</v>
       </c>
+      <c r="B306" s="9">
+        <v>53</v>
+      </c>
       <c r="C306" s="7" t="s">
         <v>824</v>
       </c>
       <c r="D306" s="8">
         <v>5312</v>
+      </c>
+      <c r="E306" s="9">
+        <v>53</v>
       </c>
       <c r="F306" s="9" t="s">
         <v>1317</v>
@@ -9805,11 +11629,17 @@
       <c r="A307" s="6" t="s">
         <v>311</v>
       </c>
+      <c r="B307" s="9">
+        <v>53</v>
+      </c>
       <c r="C307" s="7" t="s">
         <v>825</v>
       </c>
       <c r="D307" s="8">
         <v>5313</v>
+      </c>
+      <c r="E307" s="9">
+        <v>53</v>
       </c>
       <c r="F307" s="9" t="s">
         <v>1318</v>
@@ -9819,11 +11649,17 @@
       <c r="A308" s="6" t="s">
         <v>312</v>
       </c>
+      <c r="B308" s="9">
+        <v>53</v>
+      </c>
       <c r="C308" s="7" t="s">
         <v>826</v>
       </c>
       <c r="D308" s="8">
         <v>5314</v>
+      </c>
+      <c r="E308" s="9">
+        <v>53</v>
       </c>
       <c r="F308" s="9" t="s">
         <v>1319</v>
@@ -9833,11 +11669,17 @@
       <c r="A309" s="6" t="s">
         <v>313</v>
       </c>
+      <c r="B309" s="9">
+        <v>53</v>
+      </c>
       <c r="C309" s="7" t="s">
         <v>827</v>
       </c>
       <c r="D309" s="8">
         <v>5315</v>
+      </c>
+      <c r="E309" s="9">
+        <v>53</v>
       </c>
       <c r="F309" s="9" t="s">
         <v>1320</v>
@@ -9847,11 +11689,17 @@
       <c r="A310" s="6" t="s">
         <v>314</v>
       </c>
+      <c r="B310" s="9">
+        <v>53</v>
+      </c>
       <c r="C310" s="7" t="s">
         <v>828</v>
       </c>
       <c r="D310" s="8">
         <v>5316</v>
+      </c>
+      <c r="E310" s="9">
+        <v>53</v>
       </c>
       <c r="F310" s="9" t="s">
         <v>1321</v>
@@ -9861,11 +11709,17 @@
       <c r="A311" s="6" t="s">
         <v>315</v>
       </c>
+      <c r="B311" s="9">
+        <v>53</v>
+      </c>
       <c r="C311" s="7" t="s">
         <v>829</v>
       </c>
       <c r="D311" s="8">
         <v>5317</v>
+      </c>
+      <c r="E311" s="9">
+        <v>53</v>
       </c>
       <c r="F311" s="9" t="s">
         <v>1322</v>
@@ -9875,11 +11729,17 @@
       <c r="A312" s="6" t="s">
         <v>316</v>
       </c>
+      <c r="B312" s="9">
+        <v>53</v>
+      </c>
       <c r="C312" s="7" t="s">
         <v>830</v>
       </c>
       <c r="D312" s="8">
         <v>5318</v>
+      </c>
+      <c r="E312" s="9">
+        <v>53</v>
       </c>
       <c r="F312" s="9" t="s">
         <v>1323</v>
@@ -9889,11 +11749,17 @@
       <c r="A313" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="B313" s="9">
+        <v>53</v>
+      </c>
       <c r="C313" s="7" t="s">
         <v>831</v>
       </c>
       <c r="D313" s="8">
         <v>5319</v>
+      </c>
+      <c r="E313" s="9">
+        <v>53</v>
       </c>
       <c r="F313" s="9" t="s">
         <v>1324</v>
@@ -9903,11 +11769,17 @@
       <c r="A314" s="6" t="s">
         <v>318</v>
       </c>
+      <c r="B314" s="9">
+        <v>53</v>
+      </c>
       <c r="C314" s="7" t="s">
         <v>832</v>
       </c>
       <c r="D314" s="8">
         <v>5320</v>
+      </c>
+      <c r="E314" s="9">
+        <v>53</v>
       </c>
       <c r="F314" s="9" t="s">
         <v>1325</v>
@@ -9917,11 +11789,17 @@
       <c r="A315" s="6" t="s">
         <v>319</v>
       </c>
+      <c r="B315" s="9">
+        <v>53</v>
+      </c>
       <c r="C315" s="7" t="s">
         <v>833</v>
       </c>
       <c r="D315" s="8">
         <v>5321</v>
+      </c>
+      <c r="E315" s="9">
+        <v>53</v>
       </c>
       <c r="F315" s="9" t="s">
         <v>1326</v>
@@ -9931,11 +11809,17 @@
       <c r="A316" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="B316" s="9">
+        <v>53</v>
+      </c>
       <c r="C316" s="7" t="s">
         <v>834</v>
       </c>
       <c r="D316" s="8">
         <v>5371</v>
+      </c>
+      <c r="E316" s="9">
+        <v>53</v>
       </c>
       <c r="F316" s="9" t="s">
         <v>1308</v>
@@ -9945,11 +11829,17 @@
       <c r="A317" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="B317">
+        <v>61</v>
+      </c>
       <c r="C317" s="7" t="s">
         <v>835</v>
       </c>
       <c r="D317" s="8">
         <v>6101</v>
+      </c>
+      <c r="E317" s="9">
+        <v>61</v>
       </c>
       <c r="F317" s="9" t="s">
         <v>1327</v>
@@ -9959,11 +11849,17 @@
       <c r="A318" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="B318" s="9">
+        <v>61</v>
+      </c>
       <c r="C318" s="7" t="s">
         <v>836</v>
       </c>
       <c r="D318" s="8">
         <v>6102</v>
+      </c>
+      <c r="E318" s="9">
+        <v>61</v>
       </c>
       <c r="F318" s="9" t="s">
         <v>1328</v>
@@ -9973,11 +11869,17 @@
       <c r="A319" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="B319" s="9">
+        <v>61</v>
+      </c>
       <c r="C319" s="7" t="s">
         <v>837</v>
       </c>
       <c r="D319" s="8">
         <v>6103</v>
+      </c>
+      <c r="E319" s="9">
+        <v>61</v>
       </c>
       <c r="F319" s="9" t="s">
         <v>1329</v>
@@ -9987,11 +11889,17 @@
       <c r="A320" s="6" t="s">
         <v>324</v>
       </c>
+      <c r="B320" s="9">
+        <v>61</v>
+      </c>
       <c r="C320" s="7" t="s">
         <v>838</v>
       </c>
       <c r="D320" s="8">
         <v>6104</v>
+      </c>
+      <c r="E320" s="9">
+        <v>61</v>
       </c>
       <c r="F320" s="9" t="s">
         <v>1330</v>
@@ -10001,11 +11909,17 @@
       <c r="A321" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="B321" s="9">
+        <v>61</v>
+      </c>
       <c r="C321" s="7" t="s">
         <v>839</v>
       </c>
       <c r="D321" s="8">
         <v>6105</v>
+      </c>
+      <c r="E321" s="9">
+        <v>61</v>
       </c>
       <c r="F321" s="9" t="s">
         <v>1331</v>
@@ -10015,11 +11929,17 @@
       <c r="A322" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="B322" s="9">
+        <v>61</v>
+      </c>
       <c r="C322" s="7" t="s">
         <v>840</v>
       </c>
       <c r="D322" s="8">
         <v>6106</v>
+      </c>
+      <c r="E322" s="9">
+        <v>61</v>
       </c>
       <c r="F322" s="9" t="s">
         <v>1332</v>
@@ -10029,11 +11949,17 @@
       <c r="A323" s="6" t="s">
         <v>327</v>
       </c>
+      <c r="B323" s="9">
+        <v>61</v>
+      </c>
       <c r="C323" s="7" t="s">
         <v>841</v>
       </c>
       <c r="D323" s="8">
         <v>6107</v>
+      </c>
+      <c r="E323" s="9">
+        <v>61</v>
       </c>
       <c r="F323" s="9" t="s">
         <v>1333</v>
@@ -10043,11 +11969,17 @@
       <c r="A324" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="B324" s="9">
+        <v>61</v>
+      </c>
       <c r="C324" s="7" t="s">
         <v>842</v>
       </c>
       <c r="D324" s="8">
         <v>6108</v>
+      </c>
+      <c r="E324" s="9">
+        <v>61</v>
       </c>
       <c r="F324" s="9" t="s">
         <v>1334</v>
@@ -10057,11 +11989,17 @@
       <c r="A325" s="6" t="s">
         <v>329</v>
       </c>
+      <c r="B325" s="9">
+        <v>61</v>
+      </c>
       <c r="C325" s="7" t="s">
         <v>843</v>
       </c>
       <c r="D325" s="8">
         <v>6109</v>
+      </c>
+      <c r="E325" s="9">
+        <v>61</v>
       </c>
       <c r="F325" s="9" t="s">
         <v>1335</v>
@@ -10071,11 +12009,17 @@
       <c r="A326" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="B326" s="9">
+        <v>61</v>
+      </c>
       <c r="C326" s="7" t="s">
         <v>844</v>
       </c>
       <c r="D326" s="8">
         <v>6110</v>
+      </c>
+      <c r="E326" s="9">
+        <v>61</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>1336</v>
@@ -10085,11 +12029,17 @@
       <c r="A327" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="B327" s="9">
+        <v>61</v>
+      </c>
       <c r="C327" s="7" t="s">
         <v>845</v>
       </c>
       <c r="D327" s="8">
         <v>6111</v>
+      </c>
+      <c r="E327" s="9">
+        <v>61</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>1337</v>
@@ -10099,11 +12049,17 @@
       <c r="A328" s="6" t="s">
         <v>332</v>
       </c>
+      <c r="B328" s="9">
+        <v>61</v>
+      </c>
       <c r="C328" s="7" t="s">
         <v>846</v>
       </c>
       <c r="D328" s="8">
         <v>6112</v>
+      </c>
+      <c r="E328" s="9">
+        <v>61</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>1338</v>
@@ -10113,11 +12069,17 @@
       <c r="A329" s="6" t="s">
         <v>333</v>
       </c>
+      <c r="B329" s="9">
+        <v>61</v>
+      </c>
       <c r="C329" s="7" t="s">
         <v>847</v>
       </c>
       <c r="D329" s="8">
         <v>6171</v>
+      </c>
+      <c r="E329" s="9">
+        <v>61</v>
       </c>
       <c r="F329" s="9" t="s">
         <v>1339</v>
@@ -10127,11 +12089,17 @@
       <c r="A330" s="6" t="s">
         <v>334</v>
       </c>
+      <c r="B330" s="9">
+        <v>61</v>
+      </c>
       <c r="C330" s="7" t="s">
         <v>848</v>
       </c>
       <c r="D330" s="8">
         <v>6172</v>
+      </c>
+      <c r="E330" s="9">
+        <v>61</v>
       </c>
       <c r="F330" s="9" t="s">
         <v>1340</v>
@@ -10141,11 +12109,17 @@
       <c r="A331" s="6" t="s">
         <v>335</v>
       </c>
+      <c r="B331">
+        <v>62</v>
+      </c>
       <c r="C331" s="7" t="s">
         <v>849</v>
       </c>
       <c r="D331" s="8">
         <v>6201</v>
+      </c>
+      <c r="E331" s="9">
+        <v>62</v>
       </c>
       <c r="F331" s="9" t="s">
         <v>1341</v>
@@ -10155,11 +12129,17 @@
       <c r="A332" s="6" t="s">
         <v>336</v>
       </c>
+      <c r="B332" s="9">
+        <v>62</v>
+      </c>
       <c r="C332" s="7" t="s">
         <v>850</v>
       </c>
       <c r="D332" s="8">
         <v>6202</v>
+      </c>
+      <c r="E332" s="9">
+        <v>62</v>
       </c>
       <c r="F332" s="9" t="s">
         <v>1342</v>
@@ -10169,11 +12149,17 @@
       <c r="A333" s="6" t="s">
         <v>337</v>
       </c>
+      <c r="B333" s="9">
+        <v>62</v>
+      </c>
       <c r="C333" s="7" t="s">
         <v>851</v>
       </c>
       <c r="D333" s="8">
         <v>6203</v>
+      </c>
+      <c r="E333" s="9">
+        <v>62</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>1343</v>
@@ -10183,11 +12169,17 @@
       <c r="A334" s="6" t="s">
         <v>338</v>
       </c>
+      <c r="B334" s="9">
+        <v>62</v>
+      </c>
       <c r="C334" s="7" t="s">
         <v>852</v>
       </c>
       <c r="D334" s="8">
         <v>6204</v>
+      </c>
+      <c r="E334" s="9">
+        <v>62</v>
       </c>
       <c r="F334" s="9" t="s">
         <v>1344</v>
@@ -10197,11 +12189,17 @@
       <c r="A335" s="6" t="s">
         <v>339</v>
       </c>
+      <c r="B335" s="9">
+        <v>62</v>
+      </c>
       <c r="C335" s="7" t="s">
         <v>853</v>
       </c>
       <c r="D335" s="8">
         <v>6205</v>
+      </c>
+      <c r="E335" s="9">
+        <v>62</v>
       </c>
       <c r="F335" s="9" t="s">
         <v>1345</v>
@@ -10211,11 +12209,17 @@
       <c r="A336" s="6" t="s">
         <v>340</v>
       </c>
+      <c r="B336" s="9">
+        <v>62</v>
+      </c>
       <c r="C336" s="7" t="s">
         <v>854</v>
       </c>
       <c r="D336" s="8">
         <v>6206</v>
+      </c>
+      <c r="E336" s="9">
+        <v>62</v>
       </c>
       <c r="F336" s="9" t="s">
         <v>1346</v>
@@ -10225,11 +12229,17 @@
       <c r="A337" s="6" t="s">
         <v>341</v>
       </c>
+      <c r="B337" s="9">
+        <v>62</v>
+      </c>
       <c r="C337" s="7" t="s">
         <v>855</v>
       </c>
       <c r="D337" s="8">
         <v>6207</v>
+      </c>
+      <c r="E337" s="9">
+        <v>62</v>
       </c>
       <c r="F337" s="9" t="s">
         <v>1347</v>
@@ -10239,11 +12249,17 @@
       <c r="A338" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="B338" s="9">
+        <v>62</v>
+      </c>
       <c r="C338" s="7" t="s">
         <v>856</v>
       </c>
       <c r="D338" s="8">
         <v>6208</v>
+      </c>
+      <c r="E338" s="9">
+        <v>62</v>
       </c>
       <c r="F338" s="9" t="s">
         <v>1348</v>
@@ -10253,11 +12269,17 @@
       <c r="A339" s="6" t="s">
         <v>343</v>
       </c>
+      <c r="B339" s="9">
+        <v>62</v>
+      </c>
       <c r="C339" s="7" t="s">
         <v>857</v>
       </c>
       <c r="D339" s="8">
         <v>6209</v>
+      </c>
+      <c r="E339" s="9">
+        <v>62</v>
       </c>
       <c r="F339" s="9" t="s">
         <v>1349</v>
@@ -10267,11 +12289,17 @@
       <c r="A340" s="6" t="s">
         <v>344</v>
       </c>
+      <c r="B340" s="9">
+        <v>62</v>
+      </c>
       <c r="C340" s="7" t="s">
         <v>858</v>
       </c>
       <c r="D340" s="8">
         <v>6210</v>
+      </c>
+      <c r="E340" s="9">
+        <v>62</v>
       </c>
       <c r="F340" s="9" t="s">
         <v>1350</v>
@@ -10281,11 +12309,17 @@
       <c r="A341" s="6" t="s">
         <v>345</v>
       </c>
+      <c r="B341" s="9">
+        <v>62</v>
+      </c>
       <c r="C341" s="7" t="s">
         <v>859</v>
       </c>
       <c r="D341" s="8">
         <v>6211</v>
+      </c>
+      <c r="E341" s="9">
+        <v>62</v>
       </c>
       <c r="F341" s="9" t="s">
         <v>1351</v>
@@ -10295,11 +12329,17 @@
       <c r="A342" s="6" t="s">
         <v>346</v>
       </c>
+      <c r="B342" s="9">
+        <v>62</v>
+      </c>
       <c r="C342" s="7" t="s">
         <v>860</v>
       </c>
       <c r="D342" s="8">
         <v>6212</v>
+      </c>
+      <c r="E342" s="9">
+        <v>62</v>
       </c>
       <c r="F342" s="9" t="s">
         <v>1352</v>
@@ -10309,11 +12349,17 @@
       <c r="A343" s="6" t="s">
         <v>347</v>
       </c>
+      <c r="B343" s="9">
+        <v>62</v>
+      </c>
       <c r="C343" s="7" t="s">
         <v>861</v>
       </c>
       <c r="D343" s="8">
         <v>6213</v>
+      </c>
+      <c r="E343" s="9">
+        <v>62</v>
       </c>
       <c r="F343" s="9" t="s">
         <v>1353</v>
@@ -10323,11 +12369,17 @@
       <c r="A344" s="6" t="s">
         <v>348</v>
       </c>
+      <c r="B344" s="9">
+        <v>62</v>
+      </c>
       <c r="C344" s="7" t="s">
         <v>862</v>
       </c>
       <c r="D344" s="8">
         <v>6271</v>
+      </c>
+      <c r="E344" s="9">
+        <v>62</v>
       </c>
       <c r="F344" s="9" t="s">
         <v>1354</v>
@@ -10337,11 +12389,17 @@
       <c r="A345" s="6" t="s">
         <v>349</v>
       </c>
+      <c r="B345">
+        <v>63</v>
+      </c>
       <c r="C345" s="7" t="s">
         <v>863</v>
       </c>
       <c r="D345" s="8">
         <v>6301</v>
+      </c>
+      <c r="E345" s="9">
+        <v>63</v>
       </c>
       <c r="F345" s="9" t="s">
         <v>1355</v>
@@ -10351,11 +12409,17 @@
       <c r="A346" s="6" t="s">
         <v>350</v>
       </c>
+      <c r="B346" s="9">
+        <v>63</v>
+      </c>
       <c r="C346" s="7" t="s">
         <v>864</v>
       </c>
       <c r="D346" s="8">
         <v>6302</v>
+      </c>
+      <c r="E346" s="9">
+        <v>63</v>
       </c>
       <c r="F346" s="9" t="s">
         <v>1356</v>
@@ -10365,11 +12429,17 @@
       <c r="A347" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="B347" s="9">
+        <v>63</v>
+      </c>
       <c r="C347" s="7" t="s">
         <v>865</v>
       </c>
       <c r="D347" s="8">
         <v>6303</v>
+      </c>
+      <c r="E347" s="9">
+        <v>63</v>
       </c>
       <c r="F347" s="9" t="s">
         <v>1214</v>
@@ -10379,11 +12449,17 @@
       <c r="A348" s="6" t="s">
         <v>352</v>
       </c>
+      <c r="B348" s="9">
+        <v>63</v>
+      </c>
       <c r="C348" s="7" t="s">
         <v>866</v>
       </c>
       <c r="D348" s="8">
         <v>6304</v>
+      </c>
+      <c r="E348" s="9">
+        <v>63</v>
       </c>
       <c r="F348" s="9" t="s">
         <v>1357</v>
@@ -10393,11 +12469,17 @@
       <c r="A349" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="B349" s="9">
+        <v>63</v>
+      </c>
       <c r="C349" s="7" t="s">
         <v>867</v>
       </c>
       <c r="D349" s="8">
         <v>6305</v>
+      </c>
+      <c r="E349" s="9">
+        <v>63</v>
       </c>
       <c r="F349" s="9" t="s">
         <v>1358</v>
@@ -10407,11 +12489,17 @@
       <c r="A350" s="6" t="s">
         <v>354</v>
       </c>
+      <c r="B350" s="9">
+        <v>63</v>
+      </c>
       <c r="C350" s="7" t="s">
         <v>868</v>
       </c>
       <c r="D350" s="8">
         <v>6306</v>
+      </c>
+      <c r="E350" s="9">
+        <v>63</v>
       </c>
       <c r="F350" s="9" t="s">
         <v>1359</v>
@@ -10421,11 +12509,17 @@
       <c r="A351" s="6" t="s">
         <v>355</v>
       </c>
+      <c r="B351" s="9">
+        <v>63</v>
+      </c>
       <c r="C351" s="7" t="s">
         <v>869</v>
       </c>
       <c r="D351" s="8">
         <v>6307</v>
+      </c>
+      <c r="E351" s="9">
+        <v>63</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>1360</v>
@@ -10435,11 +12529,17 @@
       <c r="A352" s="6" t="s">
         <v>356</v>
       </c>
+      <c r="B352" s="9">
+        <v>63</v>
+      </c>
       <c r="C352" s="7" t="s">
         <v>870</v>
       </c>
       <c r="D352" s="8">
         <v>6308</v>
+      </c>
+      <c r="E352" s="9">
+        <v>63</v>
       </c>
       <c r="F352" s="9" t="s">
         <v>1361</v>
@@ -10449,11 +12549,17 @@
       <c r="A353" s="6" t="s">
         <v>357</v>
       </c>
+      <c r="B353" s="9">
+        <v>63</v>
+      </c>
       <c r="C353" s="7" t="s">
         <v>871</v>
       </c>
       <c r="D353" s="8">
         <v>6309</v>
+      </c>
+      <c r="E353" s="9">
+        <v>63</v>
       </c>
       <c r="F353" s="9" t="s">
         <v>1362</v>
@@ -10463,11 +12569,17 @@
       <c r="A354" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="B354" s="9">
+        <v>63</v>
+      </c>
       <c r="C354" s="7" t="s">
         <v>872</v>
       </c>
       <c r="D354" s="8">
         <v>6310</v>
+      </c>
+      <c r="E354" s="9">
+        <v>63</v>
       </c>
       <c r="F354" s="9" t="s">
         <v>1363</v>
@@ -10477,11 +12589,17 @@
       <c r="A355" s="6" t="s">
         <v>359</v>
       </c>
+      <c r="B355" s="9">
+        <v>63</v>
+      </c>
       <c r="C355" s="7" t="s">
         <v>873</v>
       </c>
       <c r="D355" s="8">
         <v>6311</v>
+      </c>
+      <c r="E355" s="9">
+        <v>63</v>
       </c>
       <c r="F355" s="9" t="s">
         <v>1364</v>
@@ -10491,11 +12609,17 @@
       <c r="A356" s="6" t="s">
         <v>360</v>
       </c>
+      <c r="B356" s="9">
+        <v>63</v>
+      </c>
       <c r="C356" s="7" t="s">
         <v>874</v>
       </c>
       <c r="D356" s="8">
         <v>6371</v>
+      </c>
+      <c r="E356" s="9">
+        <v>63</v>
       </c>
       <c r="F356" s="9" t="s">
         <v>1365</v>
@@ -10505,11 +12629,17 @@
       <c r="A357" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="B357" s="9">
+        <v>63</v>
+      </c>
       <c r="C357" s="7" t="s">
         <v>875</v>
       </c>
       <c r="D357" s="8">
         <v>6372</v>
+      </c>
+      <c r="E357" s="9">
+        <v>63</v>
       </c>
       <c r="F357" s="9" t="s">
         <v>1366</v>
@@ -10519,11 +12649,17 @@
       <c r="A358" s="6" t="s">
         <v>362</v>
       </c>
+      <c r="B358">
+        <v>64</v>
+      </c>
       <c r="C358" s="7" t="s">
         <v>876</v>
       </c>
       <c r="D358" s="8">
         <v>6401</v>
+      </c>
+      <c r="E358" s="9">
+        <v>64</v>
       </c>
       <c r="F358" s="9" t="s">
         <v>1367</v>
@@ -10533,11 +12669,17 @@
       <c r="A359" s="6" t="s">
         <v>363</v>
       </c>
+      <c r="B359" s="9">
+        <v>64</v>
+      </c>
       <c r="C359" s="7" t="s">
         <v>877</v>
       </c>
       <c r="D359" s="8">
         <v>6402</v>
+      </c>
+      <c r="E359" s="9">
+        <v>64</v>
       </c>
       <c r="F359" s="9" t="s">
         <v>1368</v>
@@ -10547,11 +12689,17 @@
       <c r="A360" s="6" t="s">
         <v>364</v>
       </c>
+      <c r="B360" s="9">
+        <v>64</v>
+      </c>
       <c r="C360" s="7" t="s">
         <v>878</v>
       </c>
       <c r="D360" s="8">
         <v>6403</v>
+      </c>
+      <c r="E360" s="9">
+        <v>64</v>
       </c>
       <c r="F360" s="9" t="s">
         <v>1369</v>
@@ -10561,11 +12709,17 @@
       <c r="A361" s="6" t="s">
         <v>365</v>
       </c>
+      <c r="B361" s="9">
+        <v>64</v>
+      </c>
       <c r="C361" s="7" t="s">
         <v>879</v>
       </c>
       <c r="D361" s="8">
         <v>6404</v>
+      </c>
+      <c r="E361" s="9">
+        <v>64</v>
       </c>
       <c r="F361" s="9" t="s">
         <v>1370</v>
@@ -10575,11 +12729,17 @@
       <c r="A362" s="6" t="s">
         <v>366</v>
       </c>
+      <c r="B362" s="9">
+        <v>64</v>
+      </c>
       <c r="C362" s="7" t="s">
         <v>880</v>
       </c>
       <c r="D362" s="8">
         <v>6405</v>
+      </c>
+      <c r="E362" s="9">
+        <v>64</v>
       </c>
       <c r="F362" s="9" t="s">
         <v>1371</v>
@@ -10589,11 +12749,17 @@
       <c r="A363" s="6" t="s">
         <v>367</v>
       </c>
+      <c r="B363" s="9">
+        <v>64</v>
+      </c>
       <c r="C363" s="7" t="s">
         <v>881</v>
       </c>
       <c r="D363" s="8">
         <v>6409</v>
+      </c>
+      <c r="E363" s="9">
+        <v>64</v>
       </c>
       <c r="F363" s="9" t="s">
         <v>1372</v>
@@ -10603,11 +12769,17 @@
       <c r="A364" s="6" t="s">
         <v>368</v>
       </c>
+      <c r="B364" s="9">
+        <v>64</v>
+      </c>
       <c r="C364" s="7" t="s">
         <v>882</v>
       </c>
       <c r="D364" s="8">
         <v>6411</v>
+      </c>
+      <c r="E364" s="9">
+        <v>64</v>
       </c>
       <c r="F364" s="9" t="s">
         <v>1373</v>
@@ -10617,11 +12789,17 @@
       <c r="A365" s="6" t="s">
         <v>369</v>
       </c>
+      <c r="B365" s="9">
+        <v>64</v>
+      </c>
       <c r="C365" s="7" t="s">
         <v>883</v>
       </c>
       <c r="D365" s="8">
         <v>6471</v>
+      </c>
+      <c r="E365" s="9">
+        <v>64</v>
       </c>
       <c r="F365" s="9" t="s">
         <v>1374</v>
@@ -10631,11 +12809,17 @@
       <c r="A366" s="6" t="s">
         <v>370</v>
       </c>
+      <c r="B366" s="9">
+        <v>64</v>
+      </c>
       <c r="C366" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D366" s="8">
         <v>6472</v>
+      </c>
+      <c r="E366" s="9">
+        <v>64</v>
       </c>
       <c r="F366" s="9" t="s">
         <v>1375</v>
@@ -10645,11 +12829,17 @@
       <c r="A367" s="6" t="s">
         <v>371</v>
       </c>
+      <c r="B367" s="9">
+        <v>64</v>
+      </c>
       <c r="C367" s="7" t="s">
         <v>885</v>
       </c>
       <c r="D367" s="8">
         <v>6474</v>
+      </c>
+      <c r="E367" s="9">
+        <v>64</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>1376</v>
@@ -10659,11 +12849,17 @@
       <c r="A368" s="6" t="s">
         <v>372</v>
       </c>
+      <c r="B368">
+        <v>65</v>
+      </c>
       <c r="C368" s="7" t="s">
         <v>886</v>
       </c>
       <c r="D368" s="8">
         <v>6501</v>
+      </c>
+      <c r="E368" s="9">
+        <v>65</v>
       </c>
       <c r="F368" s="9" t="s">
         <v>1377</v>
@@ -10673,11 +12869,17 @@
       <c r="A369" s="6" t="s">
         <v>373</v>
       </c>
+      <c r="B369" s="9">
+        <v>65</v>
+      </c>
       <c r="C369" s="7" t="s">
         <v>887</v>
       </c>
       <c r="D369" s="8">
         <v>6502</v>
+      </c>
+      <c r="E369" s="9">
+        <v>65</v>
       </c>
       <c r="F369" s="9" t="s">
         <v>1378</v>
@@ -10687,11 +12889,17 @@
       <c r="A370" s="6" t="s">
         <v>374</v>
       </c>
+      <c r="B370" s="9">
+        <v>65</v>
+      </c>
       <c r="C370" s="7" t="s">
         <v>888</v>
       </c>
       <c r="D370" s="8">
         <v>6503</v>
+      </c>
+      <c r="E370" s="9">
+        <v>65</v>
       </c>
       <c r="F370" s="9" t="s">
         <v>1379</v>
@@ -10701,11 +12909,17 @@
       <c r="A371" s="6" t="s">
         <v>375</v>
       </c>
+      <c r="B371" s="9">
+        <v>65</v>
+      </c>
       <c r="C371" s="7" t="s">
         <v>889</v>
       </c>
       <c r="D371" s="8">
         <v>6504</v>
+      </c>
+      <c r="E371" s="9">
+        <v>65</v>
       </c>
       <c r="F371" s="9" t="s">
         <v>1380</v>
@@ -10715,11 +12929,17 @@
       <c r="A372" s="6" t="s">
         <v>376</v>
       </c>
+      <c r="B372" s="9">
+        <v>65</v>
+      </c>
       <c r="C372" s="7" t="s">
         <v>890</v>
       </c>
       <c r="D372" s="8">
         <v>6571</v>
+      </c>
+      <c r="E372" s="9">
+        <v>65</v>
       </c>
       <c r="F372" s="9" t="s">
         <v>1381</v>
@@ -10729,11 +12949,17 @@
       <c r="A373" s="6" t="s">
         <v>377</v>
       </c>
+      <c r="B373">
+        <v>71</v>
+      </c>
       <c r="C373" s="7" t="s">
         <v>891</v>
       </c>
       <c r="D373" s="8">
         <v>7101</v>
+      </c>
+      <c r="E373" s="9">
+        <v>71</v>
       </c>
       <c r="F373" s="9" t="s">
         <v>1382</v>
@@ -10743,11 +12969,17 @@
       <c r="A374" s="6" t="s">
         <v>378</v>
       </c>
+      <c r="B374" s="9">
+        <v>71</v>
+      </c>
       <c r="C374" s="7" t="s">
         <v>892</v>
       </c>
       <c r="D374" s="8">
         <v>7102</v>
+      </c>
+      <c r="E374" s="9">
+        <v>71</v>
       </c>
       <c r="F374" s="9" t="s">
         <v>1383</v>
@@ -10757,11 +12989,17 @@
       <c r="A375" s="6" t="s">
         <v>379</v>
       </c>
+      <c r="B375" s="9">
+        <v>71</v>
+      </c>
       <c r="C375" s="7" t="s">
         <v>893</v>
       </c>
       <c r="D375" s="8">
         <v>7103</v>
+      </c>
+      <c r="E375" s="9">
+        <v>71</v>
       </c>
       <c r="F375" s="9" t="s">
         <v>1384</v>
@@ -10771,11 +13009,17 @@
       <c r="A376" s="6" t="s">
         <v>380</v>
       </c>
+      <c r="B376" s="9">
+        <v>71</v>
+      </c>
       <c r="C376" s="7" t="s">
         <v>894</v>
       </c>
       <c r="D376" s="8">
         <v>7104</v>
+      </c>
+      <c r="E376" s="9">
+        <v>71</v>
       </c>
       <c r="F376" s="9" t="s">
         <v>1385</v>
@@ -10785,11 +13029,17 @@
       <c r="A377" s="6" t="s">
         <v>381</v>
       </c>
+      <c r="B377" s="9">
+        <v>71</v>
+      </c>
       <c r="C377" s="7" t="s">
         <v>895</v>
       </c>
       <c r="D377" s="8">
         <v>7105</v>
+      </c>
+      <c r="E377" s="9">
+        <v>71</v>
       </c>
       <c r="F377" s="9" t="s">
         <v>1386</v>
@@ -10799,11 +13049,17 @@
       <c r="A378" s="6" t="s">
         <v>382</v>
       </c>
+      <c r="B378" s="9">
+        <v>71</v>
+      </c>
       <c r="C378" s="7" t="s">
         <v>896</v>
       </c>
       <c r="D378" s="8">
         <v>7106</v>
+      </c>
+      <c r="E378" s="9">
+        <v>71</v>
       </c>
       <c r="F378" s="9" t="s">
         <v>1387</v>
@@ -10813,11 +13069,17 @@
       <c r="A379" s="6" t="s">
         <v>383</v>
       </c>
+      <c r="B379" s="9">
+        <v>71</v>
+      </c>
       <c r="C379" s="7" t="s">
         <v>897</v>
       </c>
       <c r="D379" s="8">
         <v>7107</v>
+      </c>
+      <c r="E379" s="9">
+        <v>71</v>
       </c>
       <c r="F379" s="9" t="s">
         <v>1388</v>
@@ -10827,11 +13089,17 @@
       <c r="A380" s="6" t="s">
         <v>384</v>
       </c>
+      <c r="B380" s="9">
+        <v>71</v>
+      </c>
       <c r="C380" s="7" t="s">
         <v>898</v>
       </c>
       <c r="D380" s="8">
         <v>7108</v>
+      </c>
+      <c r="E380" s="9">
+        <v>71</v>
       </c>
       <c r="F380" s="9" t="s">
         <v>1389</v>
@@ -10841,11 +13109,17 @@
       <c r="A381" s="6" t="s">
         <v>385</v>
       </c>
+      <c r="B381" s="9">
+        <v>71</v>
+      </c>
       <c r="C381" s="7" t="s">
         <v>899</v>
       </c>
       <c r="D381" s="8">
         <v>7109</v>
+      </c>
+      <c r="E381" s="9">
+        <v>71</v>
       </c>
       <c r="F381" s="9" t="s">
         <v>1390</v>
@@ -10855,11 +13129,17 @@
       <c r="A382" s="6" t="s">
         <v>386</v>
       </c>
+      <c r="B382" s="9">
+        <v>71</v>
+      </c>
       <c r="C382" s="7" t="s">
         <v>900</v>
       </c>
       <c r="D382" s="8">
         <v>7110</v>
+      </c>
+      <c r="E382" s="9">
+        <v>71</v>
       </c>
       <c r="F382" s="9" t="s">
         <v>1391</v>
@@ -10869,11 +13149,17 @@
       <c r="A383" s="6" t="s">
         <v>387</v>
       </c>
+      <c r="B383" s="9">
+        <v>71</v>
+      </c>
       <c r="C383" s="7" t="s">
         <v>901</v>
       </c>
       <c r="D383" s="8">
         <v>7111</v>
+      </c>
+      <c r="E383" s="9">
+        <v>71</v>
       </c>
       <c r="F383" s="9" t="s">
         <v>1392</v>
@@ -10883,11 +13169,17 @@
       <c r="A384" s="6" t="s">
         <v>388</v>
       </c>
+      <c r="B384" s="9">
+        <v>71</v>
+      </c>
       <c r="C384" s="7" t="s">
         <v>902</v>
       </c>
       <c r="D384" s="8">
         <v>7171</v>
+      </c>
+      <c r="E384" s="9">
+        <v>71</v>
       </c>
       <c r="F384" s="9" t="s">
         <v>1393</v>
@@ -10897,11 +13189,17 @@
       <c r="A385" s="6" t="s">
         <v>389</v>
       </c>
+      <c r="B385" s="9">
+        <v>71</v>
+      </c>
       <c r="C385" s="7" t="s">
         <v>903</v>
       </c>
       <c r="D385" s="8">
         <v>7172</v>
+      </c>
+      <c r="E385" s="9">
+        <v>71</v>
       </c>
       <c r="F385" s="9" t="s">
         <v>1394</v>
@@ -10911,11 +13209,17 @@
       <c r="A386" s="6" t="s">
         <v>390</v>
       </c>
+      <c r="B386" s="9">
+        <v>71</v>
+      </c>
       <c r="C386" s="7" t="s">
         <v>904</v>
       </c>
       <c r="D386" s="8">
         <v>7173</v>
+      </c>
+      <c r="E386" s="9">
+        <v>71</v>
       </c>
       <c r="F386" s="9" t="s">
         <v>1395</v>
@@ -10925,11 +13229,17 @@
       <c r="A387" s="6" t="s">
         <v>391</v>
       </c>
+      <c r="B387" s="9">
+        <v>71</v>
+      </c>
       <c r="C387" s="7" t="s">
         <v>905</v>
       </c>
       <c r="D387" s="8">
         <v>7174</v>
+      </c>
+      <c r="E387" s="9">
+        <v>71</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>1396</v>
@@ -10939,11 +13249,17 @@
       <c r="A388" s="6" t="s">
         <v>392</v>
       </c>
+      <c r="B388">
+        <v>72</v>
+      </c>
       <c r="C388" s="7" t="s">
         <v>906</v>
       </c>
       <c r="D388" s="8">
         <v>7201</v>
+      </c>
+      <c r="E388" s="9">
+        <v>72</v>
       </c>
       <c r="F388" s="9" t="s">
         <v>1397</v>
@@ -10953,11 +13269,17 @@
       <c r="A389" s="6" t="s">
         <v>393</v>
       </c>
+      <c r="B389" s="9">
+        <v>72</v>
+      </c>
       <c r="C389" s="7" t="s">
         <v>907</v>
       </c>
       <c r="D389" s="8">
         <v>7202</v>
+      </c>
+      <c r="E389" s="9">
+        <v>72</v>
       </c>
       <c r="F389" s="9" t="s">
         <v>1398</v>
@@ -10967,11 +13289,17 @@
       <c r="A390" s="6" t="s">
         <v>394</v>
       </c>
+      <c r="B390" s="9">
+        <v>72</v>
+      </c>
       <c r="C390" s="7" t="s">
         <v>908</v>
       </c>
       <c r="D390" s="8">
         <v>7203</v>
+      </c>
+      <c r="E390" s="9">
+        <v>72</v>
       </c>
       <c r="F390" s="9" t="s">
         <v>1399</v>
@@ -10981,11 +13309,17 @@
       <c r="A391" s="6" t="s">
         <v>395</v>
       </c>
+      <c r="B391" s="9">
+        <v>72</v>
+      </c>
       <c r="C391" s="7" t="s">
         <v>909</v>
       </c>
       <c r="D391" s="8">
         <v>7204</v>
+      </c>
+      <c r="E391" s="9">
+        <v>72</v>
       </c>
       <c r="F391" s="9" t="s">
         <v>1400</v>
@@ -10995,11 +13329,17 @@
       <c r="A392" s="6" t="s">
         <v>396</v>
       </c>
+      <c r="B392" s="9">
+        <v>72</v>
+      </c>
       <c r="C392" s="7" t="s">
         <v>910</v>
       </c>
       <c r="D392" s="8">
         <v>7205</v>
+      </c>
+      <c r="E392" s="9">
+        <v>72</v>
       </c>
       <c r="F392" s="9" t="s">
         <v>1401</v>
@@ -11009,11 +13349,17 @@
       <c r="A393" s="6" t="s">
         <v>397</v>
       </c>
+      <c r="B393" s="9">
+        <v>72</v>
+      </c>
       <c r="C393" s="7" t="s">
         <v>911</v>
       </c>
       <c r="D393" s="8">
         <v>7206</v>
+      </c>
+      <c r="E393" s="9">
+        <v>72</v>
       </c>
       <c r="F393" s="9" t="s">
         <v>1402</v>
@@ -11023,11 +13369,17 @@
       <c r="A394" s="6" t="s">
         <v>398</v>
       </c>
+      <c r="B394" s="9">
+        <v>72</v>
+      </c>
       <c r="C394" s="7" t="s">
         <v>912</v>
       </c>
       <c r="D394" s="8">
         <v>7207</v>
+      </c>
+      <c r="E394" s="9">
+        <v>72</v>
       </c>
       <c r="F394" s="9" t="s">
         <v>1403</v>
@@ -11037,11 +13389,17 @@
       <c r="A395" s="6" t="s">
         <v>399</v>
       </c>
+      <c r="B395" s="9">
+        <v>72</v>
+      </c>
       <c r="C395" s="7" t="s">
         <v>913</v>
       </c>
       <c r="D395" s="8">
         <v>7208</v>
+      </c>
+      <c r="E395" s="9">
+        <v>72</v>
       </c>
       <c r="F395" s="9" t="s">
         <v>1404</v>
@@ -11051,11 +13409,17 @@
       <c r="A396" s="6" t="s">
         <v>400</v>
       </c>
+      <c r="B396" s="9">
+        <v>72</v>
+      </c>
       <c r="C396" s="7" t="s">
         <v>914</v>
       </c>
       <c r="D396" s="8">
         <v>7209</v>
+      </c>
+      <c r="E396" s="9">
+        <v>72</v>
       </c>
       <c r="F396" s="9" t="s">
         <v>1405</v>
@@ -11065,11 +13429,17 @@
       <c r="A397" s="6" t="s">
         <v>401</v>
       </c>
+      <c r="B397" s="9">
+        <v>72</v>
+      </c>
       <c r="C397" s="7" t="s">
         <v>915</v>
       </c>
       <c r="D397" s="8">
         <v>7210</v>
+      </c>
+      <c r="E397" s="9">
+        <v>72</v>
       </c>
       <c r="F397" s="9" t="s">
         <v>1406</v>
@@ -11079,11 +13449,17 @@
       <c r="A398" s="6" t="s">
         <v>402</v>
       </c>
+      <c r="B398" s="9">
+        <v>72</v>
+      </c>
       <c r="C398" s="7" t="s">
         <v>916</v>
       </c>
       <c r="D398" s="8">
         <v>7211</v>
+      </c>
+      <c r="E398" s="9">
+        <v>72</v>
       </c>
       <c r="F398" s="9" t="s">
         <v>1407</v>
@@ -11093,11 +13469,17 @@
       <c r="A399" s="6" t="s">
         <v>403</v>
       </c>
+      <c r="B399" s="9">
+        <v>72</v>
+      </c>
       <c r="C399" s="7" t="s">
         <v>917</v>
       </c>
       <c r="D399" s="8">
         <v>7212</v>
+      </c>
+      <c r="E399" s="9">
+        <v>72</v>
       </c>
       <c r="F399" s="9" t="s">
         <v>1408</v>
@@ -11107,11 +13489,17 @@
       <c r="A400" s="6" t="s">
         <v>404</v>
       </c>
+      <c r="B400" s="9">
+        <v>72</v>
+      </c>
       <c r="C400" s="7" t="s">
         <v>918</v>
       </c>
       <c r="D400" s="8">
         <v>7271</v>
+      </c>
+      <c r="E400" s="9">
+        <v>72</v>
       </c>
       <c r="F400" s="9" t="s">
         <v>1409</v>
@@ -11121,11 +13509,17 @@
       <c r="A401" s="6" t="s">
         <v>405</v>
       </c>
+      <c r="B401">
+        <v>73</v>
+      </c>
       <c r="C401" s="7" t="s">
         <v>919</v>
       </c>
       <c r="D401" s="8">
         <v>7301</v>
+      </c>
+      <c r="E401" s="9">
+        <v>73</v>
       </c>
       <c r="F401" s="9" t="s">
         <v>1410</v>
@@ -11135,11 +13529,17 @@
       <c r="A402" s="6" t="s">
         <v>406</v>
       </c>
+      <c r="B402" s="9">
+        <v>73</v>
+      </c>
       <c r="C402" s="7" t="s">
         <v>920</v>
       </c>
       <c r="D402" s="8">
         <v>7302</v>
+      </c>
+      <c r="E402" s="9">
+        <v>73</v>
       </c>
       <c r="F402" s="9" t="s">
         <v>1411</v>
@@ -11149,11 +13549,17 @@
       <c r="A403" s="6" t="s">
         <v>407</v>
       </c>
+      <c r="B403" s="9">
+        <v>73</v>
+      </c>
       <c r="C403" s="7" t="s">
         <v>921</v>
       </c>
       <c r="D403" s="8">
         <v>7303</v>
+      </c>
+      <c r="E403" s="9">
+        <v>73</v>
       </c>
       <c r="F403" s="9" t="s">
         <v>1412</v>
@@ -11163,11 +13569,17 @@
       <c r="A404" s="6" t="s">
         <v>408</v>
       </c>
+      <c r="B404" s="9">
+        <v>73</v>
+      </c>
       <c r="C404" s="7" t="s">
         <v>922</v>
       </c>
       <c r="D404" s="8">
         <v>7304</v>
+      </c>
+      <c r="E404" s="9">
+        <v>73</v>
       </c>
       <c r="F404" s="9" t="s">
         <v>1413</v>
@@ -11177,11 +13589,17 @@
       <c r="A405" s="6" t="s">
         <v>409</v>
       </c>
+      <c r="B405" s="9">
+        <v>73</v>
+      </c>
       <c r="C405" s="7" t="s">
         <v>923</v>
       </c>
       <c r="D405" s="8">
         <v>7305</v>
+      </c>
+      <c r="E405" s="9">
+        <v>73</v>
       </c>
       <c r="F405" s="9" t="s">
         <v>1414</v>
@@ -11191,11 +13609,17 @@
       <c r="A406" s="6" t="s">
         <v>410</v>
       </c>
+      <c r="B406" s="9">
+        <v>73</v>
+      </c>
       <c r="C406" s="7" t="s">
         <v>924</v>
       </c>
       <c r="D406" s="8">
         <v>7306</v>
+      </c>
+      <c r="E406" s="9">
+        <v>73</v>
       </c>
       <c r="F406" s="9" t="s">
         <v>1415</v>
@@ -11205,11 +13629,17 @@
       <c r="A407" s="6" t="s">
         <v>411</v>
       </c>
+      <c r="B407" s="9">
+        <v>73</v>
+      </c>
       <c r="C407" s="7" t="s">
         <v>925</v>
       </c>
       <c r="D407" s="8">
         <v>7307</v>
+      </c>
+      <c r="E407" s="9">
+        <v>73</v>
       </c>
       <c r="F407" s="9" t="s">
         <v>1416</v>
@@ -11219,11 +13649,17 @@
       <c r="A408" s="6" t="s">
         <v>412</v>
       </c>
+      <c r="B408" s="9">
+        <v>73</v>
+      </c>
       <c r="C408" s="7" t="s">
         <v>926</v>
       </c>
       <c r="D408" s="8">
         <v>7308</v>
+      </c>
+      <c r="E408" s="9">
+        <v>73</v>
       </c>
       <c r="F408" s="9" t="s">
         <v>1417</v>
@@ -11233,11 +13669,17 @@
       <c r="A409" s="6" t="s">
         <v>413</v>
       </c>
+      <c r="B409" s="9">
+        <v>73</v>
+      </c>
       <c r="C409" s="7" t="s">
         <v>927</v>
       </c>
       <c r="D409" s="8">
         <v>7309</v>
+      </c>
+      <c r="E409" s="9">
+        <v>73</v>
       </c>
       <c r="F409" s="9" t="s">
         <v>1418</v>
@@ -11247,11 +13689,17 @@
       <c r="A410" s="6" t="s">
         <v>414</v>
       </c>
+      <c r="B410" s="9">
+        <v>73</v>
+      </c>
       <c r="C410" s="7" t="s">
         <v>928</v>
       </c>
       <c r="D410" s="8">
         <v>7310</v>
+      </c>
+      <c r="E410" s="9">
+        <v>73</v>
       </c>
       <c r="F410" s="9" t="s">
         <v>1419</v>
@@ -11261,11 +13709,17 @@
       <c r="A411" s="6" t="s">
         <v>415</v>
       </c>
+      <c r="B411" s="9">
+        <v>73</v>
+      </c>
       <c r="C411" s="7" t="s">
         <v>929</v>
       </c>
       <c r="D411" s="8">
         <v>7311</v>
+      </c>
+      <c r="E411" s="9">
+        <v>73</v>
       </c>
       <c r="F411" s="9" t="s">
         <v>1420</v>
@@ -11275,11 +13729,17 @@
       <c r="A412" s="6" t="s">
         <v>416</v>
       </c>
+      <c r="B412" s="9">
+        <v>73</v>
+      </c>
       <c r="C412" s="7" t="s">
         <v>930</v>
       </c>
       <c r="D412" s="8">
         <v>7312</v>
+      </c>
+      <c r="E412" s="9">
+        <v>73</v>
       </c>
       <c r="F412" s="9" t="s">
         <v>1421</v>
@@ -11289,11 +13749,17 @@
       <c r="A413" s="6" t="s">
         <v>417</v>
       </c>
+      <c r="B413" s="9">
+        <v>73</v>
+      </c>
       <c r="C413" s="7" t="s">
         <v>931</v>
       </c>
       <c r="D413" s="8">
         <v>7313</v>
+      </c>
+      <c r="E413" s="9">
+        <v>73</v>
       </c>
       <c r="F413" s="9" t="s">
         <v>1422</v>
@@ -11303,11 +13769,17 @@
       <c r="A414" s="6" t="s">
         <v>418</v>
       </c>
+      <c r="B414" s="9">
+        <v>73</v>
+      </c>
       <c r="C414" s="7" t="s">
         <v>932</v>
       </c>
       <c r="D414" s="8">
         <v>7314</v>
+      </c>
+      <c r="E414" s="9">
+        <v>73</v>
       </c>
       <c r="F414" s="9" t="s">
         <v>1423</v>
@@ -11317,11 +13789,17 @@
       <c r="A415" s="6" t="s">
         <v>419</v>
       </c>
+      <c r="B415" s="9">
+        <v>73</v>
+      </c>
       <c r="C415" s="7" t="s">
         <v>933</v>
       </c>
       <c r="D415" s="8">
         <v>7315</v>
+      </c>
+      <c r="E415" s="9">
+        <v>73</v>
       </c>
       <c r="F415" s="9" t="s">
         <v>1424</v>
@@ -11331,11 +13809,17 @@
       <c r="A416" s="6" t="s">
         <v>420</v>
       </c>
+      <c r="B416" s="9">
+        <v>73</v>
+      </c>
       <c r="C416" s="7" t="s">
         <v>934</v>
       </c>
       <c r="D416" s="8">
         <v>7316</v>
+      </c>
+      <c r="E416" s="9">
+        <v>73</v>
       </c>
       <c r="F416" s="9" t="s">
         <v>1425</v>
@@ -11345,11 +13829,17 @@
       <c r="A417" s="6" t="s">
         <v>421</v>
       </c>
+      <c r="B417" s="9">
+        <v>73</v>
+      </c>
       <c r="C417" s="7" t="s">
         <v>935</v>
       </c>
       <c r="D417" s="8">
         <v>7317</v>
+      </c>
+      <c r="E417" s="9">
+        <v>73</v>
       </c>
       <c r="F417" s="9" t="s">
         <v>1426</v>
@@ -11359,11 +13849,17 @@
       <c r="A418" s="6" t="s">
         <v>422</v>
       </c>
+      <c r="B418" s="9">
+        <v>73</v>
+      </c>
       <c r="C418" s="7" t="s">
         <v>936</v>
       </c>
       <c r="D418" s="8">
         <v>7318</v>
+      </c>
+      <c r="E418" s="9">
+        <v>73</v>
       </c>
       <c r="F418" s="9" t="s">
         <v>1427</v>
@@ -11373,11 +13869,17 @@
       <c r="A419" s="6" t="s">
         <v>423</v>
       </c>
+      <c r="B419" s="9">
+        <v>73</v>
+      </c>
       <c r="C419" s="7" t="s">
         <v>937</v>
       </c>
       <c r="D419" s="8">
         <v>7322</v>
+      </c>
+      <c r="E419" s="9">
+        <v>73</v>
       </c>
       <c r="F419" s="9" t="s">
         <v>1428</v>
@@ -11387,11 +13889,17 @@
       <c r="A420" s="6" t="s">
         <v>424</v>
       </c>
+      <c r="B420" s="9">
+        <v>73</v>
+      </c>
       <c r="C420" s="7" t="s">
         <v>938</v>
       </c>
       <c r="D420" s="8">
         <v>7325</v>
+      </c>
+      <c r="E420" s="9">
+        <v>73</v>
       </c>
       <c r="F420" s="9" t="s">
         <v>1429</v>
@@ -11401,11 +13909,17 @@
       <c r="A421" s="6" t="s">
         <v>425</v>
       </c>
+      <c r="B421" s="9">
+        <v>73</v>
+      </c>
       <c r="C421" s="7" t="s">
         <v>939</v>
       </c>
       <c r="D421" s="8">
         <v>7326</v>
+      </c>
+      <c r="E421" s="9">
+        <v>73</v>
       </c>
       <c r="F421" s="9" t="s">
         <v>1430</v>
@@ -11415,11 +13929,17 @@
       <c r="A422" s="6" t="s">
         <v>426</v>
       </c>
+      <c r="B422" s="9">
+        <v>73</v>
+      </c>
       <c r="C422" s="7" t="s">
         <v>940</v>
       </c>
       <c r="D422" s="8">
         <v>7371</v>
+      </c>
+      <c r="E422" s="9">
+        <v>73</v>
       </c>
       <c r="F422" s="9" t="s">
         <v>1431</v>
@@ -11429,11 +13949,17 @@
       <c r="A423" s="6" t="s">
         <v>427</v>
       </c>
+      <c r="B423" s="9">
+        <v>73</v>
+      </c>
       <c r="C423" s="7" t="s">
         <v>941</v>
       </c>
       <c r="D423" s="8">
         <v>7372</v>
+      </c>
+      <c r="E423" s="9">
+        <v>73</v>
       </c>
       <c r="F423" s="9" t="s">
         <v>1432</v>
@@ -11443,11 +13969,17 @@
       <c r="A424" s="6" t="s">
         <v>428</v>
       </c>
+      <c r="B424" s="9">
+        <v>73</v>
+      </c>
       <c r="C424" s="7" t="s">
         <v>942</v>
       </c>
       <c r="D424" s="8">
         <v>7373</v>
+      </c>
+      <c r="E424" s="9">
+        <v>73</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>1433</v>
@@ -11457,11 +13989,17 @@
       <c r="A425" s="6" t="s">
         <v>429</v>
       </c>
+      <c r="B425">
+        <v>74</v>
+      </c>
       <c r="C425" s="7" t="s">
         <v>943</v>
       </c>
       <c r="D425" s="8">
         <v>7401</v>
+      </c>
+      <c r="E425" s="9">
+        <v>74</v>
       </c>
       <c r="F425" s="9" t="s">
         <v>1434</v>
@@ -11471,11 +14009,17 @@
       <c r="A426" s="6" t="s">
         <v>430</v>
       </c>
+      <c r="B426" s="9">
+        <v>74</v>
+      </c>
       <c r="C426" s="7" t="s">
         <v>944</v>
       </c>
       <c r="D426" s="8">
         <v>7402</v>
+      </c>
+      <c r="E426" s="9">
+        <v>74</v>
       </c>
       <c r="F426" s="9" t="s">
         <v>1435</v>
@@ -11485,11 +14029,17 @@
       <c r="A427" s="6" t="s">
         <v>431</v>
       </c>
+      <c r="B427" s="9">
+        <v>74</v>
+      </c>
       <c r="C427" s="7" t="s">
         <v>945</v>
       </c>
       <c r="D427" s="8">
         <v>7403</v>
+      </c>
+      <c r="E427" s="9">
+        <v>74</v>
       </c>
       <c r="F427" s="9" t="s">
         <v>1436</v>
@@ -11499,11 +14049,17 @@
       <c r="A428" s="6" t="s">
         <v>432</v>
       </c>
+      <c r="B428" s="9">
+        <v>74</v>
+      </c>
       <c r="C428" s="7" t="s">
         <v>946</v>
       </c>
       <c r="D428" s="8">
         <v>7404</v>
+      </c>
+      <c r="E428" s="9">
+        <v>74</v>
       </c>
       <c r="F428" s="9" t="s">
         <v>1437</v>
@@ -11513,11 +14069,17 @@
       <c r="A429" s="6" t="s">
         <v>433</v>
       </c>
+      <c r="B429" s="9">
+        <v>74</v>
+      </c>
       <c r="C429" s="7" t="s">
         <v>947</v>
       </c>
       <c r="D429" s="8">
         <v>7405</v>
+      </c>
+      <c r="E429" s="9">
+        <v>74</v>
       </c>
       <c r="F429" s="9" t="s">
         <v>1438</v>
@@ -11527,11 +14089,17 @@
       <c r="A430" s="6" t="s">
         <v>434</v>
       </c>
+      <c r="B430" s="9">
+        <v>74</v>
+      </c>
       <c r="C430" s="7" t="s">
         <v>948</v>
       </c>
       <c r="D430" s="8">
         <v>7406</v>
+      </c>
+      <c r="E430" s="9">
+        <v>74</v>
       </c>
       <c r="F430" s="9" t="s">
         <v>1439</v>
@@ -11541,11 +14109,17 @@
       <c r="A431" s="6" t="s">
         <v>435</v>
       </c>
+      <c r="B431" s="9">
+        <v>74</v>
+      </c>
       <c r="C431" s="7" t="s">
         <v>949</v>
       </c>
       <c r="D431" s="8">
         <v>7407</v>
+      </c>
+      <c r="E431" s="9">
+        <v>74</v>
       </c>
       <c r="F431" s="9" t="s">
         <v>1440</v>
@@ -11555,11 +14129,17 @@
       <c r="A432" s="6" t="s">
         <v>436</v>
       </c>
+      <c r="B432" s="9">
+        <v>74</v>
+      </c>
       <c r="C432" s="7" t="s">
         <v>950</v>
       </c>
       <c r="D432" s="8">
         <v>7408</v>
+      </c>
+      <c r="E432" s="9">
+        <v>74</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>1441</v>
@@ -11569,11 +14149,17 @@
       <c r="A433" s="6" t="s">
         <v>437</v>
       </c>
+      <c r="B433" s="9">
+        <v>74</v>
+      </c>
       <c r="C433" s="7" t="s">
         <v>951</v>
       </c>
       <c r="D433" s="8">
         <v>7409</v>
+      </c>
+      <c r="E433" s="9">
+        <v>74</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>1442</v>
@@ -11583,11 +14169,17 @@
       <c r="A434" s="6" t="s">
         <v>438</v>
       </c>
+      <c r="B434" s="9">
+        <v>74</v>
+      </c>
       <c r="C434" s="7" t="s">
         <v>952</v>
       </c>
       <c r="D434" s="8">
         <v>7410</v>
+      </c>
+      <c r="E434" s="9">
+        <v>74</v>
       </c>
       <c r="F434" s="9" t="s">
         <v>1443</v>
@@ -11597,11 +14189,17 @@
       <c r="A435" s="6" t="s">
         <v>439</v>
       </c>
+      <c r="B435" s="9">
+        <v>74</v>
+      </c>
       <c r="C435" s="7" t="s">
         <v>953</v>
       </c>
       <c r="D435" s="8">
         <v>7411</v>
+      </c>
+      <c r="E435" s="9">
+        <v>74</v>
       </c>
       <c r="F435" s="9" t="s">
         <v>1444</v>
@@ -11611,11 +14209,17 @@
       <c r="A436" s="6" t="s">
         <v>440</v>
       </c>
+      <c r="B436" s="9">
+        <v>74</v>
+      </c>
       <c r="C436" s="7" t="s">
         <v>954</v>
       </c>
       <c r="D436" s="8">
         <v>7412</v>
+      </c>
+      <c r="E436" s="9">
+        <v>74</v>
       </c>
       <c r="F436" s="9" t="s">
         <v>1445</v>
@@ -11625,11 +14229,17 @@
       <c r="A437" s="6" t="s">
         <v>441</v>
       </c>
+      <c r="B437" s="9">
+        <v>74</v>
+      </c>
       <c r="C437" s="7" t="s">
         <v>955</v>
       </c>
       <c r="D437" s="8">
         <v>7413</v>
+      </c>
+      <c r="E437" s="9">
+        <v>74</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>1446</v>
@@ -11639,11 +14249,17 @@
       <c r="A438" s="6" t="s">
         <v>442</v>
       </c>
+      <c r="B438" s="9">
+        <v>74</v>
+      </c>
       <c r="C438" s="7" t="s">
         <v>956</v>
       </c>
       <c r="D438" s="8">
         <v>7414</v>
+      </c>
+      <c r="E438" s="9">
+        <v>74</v>
       </c>
       <c r="F438" s="9" t="s">
         <v>1447</v>
@@ -11653,11 +14269,17 @@
       <c r="A439" s="6" t="s">
         <v>443</v>
       </c>
+      <c r="B439" s="9">
+        <v>74</v>
+      </c>
       <c r="C439" s="7" t="s">
         <v>957</v>
       </c>
       <c r="D439" s="8">
         <v>7415</v>
+      </c>
+      <c r="E439" s="9">
+        <v>74</v>
       </c>
       <c r="F439" s="9" t="s">
         <v>1448</v>
@@ -11667,11 +14289,17 @@
       <c r="A440" s="6" t="s">
         <v>444</v>
       </c>
+      <c r="B440" s="9">
+        <v>74</v>
+      </c>
       <c r="C440" s="7" t="s">
         <v>958</v>
       </c>
       <c r="D440" s="8">
         <v>7471</v>
+      </c>
+      <c r="E440" s="9">
+        <v>74</v>
       </c>
       <c r="F440" s="9" t="s">
         <v>1449</v>
@@ -11681,11 +14309,17 @@
       <c r="A441" s="6" t="s">
         <v>445</v>
       </c>
+      <c r="B441" s="9">
+        <v>74</v>
+      </c>
       <c r="C441" s="7" t="s">
         <v>959</v>
       </c>
       <c r="D441" s="8">
         <v>7472</v>
+      </c>
+      <c r="E441" s="9">
+        <v>74</v>
       </c>
       <c r="F441" s="9" t="s">
         <v>1450</v>
@@ -11695,11 +14329,17 @@
       <c r="A442" s="6" t="s">
         <v>446</v>
       </c>
+      <c r="B442">
+        <v>75</v>
+      </c>
       <c r="C442" s="7" t="s">
         <v>960</v>
       </c>
       <c r="D442" s="8">
         <v>7501</v>
+      </c>
+      <c r="E442" s="9">
+        <v>75</v>
       </c>
       <c r="F442" s="9" t="s">
         <v>1451</v>
@@ -11709,11 +14349,17 @@
       <c r="A443" s="6" t="s">
         <v>447</v>
       </c>
+      <c r="B443" s="9">
+        <v>75</v>
+      </c>
       <c r="C443" s="7" t="s">
         <v>961</v>
       </c>
       <c r="D443" s="8">
         <v>7502</v>
+      </c>
+      <c r="E443" s="9">
+        <v>75</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>1452</v>
@@ -11723,11 +14369,17 @@
       <c r="A444" s="6" t="s">
         <v>448</v>
       </c>
+      <c r="B444" s="9">
+        <v>75</v>
+      </c>
       <c r="C444" s="7" t="s">
         <v>962</v>
       </c>
       <c r="D444" s="8">
         <v>7503</v>
+      </c>
+      <c r="E444" s="9">
+        <v>75</v>
       </c>
       <c r="F444" s="9" t="s">
         <v>1453</v>
@@ -11737,11 +14389,17 @@
       <c r="A445" s="6" t="s">
         <v>449</v>
       </c>
+      <c r="B445" s="9">
+        <v>75</v>
+      </c>
       <c r="C445" s="7" t="s">
         <v>963</v>
       </c>
       <c r="D445" s="8">
         <v>7504</v>
+      </c>
+      <c r="E445" s="9">
+        <v>75</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>1454</v>
@@ -11751,11 +14409,17 @@
       <c r="A446" s="6" t="s">
         <v>450</v>
       </c>
+      <c r="B446" s="9">
+        <v>75</v>
+      </c>
       <c r="C446" s="7" t="s">
         <v>964</v>
       </c>
       <c r="D446" s="8">
         <v>7505</v>
+      </c>
+      <c r="E446" s="9">
+        <v>75</v>
       </c>
       <c r="F446" s="9" t="s">
         <v>1455</v>
@@ -11765,11 +14429,17 @@
       <c r="A447" s="6" t="s">
         <v>451</v>
       </c>
+      <c r="B447" s="9">
+        <v>75</v>
+      </c>
       <c r="C447" s="7" t="s">
         <v>965</v>
       </c>
       <c r="D447" s="8">
         <v>7571</v>
+      </c>
+      <c r="E447" s="9">
+        <v>75</v>
       </c>
       <c r="F447" s="9" t="s">
         <v>1452</v>
@@ -11779,11 +14449,17 @@
       <c r="A448" s="6" t="s">
         <v>452</v>
       </c>
+      <c r="B448">
+        <v>76</v>
+      </c>
       <c r="C448" s="7" t="s">
         <v>966</v>
       </c>
       <c r="D448" s="8">
         <v>7601</v>
+      </c>
+      <c r="E448" s="9">
+        <v>76</v>
       </c>
       <c r="F448" s="9" t="s">
         <v>1456</v>
@@ -11793,11 +14469,17 @@
       <c r="A449" s="6" t="s">
         <v>453</v>
       </c>
+      <c r="B449" s="9">
+        <v>76</v>
+      </c>
       <c r="C449" s="7" t="s">
         <v>967</v>
       </c>
       <c r="D449" s="8">
         <v>7602</v>
+      </c>
+      <c r="E449" s="9">
+        <v>76</v>
       </c>
       <c r="F449" s="9" t="s">
         <v>1457</v>
@@ -11807,11 +14489,17 @@
       <c r="A450" s="6" t="s">
         <v>454</v>
       </c>
+      <c r="B450" s="9">
+        <v>76</v>
+      </c>
       <c r="C450" s="7" t="s">
         <v>968</v>
       </c>
       <c r="D450" s="8">
         <v>7603</v>
+      </c>
+      <c r="E450" s="9">
+        <v>76</v>
       </c>
       <c r="F450" s="9" t="s">
         <v>1458</v>
@@ -11821,11 +14509,17 @@
       <c r="A451" s="6" t="s">
         <v>455</v>
       </c>
+      <c r="B451" s="9">
+        <v>76</v>
+      </c>
       <c r="C451" s="7" t="s">
         <v>969</v>
       </c>
       <c r="D451" s="8">
         <v>7604</v>
+      </c>
+      <c r="E451" s="9">
+        <v>76</v>
       </c>
       <c r="F451" s="9" t="s">
         <v>1459</v>
@@ -11835,11 +14529,17 @@
       <c r="A452" s="6" t="s">
         <v>456</v>
       </c>
+      <c r="B452" s="9">
+        <v>76</v>
+      </c>
       <c r="C452" s="7" t="s">
         <v>970</v>
       </c>
       <c r="D452" s="8">
         <v>7605</v>
+      </c>
+      <c r="E452" s="9">
+        <v>76</v>
       </c>
       <c r="F452" s="9" t="s">
         <v>1460</v>
@@ -11849,11 +14549,17 @@
       <c r="A453" s="6" t="s">
         <v>457</v>
       </c>
+      <c r="B453" s="9">
+        <v>76</v>
+      </c>
       <c r="C453" s="7" t="s">
         <v>971</v>
       </c>
       <c r="D453" s="8">
         <v>7606</v>
+      </c>
+      <c r="E453" s="9">
+        <v>76</v>
       </c>
       <c r="F453" s="9" t="s">
         <v>1461</v>
@@ -11863,11 +14569,17 @@
       <c r="A454" s="6" t="s">
         <v>458</v>
       </c>
+      <c r="B454">
+        <v>81</v>
+      </c>
       <c r="C454" s="7" t="s">
         <v>972</v>
       </c>
       <c r="D454" s="8">
         <v>8101</v>
+      </c>
+      <c r="E454" s="9">
+        <v>81</v>
       </c>
       <c r="F454" s="9" t="s">
         <v>1462</v>
@@ -11877,11 +14589,17 @@
       <c r="A455" s="6" t="s">
         <v>459</v>
       </c>
+      <c r="B455" s="9">
+        <v>81</v>
+      </c>
       <c r="C455" s="7" t="s">
         <v>973</v>
       </c>
       <c r="D455" s="8">
         <v>8102</v>
+      </c>
+      <c r="E455" s="9">
+        <v>81</v>
       </c>
       <c r="F455" s="9" t="s">
         <v>1463</v>
@@ -11891,11 +14609,17 @@
       <c r="A456" s="6" t="s">
         <v>460</v>
       </c>
+      <c r="B456" s="9">
+        <v>81</v>
+      </c>
       <c r="C456" s="7" t="s">
         <v>974</v>
       </c>
       <c r="D456" s="8">
         <v>8103</v>
+      </c>
+      <c r="E456" s="9">
+        <v>81</v>
       </c>
       <c r="F456" s="9" t="s">
         <v>1464</v>
@@ -11905,11 +14629,17 @@
       <c r="A457" s="6" t="s">
         <v>461</v>
       </c>
+      <c r="B457" s="9">
+        <v>81</v>
+      </c>
       <c r="C457" s="7" t="s">
         <v>975</v>
       </c>
       <c r="D457" s="8">
         <v>8104</v>
+      </c>
+      <c r="E457" s="9">
+        <v>81</v>
       </c>
       <c r="F457" s="9" t="s">
         <v>1465</v>
@@ -11919,11 +14649,17 @@
       <c r="A458" s="6" t="s">
         <v>462</v>
       </c>
+      <c r="B458" s="9">
+        <v>81</v>
+      </c>
       <c r="C458" s="7" t="s">
         <v>976</v>
       </c>
       <c r="D458" s="8">
         <v>8105</v>
+      </c>
+      <c r="E458" s="9">
+        <v>81</v>
       </c>
       <c r="F458" s="9" t="s">
         <v>1466</v>
@@ -11933,11 +14669,17 @@
       <c r="A459" s="6" t="s">
         <v>463</v>
       </c>
+      <c r="B459" s="9">
+        <v>81</v>
+      </c>
       <c r="C459" s="7" t="s">
         <v>977</v>
       </c>
       <c r="D459" s="8">
         <v>8106</v>
+      </c>
+      <c r="E459" s="9">
+        <v>81</v>
       </c>
       <c r="F459" s="9" t="s">
         <v>1467</v>
@@ -11947,11 +14689,17 @@
       <c r="A460" s="6" t="s">
         <v>464</v>
       </c>
+      <c r="B460" s="9">
+        <v>81</v>
+      </c>
       <c r="C460" s="7" t="s">
         <v>978</v>
       </c>
       <c r="D460" s="8">
         <v>8107</v>
+      </c>
+      <c r="E460" s="9">
+        <v>81</v>
       </c>
       <c r="F460" s="9" t="s">
         <v>1468</v>
@@ -11961,11 +14709,17 @@
       <c r="A461" s="6" t="s">
         <v>465</v>
       </c>
+      <c r="B461" s="9">
+        <v>81</v>
+      </c>
       <c r="C461" s="7" t="s">
         <v>979</v>
       </c>
       <c r="D461" s="8">
         <v>8108</v>
+      </c>
+      <c r="E461" s="9">
+        <v>81</v>
       </c>
       <c r="F461" s="9" t="s">
         <v>1469</v>
@@ -11975,11 +14729,17 @@
       <c r="A462" s="6" t="s">
         <v>466</v>
       </c>
+      <c r="B462" s="9">
+        <v>81</v>
+      </c>
       <c r="C462" s="7" t="s">
         <v>980</v>
       </c>
       <c r="D462" s="8">
         <v>8109</v>
+      </c>
+      <c r="E462" s="9">
+        <v>81</v>
       </c>
       <c r="F462" s="9" t="s">
         <v>1470</v>
@@ -11989,11 +14749,17 @@
       <c r="A463" s="6" t="s">
         <v>467</v>
       </c>
+      <c r="B463" s="9">
+        <v>81</v>
+      </c>
       <c r="C463" s="7" t="s">
         <v>981</v>
       </c>
       <c r="D463" s="8">
         <v>8171</v>
+      </c>
+      <c r="E463" s="9">
+        <v>81</v>
       </c>
       <c r="F463" s="9" t="s">
         <v>1471</v>
@@ -12003,11 +14769,17 @@
       <c r="A464" s="6" t="s">
         <v>468</v>
       </c>
+      <c r="B464" s="9">
+        <v>81</v>
+      </c>
       <c r="C464" s="7" t="s">
         <v>982</v>
       </c>
       <c r="D464" s="8">
         <v>8172</v>
+      </c>
+      <c r="E464" s="9">
+        <v>81</v>
       </c>
       <c r="F464" s="9" t="s">
         <v>1472</v>
@@ -12017,11 +14789,17 @@
       <c r="A465" s="6" t="s">
         <v>469</v>
       </c>
+      <c r="B465">
+        <v>82</v>
+      </c>
       <c r="C465" s="7" t="s">
         <v>983</v>
       </c>
       <c r="D465" s="8">
         <v>8201</v>
+      </c>
+      <c r="E465" s="9">
+        <v>82</v>
       </c>
       <c r="F465" s="9" t="s">
         <v>1473</v>
@@ -12031,11 +14809,17 @@
       <c r="A466" s="6" t="s">
         <v>470</v>
       </c>
+      <c r="B466" s="9">
+        <v>82</v>
+      </c>
       <c r="C466" s="7" t="s">
         <v>984</v>
       </c>
       <c r="D466" s="8">
         <v>8202</v>
+      </c>
+      <c r="E466" s="9">
+        <v>82</v>
       </c>
       <c r="F466" s="9" t="s">
         <v>1474</v>
@@ -12045,11 +14829,17 @@
       <c r="A467" s="6" t="s">
         <v>471</v>
       </c>
+      <c r="B467" s="9">
+        <v>82</v>
+      </c>
       <c r="C467" s="7" t="s">
         <v>985</v>
       </c>
       <c r="D467" s="8">
         <v>8203</v>
+      </c>
+      <c r="E467" s="9">
+        <v>82</v>
       </c>
       <c r="F467" s="9" t="s">
         <v>1475</v>
@@ -12059,11 +14849,17 @@
       <c r="A468" s="6" t="s">
         <v>472</v>
       </c>
+      <c r="B468" s="9">
+        <v>82</v>
+      </c>
       <c r="C468" s="7" t="s">
         <v>986</v>
       </c>
       <c r="D468" s="8">
         <v>8204</v>
+      </c>
+      <c r="E468" s="9">
+        <v>82</v>
       </c>
       <c r="F468" s="9" t="s">
         <v>1476</v>
@@ -12073,11 +14869,17 @@
       <c r="A469" s="6" t="s">
         <v>473</v>
       </c>
+      <c r="B469" s="9">
+        <v>82</v>
+      </c>
       <c r="C469" s="7" t="s">
         <v>987</v>
       </c>
       <c r="D469" s="8">
         <v>8205</v>
+      </c>
+      <c r="E469" s="9">
+        <v>82</v>
       </c>
       <c r="F469" s="9" t="s">
         <v>1477</v>
@@ -12087,11 +14889,17 @@
       <c r="A470" s="6" t="s">
         <v>474</v>
       </c>
+      <c r="B470" s="9">
+        <v>82</v>
+      </c>
       <c r="C470" s="7" t="s">
         <v>988</v>
       </c>
       <c r="D470" s="8">
         <v>8206</v>
+      </c>
+      <c r="E470" s="9">
+        <v>82</v>
       </c>
       <c r="F470" s="9" t="s">
         <v>1478</v>
@@ -12101,11 +14909,17 @@
       <c r="A471" s="6" t="s">
         <v>475</v>
       </c>
+      <c r="B471" s="9">
+        <v>82</v>
+      </c>
       <c r="C471" s="7" t="s">
         <v>989</v>
       </c>
       <c r="D471" s="8">
         <v>8207</v>
+      </c>
+      <c r="E471" s="9">
+        <v>82</v>
       </c>
       <c r="F471" s="9" t="s">
         <v>1479</v>
@@ -12115,11 +14929,17 @@
       <c r="A472" s="6" t="s">
         <v>476</v>
       </c>
+      <c r="B472" s="9">
+        <v>82</v>
+      </c>
       <c r="C472" s="7" t="s">
         <v>990</v>
       </c>
       <c r="D472" s="8">
         <v>8208</v>
+      </c>
+      <c r="E472" s="9">
+        <v>82</v>
       </c>
       <c r="F472" s="9" t="s">
         <v>1480</v>
@@ -12129,11 +14949,17 @@
       <c r="A473" s="6" t="s">
         <v>477</v>
       </c>
+      <c r="B473" s="9">
+        <v>82</v>
+      </c>
       <c r="C473" s="7" t="s">
         <v>991</v>
       </c>
       <c r="D473" s="8">
         <v>8271</v>
+      </c>
+      <c r="E473" s="9">
+        <v>82</v>
       </c>
       <c r="F473" s="9" t="s">
         <v>1481</v>
@@ -12143,11 +14969,17 @@
       <c r="A474" s="6" t="s">
         <v>478</v>
       </c>
+      <c r="B474" s="9">
+        <v>82</v>
+      </c>
       <c r="C474" s="7" t="s">
         <v>992</v>
       </c>
       <c r="D474" s="8">
         <v>8272</v>
+      </c>
+      <c r="E474" s="9">
+        <v>82</v>
       </c>
       <c r="F474" s="9" t="s">
         <v>1482</v>
@@ -12157,11 +14989,17 @@
       <c r="A475" s="6" t="s">
         <v>479</v>
       </c>
+      <c r="B475">
+        <v>92</v>
+      </c>
       <c r="C475" s="7" t="s">
         <v>993</v>
       </c>
       <c r="D475" s="8">
         <v>9101</v>
+      </c>
+      <c r="E475" s="9">
+        <v>91</v>
       </c>
       <c r="F475" s="9" t="s">
         <v>1483</v>
@@ -12171,11 +15009,17 @@
       <c r="A476" s="6" t="s">
         <v>480</v>
       </c>
+      <c r="B476" s="9">
+        <v>92</v>
+      </c>
       <c r="C476" s="7" t="s">
         <v>994</v>
       </c>
       <c r="D476" s="8">
         <v>9102</v>
+      </c>
+      <c r="E476" s="9">
+        <v>91</v>
       </c>
       <c r="F476" s="9" t="s">
         <v>1484</v>
@@ -12185,11 +15029,17 @@
       <c r="A477" s="6" t="s">
         <v>481</v>
       </c>
+      <c r="B477" s="9">
+        <v>92</v>
+      </c>
       <c r="C477" s="7" t="s">
         <v>995</v>
       </c>
       <c r="D477" s="8">
         <v>9103</v>
+      </c>
+      <c r="E477" s="9">
+        <v>91</v>
       </c>
       <c r="F477" s="9" t="s">
         <v>1485</v>
@@ -12199,11 +15049,17 @@
       <c r="A478" s="6" t="s">
         <v>482</v>
       </c>
+      <c r="B478" s="9">
+        <v>92</v>
+      </c>
       <c r="C478" s="7" t="s">
         <v>996</v>
       </c>
       <c r="D478" s="8">
         <v>9104</v>
+      </c>
+      <c r="E478" s="9">
+        <v>91</v>
       </c>
       <c r="F478" s="9" t="s">
         <v>1486</v>
@@ -12213,11 +15069,17 @@
       <c r="A479" s="6" t="s">
         <v>483</v>
       </c>
+      <c r="B479" s="9">
+        <v>92</v>
+      </c>
       <c r="C479" s="7" t="s">
         <v>997</v>
       </c>
       <c r="D479" s="8">
         <v>9105</v>
+      </c>
+      <c r="E479" s="9">
+        <v>91</v>
       </c>
       <c r="F479" s="9" t="s">
         <v>1487</v>
@@ -12227,11 +15089,17 @@
       <c r="A480" s="6" t="s">
         <v>484</v>
       </c>
+      <c r="B480" s="9">
+        <v>92</v>
+      </c>
       <c r="C480" s="7" t="s">
         <v>998</v>
       </c>
       <c r="D480" s="8">
         <v>9106</v>
+      </c>
+      <c r="E480" s="9">
+        <v>91</v>
       </c>
       <c r="F480" s="9" t="s">
         <v>1488</v>
@@ -12241,11 +15109,17 @@
       <c r="A481" s="6" t="s">
         <v>485</v>
       </c>
+      <c r="B481" s="9">
+        <v>92</v>
+      </c>
       <c r="C481" s="7" t="s">
         <v>999</v>
       </c>
       <c r="D481" s="8">
         <v>9107</v>
+      </c>
+      <c r="E481" s="9">
+        <v>91</v>
       </c>
       <c r="F481" s="9" t="s">
         <v>1489</v>
@@ -12255,11 +15129,17 @@
       <c r="A482" s="6" t="s">
         <v>486</v>
       </c>
+      <c r="B482" s="9">
+        <v>92</v>
+      </c>
       <c r="C482" s="7" t="s">
         <v>1000</v>
       </c>
       <c r="D482" s="8">
         <v>9108</v>
+      </c>
+      <c r="E482" s="9">
+        <v>91</v>
       </c>
       <c r="F482" s="9" t="s">
         <v>1490</v>
@@ -12269,11 +15149,17 @@
       <c r="A483" s="6" t="s">
         <v>487</v>
       </c>
+      <c r="B483" s="9">
+        <v>92</v>
+      </c>
       <c r="C483" s="7" t="s">
         <v>1001</v>
       </c>
       <c r="D483" s="8">
         <v>9109</v>
+      </c>
+      <c r="E483" s="9">
+        <v>91</v>
       </c>
       <c r="F483" s="9" t="s">
         <v>1491</v>
@@ -12283,11 +15169,17 @@
       <c r="A484" s="6" t="s">
         <v>488</v>
       </c>
+      <c r="B484" s="9">
+        <v>92</v>
+      </c>
       <c r="C484" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="D484" s="8">
         <v>9110</v>
+      </c>
+      <c r="E484" s="9">
+        <v>91</v>
       </c>
       <c r="F484" s="9" t="s">
         <v>1492</v>
@@ -12297,11 +15189,17 @@
       <c r="A485" s="6" t="s">
         <v>489</v>
       </c>
+      <c r="B485" s="9">
+        <v>92</v>
+      </c>
       <c r="C485" s="7" t="s">
         <v>1003</v>
       </c>
       <c r="D485" s="8">
         <v>9111</v>
+      </c>
+      <c r="E485" s="9">
+        <v>91</v>
       </c>
       <c r="F485" s="9" t="s">
         <v>1493</v>
@@ -12311,11 +15209,17 @@
       <c r="A486" s="6" t="s">
         <v>490</v>
       </c>
+      <c r="B486" s="9">
+        <v>92</v>
+      </c>
       <c r="C486" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="D486" s="8">
         <v>9112</v>
+      </c>
+      <c r="E486" s="9">
+        <v>91</v>
       </c>
       <c r="F486" s="9" t="s">
         <v>1494</v>
@@ -12325,11 +15229,17 @@
       <c r="A487" s="6" t="s">
         <v>491</v>
       </c>
+      <c r="B487" s="9">
+        <v>92</v>
+      </c>
       <c r="C487" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="D487" s="8">
         <v>9171</v>
+      </c>
+      <c r="E487" s="9">
+        <v>91</v>
       </c>
       <c r="F487" s="9" t="s">
         <v>1489</v>
@@ -12339,11 +15249,17 @@
       <c r="A488" s="6" t="s">
         <v>492</v>
       </c>
+      <c r="B488">
+        <v>91</v>
+      </c>
       <c r="C488" s="7" t="s">
         <v>1006</v>
       </c>
       <c r="D488" s="8">
         <v>9401</v>
+      </c>
+      <c r="E488">
+        <v>94</v>
       </c>
       <c r="F488" s="9" t="s">
         <v>1495</v>
@@ -12353,11 +15269,17 @@
       <c r="A489" s="6" t="s">
         <v>493</v>
       </c>
+      <c r="B489" s="9">
+        <v>91</v>
+      </c>
       <c r="C489" s="7" t="s">
         <v>1007</v>
       </c>
       <c r="D489" s="8">
         <v>9402</v>
+      </c>
+      <c r="E489" s="9">
+        <v>94</v>
       </c>
       <c r="F489" s="9" t="s">
         <v>1496</v>
@@ -12367,11 +15289,17 @@
       <c r="A490" s="6" t="s">
         <v>494</v>
       </c>
+      <c r="B490" s="9">
+        <v>91</v>
+      </c>
       <c r="C490" s="7" t="s">
         <v>1008</v>
       </c>
       <c r="D490" s="8">
         <v>9403</v>
+      </c>
+      <c r="E490" s="9">
+        <v>94</v>
       </c>
       <c r="F490" s="9" t="s">
         <v>1497</v>
@@ -12381,11 +15309,17 @@
       <c r="A491" s="6" t="s">
         <v>495</v>
       </c>
+      <c r="B491" s="9">
+        <v>91</v>
+      </c>
       <c r="C491" s="7" t="s">
         <v>1009</v>
       </c>
       <c r="D491" s="8">
         <v>9404</v>
+      </c>
+      <c r="E491" s="9">
+        <v>94</v>
       </c>
       <c r="F491" s="9" t="s">
         <v>1498</v>
@@ -12395,11 +15329,17 @@
       <c r="A492" s="6" t="s">
         <v>496</v>
       </c>
+      <c r="B492" s="9">
+        <v>91</v>
+      </c>
       <c r="C492" s="7" t="s">
         <v>1010</v>
       </c>
       <c r="D492" s="8">
         <v>9408</v>
+      </c>
+      <c r="E492" s="9">
+        <v>94</v>
       </c>
       <c r="F492" s="9" t="s">
         <v>1499</v>
@@ -12409,11 +15349,17 @@
       <c r="A493" s="6" t="s">
         <v>497</v>
       </c>
+      <c r="B493" s="9">
+        <v>91</v>
+      </c>
       <c r="C493" s="7" t="s">
         <v>1011</v>
       </c>
       <c r="D493" s="8">
         <v>9409</v>
+      </c>
+      <c r="E493" s="9">
+        <v>94</v>
       </c>
       <c r="F493" s="9" t="s">
         <v>1500</v>
@@ -12423,11 +15369,17 @@
       <c r="A494" s="6" t="s">
         <v>498</v>
       </c>
+      <c r="B494" s="9">
+        <v>91</v>
+      </c>
       <c r="C494" s="7" t="s">
         <v>1012</v>
       </c>
       <c r="D494" s="8">
         <v>9410</v>
+      </c>
+      <c r="E494" s="9">
+        <v>94</v>
       </c>
       <c r="F494" s="9" t="s">
         <v>1501</v>
@@ -12437,11 +15389,17 @@
       <c r="A495" s="6" t="s">
         <v>499</v>
       </c>
+      <c r="B495" s="9">
+        <v>91</v>
+      </c>
       <c r="C495" s="7" t="s">
         <v>1013</v>
       </c>
       <c r="D495" s="8">
         <v>9411</v>
+      </c>
+      <c r="E495" s="9">
+        <v>94</v>
       </c>
       <c r="F495" s="9" t="s">
         <v>1502</v>
@@ -12451,11 +15409,17 @@
       <c r="A496" s="6" t="s">
         <v>500</v>
       </c>
+      <c r="B496" s="9">
+        <v>91</v>
+      </c>
       <c r="C496" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="D496" s="8">
         <v>9412</v>
+      </c>
+      <c r="E496" s="9">
+        <v>94</v>
       </c>
       <c r="F496" s="9" t="s">
         <v>1503</v>
@@ -12465,11 +15429,17 @@
       <c r="A497" s="6" t="s">
         <v>501</v>
       </c>
+      <c r="B497" s="9">
+        <v>91</v>
+      </c>
       <c r="C497" s="7" t="s">
         <v>1015</v>
       </c>
       <c r="D497" s="8">
         <v>9413</v>
+      </c>
+      <c r="E497" s="9">
+        <v>94</v>
       </c>
       <c r="F497" s="9" t="s">
         <v>1504</v>
@@ -12479,11 +15449,17 @@
       <c r="A498" s="6" t="s">
         <v>502</v>
       </c>
+      <c r="B498" s="9">
+        <v>91</v>
+      </c>
       <c r="C498" s="7" t="s">
         <v>1016</v>
       </c>
       <c r="D498" s="8">
         <v>9414</v>
+      </c>
+      <c r="E498" s="9">
+        <v>94</v>
       </c>
       <c r="F498" s="9" t="s">
         <v>1505</v>
@@ -12493,11 +15469,17 @@
       <c r="A499" s="6" t="s">
         <v>503</v>
       </c>
+      <c r="B499" s="9">
+        <v>91</v>
+      </c>
       <c r="C499" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="D499" s="8">
         <v>9415</v>
+      </c>
+      <c r="E499" s="9">
+        <v>94</v>
       </c>
       <c r="F499" s="9" t="s">
         <v>1506</v>
@@ -12507,11 +15489,17 @@
       <c r="A500" s="6" t="s">
         <v>504</v>
       </c>
+      <c r="B500" s="9">
+        <v>91</v>
+      </c>
       <c r="C500" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="D500" s="8">
         <v>9416</v>
+      </c>
+      <c r="E500" s="9">
+        <v>94</v>
       </c>
       <c r="F500" s="9" t="s">
         <v>1507</v>
@@ -12521,11 +15509,17 @@
       <c r="A501" s="6" t="s">
         <v>505</v>
       </c>
+      <c r="B501" s="9">
+        <v>91</v>
+      </c>
       <c r="C501" s="7" t="s">
         <v>1019</v>
       </c>
       <c r="D501" s="8">
         <v>9417</v>
+      </c>
+      <c r="E501" s="9">
+        <v>94</v>
       </c>
       <c r="F501" s="9" t="s">
         <v>1508</v>
@@ -12535,11 +15529,17 @@
       <c r="A502" s="6" t="s">
         <v>506</v>
       </c>
+      <c r="B502" s="9">
+        <v>91</v>
+      </c>
       <c r="C502" s="7" t="s">
         <v>1020</v>
       </c>
       <c r="D502" s="8">
         <v>9418</v>
+      </c>
+      <c r="E502" s="9">
+        <v>94</v>
       </c>
       <c r="F502" s="9" t="s">
         <v>1509</v>
@@ -12549,11 +15549,17 @@
       <c r="A503" s="6" t="s">
         <v>507</v>
       </c>
+      <c r="B503" s="9">
+        <v>91</v>
+      </c>
       <c r="C503" s="7" t="s">
         <v>1021</v>
       </c>
       <c r="D503" s="8">
         <v>9419</v>
+      </c>
+      <c r="E503" s="9">
+        <v>94</v>
       </c>
       <c r="F503" s="9" t="s">
         <v>1510</v>
@@ -12563,11 +15569,17 @@
       <c r="A504" s="6" t="s">
         <v>508</v>
       </c>
+      <c r="B504" s="9">
+        <v>91</v>
+      </c>
       <c r="C504" s="7" t="s">
         <v>1022</v>
       </c>
       <c r="D504" s="8">
         <v>9420</v>
+      </c>
+      <c r="E504" s="9">
+        <v>94</v>
       </c>
       <c r="F504" s="9" t="s">
         <v>1511</v>
@@ -12577,11 +15589,17 @@
       <c r="A505" s="6" t="s">
         <v>509</v>
       </c>
+      <c r="B505" s="9">
+        <v>91</v>
+      </c>
       <c r="C505" s="7" t="s">
         <v>1023</v>
       </c>
       <c r="D505" s="8">
         <v>9426</v>
+      </c>
+      <c r="E505" s="9">
+        <v>94</v>
       </c>
       <c r="F505" s="9" t="s">
         <v>1512</v>
@@ -12591,11 +15609,17 @@
       <c r="A506" s="6" t="s">
         <v>510</v>
       </c>
+      <c r="B506" s="9">
+        <v>91</v>
+      </c>
       <c r="C506" s="7" t="s">
         <v>1024</v>
       </c>
       <c r="D506" s="8">
         <v>9427</v>
+      </c>
+      <c r="E506" s="9">
+        <v>94</v>
       </c>
       <c r="F506" s="9" t="s">
         <v>1513</v>
@@ -12605,11 +15629,17 @@
       <c r="A507" s="6" t="s">
         <v>511</v>
       </c>
+      <c r="B507" s="9">
+        <v>91</v>
+      </c>
       <c r="C507" s="7" t="s">
         <v>1025</v>
       </c>
       <c r="D507" s="8">
         <v>9428</v>
+      </c>
+      <c r="E507" s="9">
+        <v>94</v>
       </c>
       <c r="F507" s="9" t="s">
         <v>1514</v>
@@ -12619,11 +15649,17 @@
       <c r="A508" s="6" t="s">
         <v>512</v>
       </c>
+      <c r="B508" s="9">
+        <v>91</v>
+      </c>
       <c r="C508" s="7" t="s">
         <v>1026</v>
       </c>
       <c r="D508" s="8">
         <v>9429</v>
+      </c>
+      <c r="E508" s="9">
+        <v>94</v>
       </c>
       <c r="F508" s="9" t="s">
         <v>1515</v>
@@ -12633,11 +15669,17 @@
       <c r="A509" s="6" t="s">
         <v>513</v>
       </c>
+      <c r="B509" s="9">
+        <v>91</v>
+      </c>
       <c r="C509" s="7" t="s">
         <v>1027</v>
       </c>
       <c r="D509" s="8">
         <v>9430</v>
+      </c>
+      <c r="E509" s="9">
+        <v>94</v>
       </c>
       <c r="F509" s="9" t="s">
         <v>1516</v>
@@ -12647,11 +15689,17 @@
       <c r="A510" s="6" t="s">
         <v>514</v>
       </c>
+      <c r="B510" s="9">
+        <v>91</v>
+      </c>
       <c r="C510" s="7" t="s">
         <v>1028</v>
       </c>
       <c r="D510" s="8">
         <v>9431</v>
+      </c>
+      <c r="E510" s="9">
+        <v>94</v>
       </c>
       <c r="F510" s="9" t="s">
         <v>1517</v>
@@ -12661,11 +15709,17 @@
       <c r="A511" s="6" t="s">
         <v>515</v>
       </c>
+      <c r="B511" s="9">
+        <v>91</v>
+      </c>
       <c r="C511" s="7" t="s">
         <v>1029</v>
       </c>
       <c r="D511" s="8">
         <v>9432</v>
+      </c>
+      <c r="E511" s="9">
+        <v>94</v>
       </c>
       <c r="F511" s="9" t="s">
         <v>1518</v>
@@ -12675,11 +15729,17 @@
       <c r="A512" s="6" t="s">
         <v>516</v>
       </c>
+      <c r="B512" s="9">
+        <v>91</v>
+      </c>
       <c r="C512" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="D512" s="8">
         <v>9433</v>
+      </c>
+      <c r="E512" s="9">
+        <v>94</v>
       </c>
       <c r="F512" s="9" t="s">
         <v>1519</v>
@@ -12689,11 +15749,17 @@
       <c r="A513" s="6" t="s">
         <v>517</v>
       </c>
+      <c r="B513" s="9">
+        <v>91</v>
+      </c>
       <c r="C513" s="7" t="s">
         <v>1031</v>
       </c>
       <c r="D513" s="8">
         <v>9434</v>
+      </c>
+      <c r="E513" s="9">
+        <v>94</v>
       </c>
       <c r="F513" s="9" t="s">
         <v>1520</v>
@@ -12703,11 +15769,17 @@
       <c r="A514" s="6" t="s">
         <v>518</v>
       </c>
+      <c r="B514" s="9">
+        <v>91</v>
+      </c>
       <c r="C514" s="7" t="s">
         <v>1032</v>
       </c>
       <c r="D514" s="8">
         <v>9435</v>
+      </c>
+      <c r="E514" s="9">
+        <v>94</v>
       </c>
       <c r="F514" s="9" t="s">
         <v>1521</v>
@@ -12717,11 +15789,17 @@
       <c r="A515" s="6" t="s">
         <v>519</v>
       </c>
+      <c r="B515" s="9">
+        <v>91</v>
+      </c>
       <c r="C515" s="7" t="s">
         <v>1033</v>
       </c>
       <c r="D515" s="8">
         <v>9436</v>
+      </c>
+      <c r="E515" s="9">
+        <v>94</v>
       </c>
       <c r="F515" s="9" t="s">
         <v>1522</v>
@@ -12731,20 +15809,23 @@
       <c r="A516" s="6" t="s">
         <v>520</v>
       </c>
+      <c r="B516" s="9">
+        <v>91</v>
+      </c>
       <c r="C516" s="7" t="s">
         <v>1034</v>
       </c>
       <c r="D516" s="8">
         <v>9471</v>
       </c>
+      <c r="E516" s="9">
+        <v>94</v>
+      </c>
       <c r="F516" s="9" t="s">
         <v>1497</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD516 A89023:XFD1048576 G517:XFD89022">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>